--- a/TCS_NEWUI_Summary Tag.xlsx
+++ b/TCS_NEWUI_Summary Tag.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikita.dave\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sumit Rana\Projects\AdIntel- New\Test Cases\TC Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7FC17D-5DA1-4F2B-9B22-1B1760A81EE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03C535B-FE2A-45BE-9164-41BA84C381C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="815" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="5" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="260">
   <si>
     <t>Test Case Result Modules-Wise</t>
   </si>
@@ -917,6 +917,94 @@
   </si>
   <si>
     <t>Redesign - Summary Tags</t>
+  </si>
+  <si>
+    <t>Verify the applied filter and Filter tags persist switching between the reports</t>
+  </si>
+  <si>
+    <t>Verify the applied saved search and modifications made persist while switching the reports</t>
+  </si>
+  <si>
+    <t>TC25</t>
+  </si>
+  <si>
+    <t>TC26</t>
+  </si>
+  <si>
+    <t>US:WEB-7383_TC 25</t>
+  </si>
+  <si>
+    <t>Click on Search options summary tag and apply new filters</t>
+  </si>
+  <si>
+    <t>Switch to other report</t>
+  </si>
+  <si>
+    <t>Account - Brand Canada
+Report - Print dynamics dashboard (Occurence)</t>
+  </si>
+  <si>
+    <t>Reset the Filters</t>
+  </si>
+  <si>
+    <t>The Filters should be reset to default filters and the Modified filter tags should be reset to default ones</t>
+  </si>
+  <si>
+    <t>The Report should have the default filters as all the applied Filters where reset in the previous report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Search options window should open
+2. User should be able to select the search options and Apply
+3.Filter should be applied and Filter tags should display showing search options selected and with a reset icon on it
+4. Save and Reset secondary button on the top right corner should be enabled
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. All the applied filters in the previous report should persist
+2. All the filter tags in the previous report should be displayed the same way in the current report
+3. Save and Reset secondary button on the top right corner should be enabled
+ </t>
+  </si>
+  <si>
+    <t>US:WEB-7383_TC 26</t>
+  </si>
+  <si>
+    <t>Apply any saved search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. All the applied filters in the previous report should persist
+2. All the filter tags in the previous report should be displayed the same way in the current report
+3. Save and other secondary button on the top right corner should be enabled
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Saved search should be applied
+2. Filter should be applied and Filter tags should display showing search options
+3. Save and other secondary button on the top right corner should be enabled
+ </t>
+  </si>
+  <si>
+    <t>Update the Filters</t>
+  </si>
+  <si>
+    <t>Search window should open and user should be able to update the filters.
+Filter tags should be modified as per the updated filters.
+All Secondary action buttons on the top right corner with Save and Reset button should be enabled</t>
+  </si>
+  <si>
+    <t>The Report should have the updated filters</t>
+  </si>
+  <si>
+    <t>Switch back to the other report</t>
+  </si>
+  <si>
+    <t>SMRT-8065</t>
+  </si>
+  <si>
+    <t>Verify the applied filter and Filter tags persist switching between the reports (case for SMRT-8047)</t>
+  </si>
+  <si>
+    <t>Verify the applied saved search and modifications made persist while switching the reports (case for SMRT-8047)</t>
   </si>
 </sst>
 </file>
@@ -2405,7 +2493,7 @@
     <xf numFmtId="41" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="92" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="134"/>
@@ -2582,78 +2670,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="146" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="1" xfId="134" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" xfId="134" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="13" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="17" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="14" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="15" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="16" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="11" xfId="136" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="146" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="41" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="42" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="43" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="30" borderId="41" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="30" borderId="42" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="30" borderId="43" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="41" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="42" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="43" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="24" borderId="22" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="24" borderId="23" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="30" xfId="136" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="31" xfId="136" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="29" borderId="0" xfId="144" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="29" borderId="40" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="19" xfId="144" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2681,6 +2697,81 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="146" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="146" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="1" xfId="134" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" xfId="134" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="13" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="17" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="14" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="15" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="16" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="11" xfId="136" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="146" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="41" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="42" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="43" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="41" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="42" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="43" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="30" borderId="41" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="30" borderId="42" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="30" borderId="43" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="24" borderId="22" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="24" borderId="23" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="30" xfId="136" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="31" xfId="136" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="29" borderId="0" xfId="144" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="29" borderId="40" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="156">
@@ -2760,86 +2851,86 @@
     <cellStyle name="Bad" xfId="78" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
     <cellStyle name="Calculation" xfId="8" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
     <cellStyle name="Check Cell" xfId="79" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="Comma [0] 2" xfId="154" xr:uid="{0A0E39A6-308B-42DF-BD5C-F7C342AF9AF2}"/>
-    <cellStyle name="Comma [0] 3" xfId="155" xr:uid="{FE889529-AB91-400A-92C4-677C94A70BEE}"/>
-    <cellStyle name="Explanatory Text" xfId="80" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="Good" xfId="81" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="Heading 1" xfId="82" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="Heading 2" xfId="84" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="Heading 2 2" xfId="85" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="Heading 2 2 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="Heading 2 2 2 2 2 3 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="Heading 2 2 2 2 2 3 2 2" xfId="88" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="Heading 2 2 2 2 2 3 2 3" xfId="89" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="Heading 2 2 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="Heading 2 2 3 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="Heading 3" xfId="90" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="Heading 4" xfId="91" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Comma [0] 2" xfId="154" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="Comma [0] 3" xfId="155" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Explanatory Text" xfId="80" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Good" xfId="81" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Heading 1" xfId="82" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Heading 2" xfId="84" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="Heading 2 2" xfId="85" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="Heading 2 2 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="Heading 2 2 2 2 2 3 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="Heading 2 2 2 2 2 3 2 2" xfId="88" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="Heading 2 2 2 2 2 3 2 3" xfId="89" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Heading 2 2 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="Heading 2 2 3 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Heading 3" xfId="90" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Heading 4" xfId="91" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
     <cellStyle name="Hyperlink" xfId="92" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="93" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
-    <cellStyle name="Hyperlink 2 2" xfId="94" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="Hyperlink 3" xfId="95" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
-    <cellStyle name="Hyperlink 4" xfId="96" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
-    <cellStyle name="Hyperlink 5" xfId="137" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="Input" xfId="97" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
-    <cellStyle name="Linked Cell" xfId="98" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="Neutral" xfId="59" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="93" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="Hyperlink 2 2" xfId="94" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="Hyperlink 3" xfId="95" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="Hyperlink 4" xfId="96" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Hyperlink 5" xfId="137" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Input" xfId="97" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Linked Cell" xfId="98" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Neutral" xfId="59" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="99" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
-    <cellStyle name="Normal 2 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
-    <cellStyle name="Normal 2 2 2" xfId="101" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
-    <cellStyle name="Normal 2 2 2 2 3 2" xfId="102" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
-    <cellStyle name="Normal 2 2 2 2 3 2 2" xfId="103" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
-    <cellStyle name="Normal 2 2 2 2 3 2 3" xfId="104" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
-    <cellStyle name="Normal 2 3" xfId="105" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
-    <cellStyle name="Normal 2 4" xfId="106" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
-    <cellStyle name="Normal 2 4 2" xfId="134" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
-    <cellStyle name="Normal 2 4 2 2" xfId="149" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
-    <cellStyle name="Normal 3" xfId="107" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
-    <cellStyle name="Normal 3 2" xfId="108" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
-    <cellStyle name="Normal 3 2 2" xfId="109" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
-    <cellStyle name="Normal 3 2 2 2" xfId="83" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
-    <cellStyle name="Normal 3 2 3" xfId="110" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
-    <cellStyle name="Normal 3 2 4" xfId="140" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
-    <cellStyle name="Normal 3 2 4 2" xfId="143" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
-    <cellStyle name="Normal 3 2 4 3" xfId="146" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
-    <cellStyle name="Normal 3 2 4 3 2" xfId="152" xr:uid="{32E79525-A200-4DBB-8CA8-2DD8C8431D53}"/>
-    <cellStyle name="Normal 3 3" xfId="56" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
-    <cellStyle name="Normal 3 3 2" xfId="111" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
-    <cellStyle name="Normal 3 3 2 2" xfId="112" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
-    <cellStyle name="Normal 3 4" xfId="139" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
-    <cellStyle name="Normal 3 4 2" xfId="151" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
-    <cellStyle name="Normal 4" xfId="113" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
-    <cellStyle name="Normal 5" xfId="114" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
-    <cellStyle name="Note" xfId="68" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
-    <cellStyle name="Output" xfId="19" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
-    <cellStyle name="TableStyleLight1" xfId="115" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
-    <cellStyle name="TableStyleLight1 2" xfId="116" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
-    <cellStyle name="TableStyleLight1 2 2" xfId="117" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
-    <cellStyle name="TableStyleLight1 2 2 2" xfId="118" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
-    <cellStyle name="TableStyleLight1 2 2 2 2" xfId="119" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
-    <cellStyle name="TableStyleLight1 2 2 2 4" xfId="120" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
-    <cellStyle name="TableStyleLight1 2 3" xfId="121" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
-    <cellStyle name="TableStyleLight1 2 4" xfId="142" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
-    <cellStyle name="TableStyleLight1 2 4 2" xfId="145" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
-    <cellStyle name="TableStyleLight1 2 4 3" xfId="148" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
-    <cellStyle name="TableStyleLight1 3" xfId="122" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
-    <cellStyle name="TableStyleLight1 3 2" xfId="123" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
-    <cellStyle name="TableStyleLight1 3 2 2" xfId="124" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
-    <cellStyle name="TableStyleLight1 3 2 3" xfId="125" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
-    <cellStyle name="TableStyleLight1 3 3" xfId="126" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
-    <cellStyle name="TableStyleLight1 3 4" xfId="141" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
-    <cellStyle name="TableStyleLight1 3 4 2" xfId="144" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
-    <cellStyle name="TableStyleLight1 3 4 3" xfId="147" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
-    <cellStyle name="TableStyleLight1 3 4 3 2" xfId="153" xr:uid="{11E5449E-3D73-4B06-8B4C-9895ECFB313A}"/>
-    <cellStyle name="TableStyleLight1 4" xfId="67" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
-    <cellStyle name="TableStyleLight1 4 2" xfId="127" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
-    <cellStyle name="TableStyleLight1 4 3" xfId="128" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
-    <cellStyle name="TableStyleLight1 5" xfId="129" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
-    <cellStyle name="TableStyleLight1 5 2" xfId="130" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
-    <cellStyle name="Title" xfId="131" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
-    <cellStyle name="Total" xfId="132" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
-    <cellStyle name="Warning Text" xfId="133" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="Normal 2" xfId="99" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Normal 2 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="Normal 2 2 2" xfId="101" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="Normal 2 2 2 2 3 2" xfId="102" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="Normal 2 2 2 2 3 2 2" xfId="103" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="Normal 2 2 2 2 3 2 3" xfId="104" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="Normal 2 3" xfId="105" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="Normal 2 4" xfId="106" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="Normal 2 4 2" xfId="134" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="Normal 2 4 2 2" xfId="149" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="Normal 3" xfId="107" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="Normal 3 2" xfId="108" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Normal 3 2 2" xfId="109" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="Normal 3 2 2 2" xfId="83" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="Normal 3 2 3" xfId="110" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="Normal 3 2 4" xfId="140" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="Normal 3 2 4 2" xfId="143" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="Normal 3 2 4 3" xfId="146" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="Normal 3 2 4 3 2" xfId="152" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="Normal 3 3" xfId="56" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="Normal 3 3 2" xfId="111" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="Normal 3 3 2 2" xfId="112" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="Normal 3 4" xfId="139" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="Normal 3 4 2" xfId="151" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="Normal 4" xfId="113" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="Normal 5" xfId="114" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="Note" xfId="68" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="Output" xfId="19" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="TableStyleLight1" xfId="115" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="TableStyleLight1 2" xfId="116" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="TableStyleLight1 2 2" xfId="117" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="TableStyleLight1 2 2 2" xfId="118" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="TableStyleLight1 2 2 2 2" xfId="119" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="TableStyleLight1 2 2 2 4" xfId="120" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="TableStyleLight1 2 3" xfId="121" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="TableStyleLight1 2 4" xfId="142" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="TableStyleLight1 2 4 2" xfId="145" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="TableStyleLight1 2 4 3" xfId="148" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="TableStyleLight1 3" xfId="122" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="TableStyleLight1 3 2" xfId="123" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="TableStyleLight1 3 2 2" xfId="124" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="TableStyleLight1 3 2 3" xfId="125" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="TableStyleLight1 3 3" xfId="126" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="TableStyleLight1 3 4" xfId="141" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="TableStyleLight1 3 4 2" xfId="144" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="TableStyleLight1 3 4 3" xfId="147" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="TableStyleLight1 3 4 3 2" xfId="153" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="TableStyleLight1 4" xfId="67" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="TableStyleLight1 4 2" xfId="127" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="TableStyleLight1 4 3" xfId="128" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="TableStyleLight1 5" xfId="129" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="TableStyleLight1 5 2" xfId="130" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="Title" xfId="131" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="Total" xfId="132" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="Warning Text" xfId="133" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3150,10 +3241,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -3179,11 +3270,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1420334192"/>
-        <c:axId val="1420343440"/>
+        <c:axId val="964317808"/>
+        <c:axId val="964322160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1420334192"/>
+        <c:axId val="964317808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3205,7 +3296,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1420343440"/>
+        <c:crossAx val="964322160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3213,7 +3304,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1420343440"/>
+        <c:axId val="964322160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3223,7 +3314,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1420334192"/>
+        <c:crossAx val="964317808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3652,10 +3743,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4570,8 +4661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4585,33 +4676,33 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:7" ht="18" customHeight="1">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="78" t="s">
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="89" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30.75" thickBot="1">
-      <c r="A7" s="74"/>
+      <c r="A7" s="85"/>
       <c r="B7" s="14" t="s">
         <v>4</v>
       </c>
@@ -4627,7 +4718,7 @@
       <c r="F7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="78"/>
+      <c r="G7" s="89"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickTop="1">
       <c r="A8" s="1" t="s">
@@ -4635,11 +4726,11 @@
       </c>
       <c r="B8" s="16">
         <f>'Redesign - Summary Tag'!G7</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="16">
         <f>'Redesign - Summary Tag'!G8</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="16">
         <f>'Redesign - Summary Tag'!G9</f>
@@ -4651,7 +4742,7 @@
       </c>
       <c r="F8" s="16">
         <f>SUM(B8:E8)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G8" s="21">
         <f>(B8+C8+D8)/(F8)</f>
@@ -4673,11 +4764,11 @@
       </c>
       <c r="B10" s="22">
         <f>SUM(B8:B9)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="22">
         <f>SUM(C8:C9)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="22">
         <f>SUM(D8:D9)</f>
@@ -4689,7 +4780,7 @@
       </c>
       <c r="F10" s="22">
         <f>SUM(F8:F9)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G10" s="18">
         <f>SUM(G8:G8)</f>
@@ -4716,7 +4807,7 @@
     <mergeCell ref="G6:G7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A8" location="'Redesign - Summary Tag'!A1" display="Redesign - summary Tag" xr:uid="{3C04F7C3-0903-46F9-957B-F0A8B92B010E}"/>
+    <hyperlink ref="A8" location="'Redesign - Summary Tag'!A1" display="Redesign - summary Tag" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4728,8 +4819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5006,57 +5097,57 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="99" t="s">
+      <c r="C2" s="75" t="s">
         <v>80</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="79"/>
-      <c r="B3" s="98" t="s">
+      <c r="A3" s="90"/>
+      <c r="B3" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="100" t="s">
+      <c r="C3" s="76" t="s">
         <v>112</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" s="23" customFormat="1">
-      <c r="A4" s="79"/>
-      <c r="B4" s="101" t="s">
+      <c r="A4" s="90"/>
+      <c r="B4" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="102" t="s">
+      <c r="C4" s="78" t="s">
         <v>113</v>
       </c>
       <c r="D4" s="26"/>
       <c r="E4" s="24"/>
     </row>
     <row r="5" spans="1:5" s="25" customFormat="1">
-      <c r="A5" s="79"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="103" t="s">
+      <c r="C5" s="79" t="s">
         <v>116</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="26"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="79"/>
+      <c r="A6" s="90"/>
       <c r="B6" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="100" t="s">
+      <c r="C6" s="76" t="s">
         <v>125</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -5065,65 +5156,65 @@
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="79"/>
+      <c r="A7" s="90"/>
       <c r="B7" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="100" t="s">
+      <c r="C7" s="76" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="79"/>
+      <c r="A8" s="90"/>
       <c r="B8" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="100" t="s">
+      <c r="C8" s="76" t="s">
         <v>137</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="79"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="99" t="s">
+      <c r="C9" s="75" t="s">
         <v>141</v>
       </c>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="79"/>
+      <c r="A10" s="90"/>
       <c r="B10" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="100" t="s">
+      <c r="C10" s="76" t="s">
         <v>149</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="79"/>
+      <c r="A11" s="90"/>
       <c r="B11" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="100" t="s">
+      <c r="C11" s="76" t="s">
         <v>157</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="79"/>
+      <c r="A12" s="90"/>
       <c r="B12" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="100" t="s">
+      <c r="C12" s="76" t="s">
         <v>153</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -5132,11 +5223,11 @@
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="79"/>
+      <c r="A13" s="90"/>
       <c r="B13" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="100" t="s">
+      <c r="C13" s="76" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -5145,11 +5236,11 @@
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" ht="30">
-      <c r="A14" s="79"/>
+      <c r="A14" s="90"/>
       <c r="B14" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="99" t="s">
+      <c r="C14" s="75" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -5158,41 +5249,41 @@
       <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5" ht="30">
-      <c r="A15" s="79"/>
+      <c r="A15" s="90"/>
       <c r="B15" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="99" t="s">
+      <c r="C15" s="75" t="s">
         <v>38</v>
       </c>
       <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="79"/>
+      <c r="A16" s="90"/>
       <c r="B16" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="100" t="s">
+      <c r="C16" s="76" t="s">
         <v>34</v>
       </c>
       <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:7" ht="30">
-      <c r="A17" s="79"/>
+      <c r="A17" s="90"/>
       <c r="B17" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="99" t="s">
+      <c r="C17" s="75" t="s">
         <v>33</v>
       </c>
       <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:7" ht="150">
-      <c r="A18" s="79"/>
+      <c r="A18" s="90"/>
       <c r="B18" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="104" t="s">
+      <c r="C18" s="80" t="s">
         <v>214</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -5201,11 +5292,11 @@
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="79"/>
+      <c r="A19" s="90"/>
       <c r="B19" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="99" t="s">
+      <c r="C19" s="75" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -5214,22 +5305,22 @@
       <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A20" s="79"/>
+      <c r="A20" s="90"/>
       <c r="B20" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="100" t="s">
+      <c r="C20" s="76" t="s">
         <v>42</v>
       </c>
       <c r="E20" s="6"/>
       <c r="G20"/>
     </row>
     <row r="21" spans="1:7" ht="30.75" thickBot="1">
-      <c r="A21" s="79"/>
+      <c r="A21" s="90"/>
       <c r="B21" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="97" t="s">
+      <c r="C21" s="73" t="s">
         <v>46</v>
       </c>
       <c r="D21" s="6"/>
@@ -5237,11 +5328,11 @@
       <c r="G21"/>
     </row>
     <row r="22" spans="1:7" ht="30.75" thickBot="1">
-      <c r="A22" s="79"/>
+      <c r="A22" s="90"/>
       <c r="B22" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="97" t="s">
+      <c r="C22" s="73" t="s">
         <v>231</v>
       </c>
       <c r="D22" s="70" t="s">
@@ -5251,11 +5342,11 @@
       <c r="G22"/>
     </row>
     <row r="23" spans="1:7" ht="45">
-      <c r="A23" s="79"/>
+      <c r="A23" s="90"/>
       <c r="B23" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="100" t="s">
+      <c r="C23" s="76" t="s">
         <v>54</v>
       </c>
       <c r="D23" s="5" t="s">
@@ -5265,11 +5356,11 @@
       <c r="G23"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="79"/>
+      <c r="A24" s="90"/>
       <c r="B24" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="100" t="s">
+      <c r="C24" s="76" t="s">
         <v>56</v>
       </c>
       <c r="D24" s="6"/>
@@ -5277,123 +5368,140 @@
       <c r="G24"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="79"/>
+      <c r="A25" s="90"/>
       <c r="B25" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="100" t="s">
+      <c r="C25" s="76" t="s">
         <v>221</v>
       </c>
       <c r="E25" s="6"/>
       <c r="G25"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="79"/>
-      <c r="C26" s="7"/>
+      <c r="A26" s="90"/>
+      <c r="B26" s="81" t="s">
+        <v>238</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>257</v>
+      </c>
       <c r="E26" s="6"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="79"/>
+      <c r="A27" s="90"/>
+      <c r="B27" s="81" t="s">
+        <v>239</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>257</v>
+      </c>
       <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="79"/>
+      <c r="A28" s="90"/>
       <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="79"/>
+      <c r="A29" s="90"/>
       <c r="B29" s="4"/>
       <c r="E29" s="6"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="79"/>
+      <c r="A30" s="90"/>
       <c r="B30" s="4"/>
       <c r="C30" s="10"/>
       <c r="E30" s="6"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="79"/>
+      <c r="A31" s="90"/>
       <c r="B31" s="4"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="79"/>
+      <c r="A32" s="90"/>
       <c r="B32" s="4"/>
       <c r="C32" s="12"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="79"/>
+      <c r="A33" s="90"/>
       <c r="B33" s="4"/>
       <c r="C33" s="12"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="79"/>
+      <c r="A34" s="90"/>
       <c r="B34" s="4"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="79"/>
+      <c r="A35" s="90"/>
       <c r="B35" s="4"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="79"/>
+      <c r="A36" s="90"/>
       <c r="B36" s="4"/>
       <c r="C36" s="11"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="79"/>
+      <c r="A37" s="90"/>
       <c r="B37" s="4"/>
       <c r="C37" s="7"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="79"/>
+      <c r="A38" s="90"/>
       <c r="B38" s="4"/>
       <c r="C38" s="7"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="79"/>
+      <c r="A39" s="90"/>
       <c r="B39" s="4"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="79"/>
+      <c r="A40" s="90"/>
       <c r="B40" s="4"/>
       <c r="C40" s="7"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="79"/>
+      <c r="A41" s="90"/>
       <c r="B41" s="4"/>
       <c r="C41" s="7"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="79"/>
+      <c r="A42" s="90"/>
       <c r="B42" s="4"/>
       <c r="C42" s="7"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="79"/>
+      <c r="A43" s="90"/>
       <c r="B43" s="4"/>
       <c r="C43" s="7"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="79"/>
+      <c r="A44" s="90"/>
       <c r="B44" s="4"/>
       <c r="C44" s="7"/>
     </row>
@@ -5639,11 +5747,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14479089-7CD9-4D53-9264-25F770CD02CB}">
-  <dimension ref="A1:H968"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H969"/>
   <sheetViews>
-    <sheetView topLeftCell="A201" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C218" sqref="C218"/>
+    <sheetView topLeftCell="A215" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G221" sqref="G221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -6309,10 +6417,10 @@
       </c>
       <c r="D2"/>
       <c r="E2" s="29"/>
-      <c r="F2" s="89" t="s">
+      <c r="F2" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="90"/>
+      <c r="G2" s="101"/>
     </row>
     <row r="3" spans="1:7" ht="30">
       <c r="A3" s="29"/>
@@ -6371,10 +6479,10 @@
       <c r="C6" s="31"/>
       <c r="D6"/>
       <c r="E6" s="29"/>
-      <c r="F6" s="91" t="s">
+      <c r="F6" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="92"/>
+      <c r="G6" s="103"/>
     </row>
     <row r="7" spans="1:7" ht="19.5" customHeight="1" thickBot="1">
       <c r="A7" s="29"/>
@@ -6390,8 +6498,8 @@
         <v>4</v>
       </c>
       <c r="G7" s="40">
-        <f>COUNTIF(G11:G1094,"Pass")</f>
-        <v>23</v>
+        <f>COUNTIF(G11:G1095,"Pass")</f>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1">
@@ -6406,8 +6514,8 @@
         <v>5</v>
       </c>
       <c r="G8" s="40">
-        <f>COUNTIF(G12:G1095,"Fail")</f>
-        <v>1</v>
+        <f>COUNTIF(G12:G1096,"Fail")</f>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1">
@@ -6424,7 +6532,7 @@
         <v>25</v>
       </c>
       <c r="G9" s="40">
-        <f>COUNTIF(G13:G1096,"Blocked")</f>
+        <f>COUNTIF(G13:G1097,"Blocked")</f>
         <v>0</v>
       </c>
     </row>
@@ -6440,7 +6548,7 @@
         <v>24</v>
       </c>
       <c r="G10" s="40">
-        <f>COUNTIF(G14:G1097,"Not Executed")</f>
+        <f>COUNTIF(G14:G1098,"Not Executed")</f>
         <v>0</v>
       </c>
     </row>
@@ -6451,7 +6559,7 @@
       </c>
       <c r="C11" s="31">
         <f>G7</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11"/>
       <c r="E11" s="29"/>
@@ -6465,7 +6573,7 @@
       </c>
       <c r="C12" s="31">
         <f>G8</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12"/>
       <c r="E12" s="29"/>
@@ -6505,37 +6613,37 @@
       <c r="G15" s="51"/>
     </row>
     <row r="16" spans="1:7" s="52" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A16" s="93" t="s">
+      <c r="A16" s="104" t="s">
         <v>97</v>
       </c>
-      <c r="B16" s="93"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="104"/>
     </row>
     <row r="17" spans="1:7" s="52" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A17" s="94" t="s">
+      <c r="A17" s="105" t="s">
         <v>98</v>
       </c>
-      <c r="B17" s="94"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="94"/>
+      <c r="B17" s="105"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="105"/>
     </row>
     <row r="18" spans="1:7" s="52" customFormat="1">
       <c r="A18" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="B18" s="83" t="s">
+      <c r="B18" s="97" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="84"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="85"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="99"/>
       <c r="F18" s="54" t="s">
         <v>81</v>
       </c>
@@ -6548,14 +6656,14 @@
       <c r="A19" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B19" s="86" t="s">
+      <c r="B19" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="87"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="88"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="93"/>
     </row>
     <row r="20" spans="1:7" s="52" customFormat="1">
       <c r="A20" s="57" t="s">
@@ -6601,23 +6709,23 @@
       <c r="A22" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B22" s="80"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="82"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="96"/>
     </row>
     <row r="23" spans="1:7" s="52" customFormat="1">
       <c r="A23" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="B23" s="83" t="s">
+      <c r="B23" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="85"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="99"/>
       <c r="F23" s="54" t="s">
         <v>81</v>
       </c>
@@ -6630,14 +6738,14 @@
       <c r="A24" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="86" t="s">
+      <c r="B24" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="88"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="93"/>
     </row>
     <row r="25" spans="1:7" s="52" customFormat="1">
       <c r="A25" s="57" t="s">
@@ -6702,23 +6810,23 @@
       <c r="A28" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B28" s="80"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="82"/>
+      <c r="B28" s="94"/>
+      <c r="C28" s="95"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="95"/>
+      <c r="G28" s="96"/>
     </row>
     <row r="29" spans="1:7" s="52" customFormat="1">
       <c r="A29" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="B29" s="83" t="s">
+      <c r="B29" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="84"/>
-      <c r="D29" s="84"/>
-      <c r="E29" s="85"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="99"/>
       <c r="F29" s="54" t="s">
         <v>81</v>
       </c>
@@ -6731,14 +6839,14 @@
       <c r="A30" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B30" s="86" t="s">
+      <c r="B30" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="87"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="88"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="92"/>
+      <c r="G30" s="93"/>
     </row>
     <row r="31" spans="1:7" s="52" customFormat="1">
       <c r="A31" s="57" t="s">
@@ -6822,23 +6930,23 @@
       <c r="A35" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B35" s="80"/>
-      <c r="C35" s="81"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="81"/>
-      <c r="G35" s="82"/>
+      <c r="B35" s="94"/>
+      <c r="C35" s="95"/>
+      <c r="D35" s="95"/>
+      <c r="E35" s="95"/>
+      <c r="F35" s="95"/>
+      <c r="G35" s="96"/>
     </row>
     <row r="36" spans="1:7" s="52" customFormat="1">
       <c r="A36" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="B36" s="83" t="s">
+      <c r="B36" s="97" t="s">
         <v>116</v>
       </c>
-      <c r="C36" s="84"/>
-      <c r="D36" s="84"/>
-      <c r="E36" s="85"/>
+      <c r="C36" s="98"/>
+      <c r="D36" s="98"/>
+      <c r="E36" s="99"/>
       <c r="F36" s="54" t="s">
         <v>81</v>
       </c>
@@ -6851,14 +6959,14 @@
       <c r="A37" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="86" t="s">
+      <c r="B37" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="87"/>
-      <c r="D37" s="87"/>
-      <c r="E37" s="87"/>
-      <c r="F37" s="87"/>
-      <c r="G37" s="88"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="92"/>
+      <c r="E37" s="92"/>
+      <c r="F37" s="92"/>
+      <c r="G37" s="93"/>
     </row>
     <row r="38" spans="1:7" s="52" customFormat="1">
       <c r="A38" s="57" t="s">
@@ -6959,23 +7067,23 @@
       <c r="A43" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B43" s="80"/>
-      <c r="C43" s="81"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="81"/>
-      <c r="F43" s="81"/>
-      <c r="G43" s="82"/>
+      <c r="B43" s="94"/>
+      <c r="C43" s="95"/>
+      <c r="D43" s="95"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="95"/>
+      <c r="G43" s="96"/>
     </row>
     <row r="44" spans="1:7" s="52" customFormat="1">
       <c r="A44" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="B44" s="83" t="s">
+      <c r="B44" s="97" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="84"/>
-      <c r="D44" s="84"/>
-      <c r="E44" s="85"/>
+      <c r="C44" s="98"/>
+      <c r="D44" s="98"/>
+      <c r="E44" s="99"/>
       <c r="F44" s="54" t="s">
         <v>81</v>
       </c>
@@ -6988,14 +7096,14 @@
       <c r="A45" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B45" s="86" t="s">
+      <c r="B45" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="C45" s="87"/>
-      <c r="D45" s="87"/>
-      <c r="E45" s="87"/>
-      <c r="F45" s="87"/>
-      <c r="G45" s="88"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="92"/>
+      <c r="E45" s="92"/>
+      <c r="F45" s="92"/>
+      <c r="G45" s="93"/>
     </row>
     <row r="46" spans="1:7" s="52" customFormat="1">
       <c r="A46" s="57" t="s">
@@ -7096,23 +7204,23 @@
       <c r="A51" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B51" s="80"/>
-      <c r="C51" s="81"/>
-      <c r="D51" s="81"/>
-      <c r="E51" s="81"/>
-      <c r="F51" s="81"/>
-      <c r="G51" s="82"/>
+      <c r="B51" s="94"/>
+      <c r="C51" s="95"/>
+      <c r="D51" s="95"/>
+      <c r="E51" s="95"/>
+      <c r="F51" s="95"/>
+      <c r="G51" s="96"/>
     </row>
     <row r="52" spans="1:7" s="52" customFormat="1">
       <c r="A52" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="B52" s="83" t="s">
+      <c r="B52" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="84"/>
-      <c r="D52" s="84"/>
-      <c r="E52" s="85"/>
+      <c r="C52" s="98"/>
+      <c r="D52" s="98"/>
+      <c r="E52" s="99"/>
       <c r="F52" s="54" t="s">
         <v>81</v>
       </c>
@@ -7125,14 +7233,14 @@
       <c r="A53" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B53" s="86" t="s">
+      <c r="B53" s="91" t="s">
         <v>131</v>
       </c>
-      <c r="C53" s="87"/>
-      <c r="D53" s="87"/>
-      <c r="E53" s="87"/>
-      <c r="F53" s="87"/>
-      <c r="G53" s="88"/>
+      <c r="C53" s="92"/>
+      <c r="D53" s="92"/>
+      <c r="E53" s="92"/>
+      <c r="F53" s="92"/>
+      <c r="G53" s="93"/>
     </row>
     <row r="54" spans="1:7" s="52" customFormat="1">
       <c r="A54" s="57" t="s">
@@ -7195,23 +7303,23 @@
       <c r="A57" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B57" s="80"/>
-      <c r="C57" s="81"/>
-      <c r="D57" s="81"/>
-      <c r="E57" s="81"/>
-      <c r="F57" s="81"/>
-      <c r="G57" s="82"/>
+      <c r="B57" s="94"/>
+      <c r="C57" s="95"/>
+      <c r="D57" s="95"/>
+      <c r="E57" s="95"/>
+      <c r="F57" s="95"/>
+      <c r="G57" s="96"/>
     </row>
     <row r="58" spans="1:7" s="52" customFormat="1">
       <c r="A58" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="B58" s="83" t="s">
+      <c r="B58" s="97" t="s">
         <v>137</v>
       </c>
-      <c r="C58" s="84"/>
-      <c r="D58" s="84"/>
-      <c r="E58" s="85"/>
+      <c r="C58" s="98"/>
+      <c r="D58" s="98"/>
+      <c r="E58" s="99"/>
       <c r="F58" s="54" t="s">
         <v>81</v>
       </c>
@@ -7224,14 +7332,14 @@
       <c r="A59" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B59" s="86" t="s">
+      <c r="B59" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="88"/>
+      <c r="C59" s="92"/>
+      <c r="D59" s="92"/>
+      <c r="E59" s="92"/>
+      <c r="F59" s="92"/>
+      <c r="G59" s="93"/>
     </row>
     <row r="60" spans="1:7" s="52" customFormat="1">
       <c r="A60" s="57" t="s">
@@ -7296,23 +7404,23 @@
       <c r="A63" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B63" s="80"/>
-      <c r="C63" s="81"/>
-      <c r="D63" s="81"/>
-      <c r="E63" s="81"/>
-      <c r="F63" s="81"/>
-      <c r="G63" s="82"/>
+      <c r="B63" s="94"/>
+      <c r="C63" s="95"/>
+      <c r="D63" s="95"/>
+      <c r="E63" s="95"/>
+      <c r="F63" s="95"/>
+      <c r="G63" s="96"/>
     </row>
     <row r="64" spans="1:7" s="52" customFormat="1">
       <c r="A64" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="B64" s="83" t="s">
+      <c r="B64" s="97" t="s">
         <v>141</v>
       </c>
-      <c r="C64" s="84"/>
-      <c r="D64" s="84"/>
-      <c r="E64" s="85"/>
+      <c r="C64" s="98"/>
+      <c r="D64" s="98"/>
+      <c r="E64" s="99"/>
       <c r="F64" s="54" t="s">
         <v>81</v>
       </c>
@@ -7325,14 +7433,14 @@
       <c r="A65" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B65" s="86" t="s">
+      <c r="B65" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="C65" s="87"/>
-      <c r="D65" s="87"/>
-      <c r="E65" s="87"/>
-      <c r="F65" s="87"/>
-      <c r="G65" s="88"/>
+      <c r="C65" s="92"/>
+      <c r="D65" s="92"/>
+      <c r="E65" s="92"/>
+      <c r="F65" s="92"/>
+      <c r="G65" s="93"/>
     </row>
     <row r="66" spans="1:7" s="52" customFormat="1">
       <c r="A66" s="57" t="s">
@@ -7450,23 +7558,23 @@
       <c r="A72" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B72" s="80"/>
-      <c r="C72" s="81"/>
-      <c r="D72" s="81"/>
-      <c r="E72" s="81"/>
-      <c r="F72" s="81"/>
-      <c r="G72" s="82"/>
+      <c r="B72" s="94"/>
+      <c r="C72" s="95"/>
+      <c r="D72" s="95"/>
+      <c r="E72" s="95"/>
+      <c r="F72" s="95"/>
+      <c r="G72" s="96"/>
     </row>
     <row r="73" spans="1:7" s="52" customFormat="1">
       <c r="A73" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="B73" s="83" t="s">
+      <c r="B73" s="97" t="s">
         <v>148</v>
       </c>
-      <c r="C73" s="84"/>
-      <c r="D73" s="84"/>
-      <c r="E73" s="85"/>
+      <c r="C73" s="98"/>
+      <c r="D73" s="98"/>
+      <c r="E73" s="99"/>
       <c r="F73" s="54" t="s">
         <v>81</v>
       </c>
@@ -7479,14 +7587,14 @@
       <c r="A74" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B74" s="86" t="s">
+      <c r="B74" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="C74" s="87"/>
-      <c r="D74" s="87"/>
-      <c r="E74" s="87"/>
-      <c r="F74" s="87"/>
-      <c r="G74" s="88"/>
+      <c r="C74" s="92"/>
+      <c r="D74" s="92"/>
+      <c r="E74" s="92"/>
+      <c r="F74" s="92"/>
+      <c r="G74" s="93"/>
     </row>
     <row r="75" spans="1:7" s="52" customFormat="1">
       <c r="A75" s="57" t="s">
@@ -7604,23 +7712,23 @@
       <c r="A81" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B81" s="80"/>
-      <c r="C81" s="81"/>
-      <c r="D81" s="81"/>
-      <c r="E81" s="81"/>
-      <c r="F81" s="81"/>
-      <c r="G81" s="82"/>
+      <c r="B81" s="94"/>
+      <c r="C81" s="95"/>
+      <c r="D81" s="95"/>
+      <c r="E81" s="95"/>
+      <c r="F81" s="95"/>
+      <c r="G81" s="96"/>
     </row>
     <row r="82" spans="1:7" s="52" customFormat="1">
       <c r="A82" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="B82" s="83" t="s">
+      <c r="B82" s="97" t="s">
         <v>157</v>
       </c>
-      <c r="C82" s="84"/>
-      <c r="D82" s="84"/>
-      <c r="E82" s="85"/>
+      <c r="C82" s="98"/>
+      <c r="D82" s="98"/>
+      <c r="E82" s="99"/>
       <c r="F82" s="54" t="s">
         <v>81</v>
       </c>
@@ -7633,14 +7741,14 @@
       <c r="A83" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B83" s="86" t="s">
+      <c r="B83" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="C83" s="87"/>
-      <c r="D83" s="87"/>
-      <c r="E83" s="87"/>
-      <c r="F83" s="87"/>
-      <c r="G83" s="88"/>
+      <c r="C83" s="92"/>
+      <c r="D83" s="92"/>
+      <c r="E83" s="92"/>
+      <c r="F83" s="92"/>
+      <c r="G83" s="93"/>
     </row>
     <row r="84" spans="1:7" s="52" customFormat="1">
       <c r="A84" s="57" t="s">
@@ -7777,27 +7885,27 @@
       <c r="A91" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B91" s="80"/>
-      <c r="C91" s="81"/>
-      <c r="D91" s="81"/>
-      <c r="E91" s="81"/>
-      <c r="F91" s="81"/>
-      <c r="G91" s="82"/>
+      <c r="B91" s="94"/>
+      <c r="C91" s="95"/>
+      <c r="D91" s="95"/>
+      <c r="E91" s="95"/>
+      <c r="F91" s="95"/>
+      <c r="G91" s="96"/>
     </row>
     <row r="92" spans="1:7" s="52" customFormat="1">
       <c r="A92" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="B92" s="83" t="s">
+      <c r="B92" s="97" t="s">
         <v>153</v>
       </c>
-      <c r="C92" s="84" t="s">
+      <c r="C92" s="98" t="s">
         <v>153</v>
       </c>
-      <c r="D92" s="84" t="s">
+      <c r="D92" s="98" t="s">
         <v>153</v>
       </c>
-      <c r="E92" s="85" t="s">
+      <c r="E92" s="99" t="s">
         <v>153</v>
       </c>
       <c r="F92" s="54" t="s">
@@ -7812,14 +7920,14 @@
       <c r="A93" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B93" s="86" t="s">
+      <c r="B93" s="91" t="s">
         <v>168</v>
       </c>
-      <c r="C93" s="87"/>
-      <c r="D93" s="87"/>
-      <c r="E93" s="87"/>
-      <c r="F93" s="87"/>
-      <c r="G93" s="88"/>
+      <c r="C93" s="92"/>
+      <c r="D93" s="92"/>
+      <c r="E93" s="92"/>
+      <c r="F93" s="92"/>
+      <c r="G93" s="93"/>
     </row>
     <row r="94" spans="1:7" s="52" customFormat="1">
       <c r="A94" s="57" t="s">
@@ -7901,27 +8009,27 @@
       <c r="A98" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B98" s="80"/>
-      <c r="C98" s="81"/>
-      <c r="D98" s="81"/>
-      <c r="E98" s="81"/>
-      <c r="F98" s="81"/>
-      <c r="G98" s="82"/>
+      <c r="B98" s="94"/>
+      <c r="C98" s="95"/>
+      <c r="D98" s="95"/>
+      <c r="E98" s="95"/>
+      <c r="F98" s="95"/>
+      <c r="G98" s="96"/>
     </row>
     <row r="99" spans="1:7" customFormat="1" ht="42" customHeight="1">
       <c r="A99" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="B99" s="83" t="s">
+      <c r="B99" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="C99" s="84" t="s">
+      <c r="C99" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="D99" s="84" t="s">
+      <c r="D99" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="E99" s="85" t="s">
+      <c r="E99" s="99" t="s">
         <v>35</v>
       </c>
       <c r="F99" s="54" t="s">
@@ -7936,14 +8044,14 @@
       <c r="A100" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B100" s="86" t="s">
+      <c r="B100" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="C100" s="87"/>
-      <c r="D100" s="87"/>
-      <c r="E100" s="87"/>
-      <c r="F100" s="87"/>
-      <c r="G100" s="88"/>
+      <c r="C100" s="92"/>
+      <c r="D100" s="92"/>
+      <c r="E100" s="92"/>
+      <c r="F100" s="92"/>
+      <c r="G100" s="93"/>
     </row>
     <row r="101" spans="1:7" customFormat="1">
       <c r="A101" s="57" t="s">
@@ -8025,27 +8133,27 @@
       <c r="A105" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B105" s="80"/>
-      <c r="C105" s="81"/>
-      <c r="D105" s="81"/>
-      <c r="E105" s="81"/>
-      <c r="F105" s="81"/>
-      <c r="G105" s="82"/>
+      <c r="B105" s="94"/>
+      <c r="C105" s="95"/>
+      <c r="D105" s="95"/>
+      <c r="E105" s="95"/>
+      <c r="F105" s="95"/>
+      <c r="G105" s="96"/>
     </row>
     <row r="106" spans="1:7" customFormat="1">
       <c r="A106" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="B106" s="83" t="s">
+      <c r="B106" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="C106" s="84" t="s">
+      <c r="C106" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="D106" s="84" t="s">
+      <c r="D106" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="E106" s="85" t="s">
+      <c r="E106" s="99" t="s">
         <v>39</v>
       </c>
       <c r="F106" s="54" t="s">
@@ -8060,14 +8168,14 @@
       <c r="A107" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B107" s="86" t="s">
+      <c r="B107" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="C107" s="87"/>
-      <c r="D107" s="87"/>
-      <c r="E107" s="87"/>
-      <c r="F107" s="87"/>
-      <c r="G107" s="88"/>
+      <c r="C107" s="92"/>
+      <c r="D107" s="92"/>
+      <c r="E107" s="92"/>
+      <c r="F107" s="92"/>
+      <c r="G107" s="93"/>
     </row>
     <row r="108" spans="1:7" customFormat="1" ht="42" customHeight="1">
       <c r="A108" s="57" t="s">
@@ -8200,27 +8308,27 @@
       <c r="A115" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B115" s="80"/>
-      <c r="C115" s="81"/>
-      <c r="D115" s="81"/>
-      <c r="E115" s="81"/>
-      <c r="F115" s="81"/>
-      <c r="G115" s="82"/>
+      <c r="B115" s="94"/>
+      <c r="C115" s="95"/>
+      <c r="D115" s="95"/>
+      <c r="E115" s="95"/>
+      <c r="F115" s="95"/>
+      <c r="G115" s="96"/>
     </row>
     <row r="116" spans="1:7" customFormat="1" ht="50.25" customHeight="1">
       <c r="A116" s="53" t="s">
         <v>178</v>
       </c>
-      <c r="B116" s="83" t="s">
+      <c r="B116" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="C116" s="84" t="s">
+      <c r="C116" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="D116" s="84" t="s">
+      <c r="D116" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="E116" s="85" t="s">
+      <c r="E116" s="99" t="s">
         <v>38</v>
       </c>
       <c r="F116" s="54" t="s">
@@ -8235,14 +8343,14 @@
       <c r="A117" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B117" s="86" t="s">
+      <c r="B117" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="C117" s="87"/>
-      <c r="D117" s="87"/>
-      <c r="E117" s="87"/>
-      <c r="F117" s="87"/>
-      <c r="G117" s="88"/>
+      <c r="C117" s="92"/>
+      <c r="D117" s="92"/>
+      <c r="E117" s="92"/>
+      <c r="F117" s="92"/>
+      <c r="G117" s="93"/>
     </row>
     <row r="118" spans="1:7" customFormat="1">
       <c r="A118" s="57" t="s">
@@ -8392,27 +8500,27 @@
       <c r="A126" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B126" s="80"/>
-      <c r="C126" s="81"/>
-      <c r="D126" s="81"/>
-      <c r="E126" s="81"/>
-      <c r="F126" s="81"/>
-      <c r="G126" s="82"/>
+      <c r="B126" s="94"/>
+      <c r="C126" s="95"/>
+      <c r="D126" s="95"/>
+      <c r="E126" s="95"/>
+      <c r="F126" s="95"/>
+      <c r="G126" s="96"/>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="53" t="s">
         <v>183</v>
       </c>
-      <c r="B127" s="83" t="s">
+      <c r="B127" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="C127" s="84" t="s">
+      <c r="C127" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="D127" s="84" t="s">
+      <c r="D127" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="E127" s="85" t="s">
+      <c r="E127" s="99" t="s">
         <v>34</v>
       </c>
       <c r="F127" s="54" t="s">
@@ -8427,14 +8535,14 @@
       <c r="A128" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B128" s="86" t="s">
+      <c r="B128" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="C128" s="87"/>
-      <c r="D128" s="87"/>
-      <c r="E128" s="87"/>
-      <c r="F128" s="87"/>
-      <c r="G128" s="88"/>
+      <c r="C128" s="92"/>
+      <c r="D128" s="92"/>
+      <c r="E128" s="92"/>
+      <c r="F128" s="92"/>
+      <c r="G128" s="93"/>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="57" t="s">
@@ -8550,27 +8658,27 @@
       <c r="A135" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B135" s="80"/>
-      <c r="C135" s="81"/>
-      <c r="D135" s="81"/>
-      <c r="E135" s="81"/>
-      <c r="F135" s="81"/>
-      <c r="G135" s="82"/>
+      <c r="B135" s="94"/>
+      <c r="C135" s="95"/>
+      <c r="D135" s="95"/>
+      <c r="E135" s="95"/>
+      <c r="F135" s="95"/>
+      <c r="G135" s="96"/>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="53" t="s">
         <v>186</v>
       </c>
-      <c r="B136" s="83" t="s">
+      <c r="B136" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="C136" s="84" t="s">
+      <c r="C136" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="D136" s="84" t="s">
+      <c r="D136" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="E136" s="85" t="s">
+      <c r="E136" s="99" t="s">
         <v>33</v>
       </c>
       <c r="F136" s="54" t="s">
@@ -8585,14 +8693,14 @@
       <c r="A137" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B137" s="86" t="s">
+      <c r="B137" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="C137" s="87"/>
-      <c r="D137" s="87"/>
-      <c r="E137" s="87"/>
-      <c r="F137" s="87"/>
-      <c r="G137" s="88"/>
+      <c r="C137" s="92"/>
+      <c r="D137" s="92"/>
+      <c r="E137" s="92"/>
+      <c r="F137" s="92"/>
+      <c r="G137" s="93"/>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="57" t="s">
@@ -8691,27 +8799,27 @@
       <c r="A143" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B143" s="80"/>
-      <c r="C143" s="81"/>
-      <c r="D143" s="81"/>
-      <c r="E143" s="81"/>
-      <c r="F143" s="81"/>
-      <c r="G143" s="82"/>
+      <c r="B143" s="94"/>
+      <c r="C143" s="95"/>
+      <c r="D143" s="95"/>
+      <c r="E143" s="95"/>
+      <c r="F143" s="95"/>
+      <c r="G143" s="96"/>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="53" t="s">
         <v>189</v>
       </c>
-      <c r="B144" s="83" t="s">
+      <c r="B144" s="97" t="s">
         <v>216</v>
       </c>
-      <c r="C144" s="84" t="s">
+      <c r="C144" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="D144" s="84" t="s">
+      <c r="D144" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="E144" s="85" t="s">
+      <c r="E144" s="99" t="s">
         <v>32</v>
       </c>
       <c r="F144" s="54" t="s">
@@ -8726,14 +8834,14 @@
       <c r="A145" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B145" s="86" t="s">
+      <c r="B145" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="C145" s="87"/>
-      <c r="D145" s="87"/>
-      <c r="E145" s="87"/>
-      <c r="F145" s="87"/>
-      <c r="G145" s="88"/>
+      <c r="C145" s="92"/>
+      <c r="D145" s="92"/>
+      <c r="E145" s="92"/>
+      <c r="F145" s="92"/>
+      <c r="G145" s="93"/>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="57" t="s">
@@ -8849,27 +8957,27 @@
       <c r="A152" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B152" s="80"/>
-      <c r="C152" s="81"/>
-      <c r="D152" s="81"/>
-      <c r="E152" s="81"/>
-      <c r="F152" s="81"/>
-      <c r="G152" s="82"/>
+      <c r="B152" s="94"/>
+      <c r="C152" s="95"/>
+      <c r="D152" s="95"/>
+      <c r="E152" s="95"/>
+      <c r="F152" s="95"/>
+      <c r="G152" s="96"/>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="53" t="s">
         <v>190</v>
       </c>
-      <c r="B153" s="83" t="s">
+      <c r="B153" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="C153" s="84" t="s">
+      <c r="C153" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="D153" s="84" t="s">
+      <c r="D153" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="E153" s="85" t="s">
+      <c r="E153" s="99" t="s">
         <v>30</v>
       </c>
       <c r="F153" s="54" t="s">
@@ -8884,14 +8992,14 @@
       <c r="A154" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B154" s="86" t="s">
+      <c r="B154" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="C154" s="87"/>
-      <c r="D154" s="87"/>
-      <c r="E154" s="87"/>
-      <c r="F154" s="87"/>
-      <c r="G154" s="88"/>
+      <c r="C154" s="92"/>
+      <c r="D154" s="92"/>
+      <c r="E154" s="92"/>
+      <c r="F154" s="92"/>
+      <c r="G154" s="93"/>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="57" t="s">
@@ -8990,27 +9098,27 @@
       <c r="A160" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B160" s="80"/>
-      <c r="C160" s="81"/>
-      <c r="D160" s="81"/>
-      <c r="E160" s="81"/>
-      <c r="F160" s="81"/>
-      <c r="G160" s="82"/>
+      <c r="B160" s="94"/>
+      <c r="C160" s="95"/>
+      <c r="D160" s="95"/>
+      <c r="E160" s="95"/>
+      <c r="F160" s="95"/>
+      <c r="G160" s="96"/>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="53" t="s">
         <v>192</v>
       </c>
-      <c r="B161" s="83" t="s">
+      <c r="B161" s="97" t="s">
         <v>195</v>
       </c>
-      <c r="C161" s="84" t="s">
+      <c r="C161" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="D161" s="84" t="s">
+      <c r="D161" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="E161" s="85" t="s">
+      <c r="E161" s="99" t="s">
         <v>42</v>
       </c>
       <c r="F161" s="54" t="s">
@@ -9025,14 +9133,14 @@
       <c r="A162" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B162" s="86" t="s">
+      <c r="B162" s="91" t="s">
         <v>193</v>
       </c>
-      <c r="C162" s="87"/>
-      <c r="D162" s="87"/>
-      <c r="E162" s="87"/>
-      <c r="F162" s="87"/>
-      <c r="G162" s="88"/>
+      <c r="C162" s="92"/>
+      <c r="D162" s="92"/>
+      <c r="E162" s="92"/>
+      <c r="F162" s="92"/>
+      <c r="G162" s="93"/>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="57" t="s">
@@ -9097,27 +9205,27 @@
       <c r="A166" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B166" s="80"/>
-      <c r="C166" s="81"/>
-      <c r="D166" s="81"/>
-      <c r="E166" s="81"/>
-      <c r="F166" s="81"/>
-      <c r="G166" s="82"/>
+      <c r="B166" s="94"/>
+      <c r="C166" s="95"/>
+      <c r="D166" s="95"/>
+      <c r="E166" s="95"/>
+      <c r="F166" s="95"/>
+      <c r="G166" s="96"/>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="53" t="s">
         <v>197</v>
       </c>
-      <c r="B167" s="83" t="s">
+      <c r="B167" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="C167" s="84" t="s">
+      <c r="C167" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="D167" s="84" t="s">
+      <c r="D167" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="E167" s="85" t="s">
+      <c r="E167" s="99" t="s">
         <v>46</v>
       </c>
       <c r="F167" s="54" t="s">
@@ -9132,14 +9240,14 @@
       <c r="A168" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B168" s="86" t="s">
+      <c r="B168" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="C168" s="87"/>
-      <c r="D168" s="87"/>
-      <c r="E168" s="87"/>
-      <c r="F168" s="87"/>
-      <c r="G168" s="88"/>
+      <c r="C168" s="92"/>
+      <c r="D168" s="92"/>
+      <c r="E168" s="92"/>
+      <c r="F168" s="92"/>
+      <c r="G168" s="93"/>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="57" t="s">
@@ -9223,27 +9331,27 @@
       <c r="A173" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B173" s="80"/>
-      <c r="C173" s="81"/>
-      <c r="D173" s="81"/>
-      <c r="E173" s="81"/>
-      <c r="F173" s="81"/>
-      <c r="G173" s="82"/>
+      <c r="B173" s="94"/>
+      <c r="C173" s="95"/>
+      <c r="D173" s="95"/>
+      <c r="E173" s="95"/>
+      <c r="F173" s="95"/>
+      <c r="G173" s="96"/>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="53" t="s">
         <v>204</v>
       </c>
-      <c r="B174" s="83" t="s">
+      <c r="B174" s="97" t="s">
         <v>231</v>
       </c>
-      <c r="C174" s="84" t="s">
+      <c r="C174" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="D174" s="84" t="s">
+      <c r="D174" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="E174" s="85" t="s">
+      <c r="E174" s="99" t="s">
         <v>47</v>
       </c>
       <c r="F174" s="54" t="s">
@@ -9258,14 +9366,14 @@
       <c r="A175" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B175" s="86" t="s">
+      <c r="B175" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="C175" s="87"/>
-      <c r="D175" s="87"/>
-      <c r="E175" s="87"/>
-      <c r="F175" s="87"/>
-      <c r="G175" s="88"/>
+      <c r="C175" s="92"/>
+      <c r="D175" s="92"/>
+      <c r="E175" s="92"/>
+      <c r="F175" s="92"/>
+      <c r="G175" s="93"/>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="57" t="s">
@@ -9352,7 +9460,7 @@
       <c r="B180" s="59" t="s">
         <v>228</v>
       </c>
-      <c r="C180" s="95" t="s">
+      <c r="C180" s="71" t="s">
         <v>229</v>
       </c>
       <c r="D180" s="60" t="s">
@@ -9362,7 +9470,7 @@
       <c r="F180" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="G180" s="96" t="s">
+      <c r="G180" s="72" t="s">
         <v>230</v>
       </c>
     </row>
@@ -9370,27 +9478,27 @@
       <c r="A181" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B181" s="80"/>
-      <c r="C181" s="81"/>
-      <c r="D181" s="81"/>
-      <c r="E181" s="81"/>
-      <c r="F181" s="81"/>
-      <c r="G181" s="82"/>
+      <c r="B181" s="94"/>
+      <c r="C181" s="95"/>
+      <c r="D181" s="95"/>
+      <c r="E181" s="95"/>
+      <c r="F181" s="95"/>
+      <c r="G181" s="96"/>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="53" t="s">
         <v>205</v>
       </c>
-      <c r="B182" s="83" t="s">
+      <c r="B182" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="C182" s="84" t="s">
+      <c r="C182" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="D182" s="84" t="s">
+      <c r="D182" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="E182" s="85" t="s">
+      <c r="E182" s="99" t="s">
         <v>54</v>
       </c>
       <c r="F182" s="54" t="s">
@@ -9405,14 +9513,14 @@
       <c r="A183" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B183" s="86" t="s">
+      <c r="B183" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="C183" s="87"/>
-      <c r="D183" s="87"/>
-      <c r="E183" s="87"/>
-      <c r="F183" s="87"/>
-      <c r="G183" s="88"/>
+      <c r="C183" s="92"/>
+      <c r="D183" s="92"/>
+      <c r="E183" s="92"/>
+      <c r="F183" s="92"/>
+      <c r="G183" s="93"/>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="57" t="s">
@@ -9496,27 +9604,27 @@
       <c r="A188" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B188" s="80"/>
-      <c r="C188" s="81"/>
-      <c r="D188" s="81"/>
-      <c r="E188" s="81"/>
-      <c r="F188" s="81"/>
-      <c r="G188" s="82"/>
+      <c r="B188" s="94"/>
+      <c r="C188" s="95"/>
+      <c r="D188" s="95"/>
+      <c r="E188" s="95"/>
+      <c r="F188" s="95"/>
+      <c r="G188" s="96"/>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="B189" s="83" t="s">
+      <c r="B189" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="C189" s="84" t="s">
+      <c r="C189" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="D189" s="84" t="s">
+      <c r="D189" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="E189" s="85" t="s">
+      <c r="E189" s="99" t="s">
         <v>54</v>
       </c>
       <c r="F189" s="54" t="s">
@@ -9531,14 +9639,14 @@
       <c r="A190" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B190" s="86" t="s">
+      <c r="B190" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="C190" s="87"/>
-      <c r="D190" s="87"/>
-      <c r="E190" s="87"/>
-      <c r="F190" s="87"/>
-      <c r="G190" s="88"/>
+      <c r="C190" s="92"/>
+      <c r="D190" s="92"/>
+      <c r="E190" s="92"/>
+      <c r="F190" s="92"/>
+      <c r="G190" s="93"/>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="57" t="s">
@@ -9637,27 +9745,27 @@
       <c r="A196" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B196" s="80"/>
-      <c r="C196" s="81"/>
-      <c r="D196" s="81"/>
-      <c r="E196" s="81"/>
-      <c r="F196" s="81"/>
-      <c r="G196" s="82"/>
+      <c r="B196" s="94"/>
+      <c r="C196" s="95"/>
+      <c r="D196" s="95"/>
+      <c r="E196" s="95"/>
+      <c r="F196" s="95"/>
+      <c r="G196" s="96"/>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="B197" s="83" t="s">
+      <c r="B197" s="97" t="s">
         <v>221</v>
       </c>
-      <c r="C197" s="84" t="s">
+      <c r="C197" s="98" t="s">
         <v>57</v>
       </c>
-      <c r="D197" s="84" t="s">
+      <c r="D197" s="98" t="s">
         <v>57</v>
       </c>
-      <c r="E197" s="85" t="s">
+      <c r="E197" s="99" t="s">
         <v>57</v>
       </c>
       <c r="F197" s="54" t="s">
@@ -9672,14 +9780,14 @@
       <c r="A198" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B198" s="86" t="s">
+      <c r="B198" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="C198" s="87"/>
-      <c r="D198" s="87"/>
-      <c r="E198" s="87"/>
-      <c r="F198" s="87"/>
-      <c r="G198" s="88"/>
+      <c r="C198" s="92"/>
+      <c r="D198" s="92"/>
+      <c r="E198" s="92"/>
+      <c r="F198" s="92"/>
+      <c r="G198" s="93"/>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" s="57" t="s">
@@ -9812,192 +9920,378 @@
       <c r="A206" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B206" s="80"/>
-      <c r="C206" s="81"/>
-      <c r="D206" s="81"/>
-      <c r="E206" s="81"/>
-      <c r="F206" s="81"/>
-      <c r="G206" s="82"/>
+      <c r="B206" s="94"/>
+      <c r="C206" s="95"/>
+      <c r="D206" s="95"/>
+      <c r="E206" s="95"/>
+      <c r="F206" s="95"/>
+      <c r="G206" s="96"/>
     </row>
     <row r="207" spans="1:7">
-      <c r="A207"/>
-      <c r="B207"/>
-      <c r="C207"/>
-      <c r="D207"/>
-      <c r="E207"/>
-      <c r="F207"/>
-      <c r="G207"/>
+      <c r="A207" s="53" t="s">
+        <v>240</v>
+      </c>
+      <c r="B207" s="97" t="s">
+        <v>236</v>
+      </c>
+      <c r="C207" s="98" t="s">
+        <v>57</v>
+      </c>
+      <c r="D207" s="98" t="s">
+        <v>57</v>
+      </c>
+      <c r="E207" s="99" t="s">
+        <v>57</v>
+      </c>
+      <c r="F207" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="G207" s="55" t="str">
+        <f>IF(COUNTIF(F210:F214,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F210:F214,"Fail")&gt;0,"Fail",IF(COUNTIF(F210:F214,"")=0,"Pass","Not Executed")))</f>
+        <v>Pass</v>
+      </c>
     </row>
     <row r="208" spans="1:7">
-      <c r="A208"/>
-      <c r="B208"/>
-      <c r="C208"/>
-      <c r="D208"/>
-      <c r="E208"/>
-      <c r="F208"/>
-      <c r="G208"/>
+      <c r="A208" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="B208" s="91" t="s">
+        <v>169</v>
+      </c>
+      <c r="C208" s="92"/>
+      <c r="D208" s="92"/>
+      <c r="E208" s="92"/>
+      <c r="F208" s="92"/>
+      <c r="G208" s="93"/>
     </row>
     <row r="209" spans="1:7">
-      <c r="A209"/>
-      <c r="B209"/>
-      <c r="C209"/>
-      <c r="D209"/>
-      <c r="E209"/>
-      <c r="F209"/>
-      <c r="G209"/>
-    </row>
-    <row r="210" spans="1:7">
-      <c r="A210"/>
-      <c r="B210"/>
-      <c r="C210"/>
-      <c r="D210"/>
-      <c r="E210"/>
-      <c r="F210"/>
-      <c r="G210"/>
-    </row>
-    <row r="211" spans="1:7">
-      <c r="A211"/>
-      <c r="B211"/>
-      <c r="C211"/>
-      <c r="D211"/>
-      <c r="E211"/>
-      <c r="F211"/>
-      <c r="G211"/>
-    </row>
-    <row r="212" spans="1:7">
-      <c r="A212"/>
-      <c r="B212"/>
-      <c r="C212"/>
-      <c r="D212"/>
-      <c r="E212"/>
-      <c r="F212"/>
-      <c r="G212"/>
-    </row>
-    <row r="213" spans="1:7">
-      <c r="A213"/>
-      <c r="B213"/>
-      <c r="C213"/>
-      <c r="D213"/>
-      <c r="E213"/>
-      <c r="F213"/>
-      <c r="G213"/>
-    </row>
-    <row r="214" spans="1:7">
-      <c r="A214"/>
-      <c r="B214"/>
-      <c r="C214"/>
-      <c r="D214"/>
-      <c r="E214"/>
-      <c r="F214"/>
-      <c r="G214"/>
+      <c r="A209" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="B209" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="C209" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="D209" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="E209" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="F209" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="G209" s="57" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="135">
+      <c r="A210" s="58">
+        <v>1</v>
+      </c>
+      <c r="B210" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="C210" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="D210" s="60" t="s">
+        <v>243</v>
+      </c>
+      <c r="E210" s="60"/>
+      <c r="F210" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="G210" s="62"/>
+    </row>
+    <row r="211" spans="1:7" ht="90">
+      <c r="A211" s="58">
+        <v>2</v>
+      </c>
+      <c r="B211" s="59" t="s">
+        <v>241</v>
+      </c>
+      <c r="C211" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="D211" s="60"/>
+      <c r="E211" s="60"/>
+      <c r="F211" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="G211" s="62"/>
+    </row>
+    <row r="212" spans="1:7" ht="75">
+      <c r="A212" s="58">
+        <v>3</v>
+      </c>
+      <c r="B212" s="59" t="s">
+        <v>242</v>
+      </c>
+      <c r="C212" s="60" t="s">
+        <v>248</v>
+      </c>
+      <c r="D212" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="E212" s="60"/>
+      <c r="F212" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="G212" s="62"/>
+    </row>
+    <row r="213" spans="1:7" ht="30">
+      <c r="A213" s="58">
+        <v>4</v>
+      </c>
+      <c r="B213" s="59" t="s">
+        <v>244</v>
+      </c>
+      <c r="C213" s="60" t="s">
+        <v>245</v>
+      </c>
+      <c r="D213" s="60"/>
+      <c r="E213" s="60"/>
+      <c r="F213" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="G213" s="62"/>
+    </row>
+    <row r="214" spans="1:7" ht="45">
+      <c r="A214" s="58">
+        <v>5</v>
+      </c>
+      <c r="B214" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="C214" s="60" t="s">
+        <v>246</v>
+      </c>
+      <c r="D214" s="60" t="s">
+        <v>243</v>
+      </c>
+      <c r="E214" s="60"/>
+      <c r="F214" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="G214" s="62"/>
     </row>
     <row r="215" spans="1:7">
-      <c r="A215"/>
-      <c r="B215"/>
-      <c r="C215"/>
-      <c r="D215"/>
-      <c r="E215"/>
-      <c r="F215"/>
-      <c r="G215"/>
+      <c r="A215" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="B215" s="94"/>
+      <c r="C215" s="95"/>
+      <c r="D215" s="95"/>
+      <c r="E215" s="95"/>
+      <c r="F215" s="95"/>
+      <c r="G215" s="96"/>
     </row>
     <row r="216" spans="1:7">
-      <c r="A216"/>
-      <c r="B216"/>
-      <c r="C216"/>
-      <c r="D216"/>
-      <c r="E216"/>
-      <c r="F216"/>
-      <c r="G216"/>
+      <c r="A216" s="53" t="s">
+        <v>249</v>
+      </c>
+      <c r="B216" s="97" t="s">
+        <v>237</v>
+      </c>
+      <c r="C216" s="98" t="s">
+        <v>57</v>
+      </c>
+      <c r="D216" s="98" t="s">
+        <v>57</v>
+      </c>
+      <c r="E216" s="99" t="s">
+        <v>57</v>
+      </c>
+      <c r="F216" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="G216" s="55" t="str">
+        <f>IF(COUNTIF(F219:F225,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F219:F225,"Fail")&gt;0,"Fail",IF(COUNTIF(F219:F225,"")=0,"Pass","Not Executed")))</f>
+        <v>Fail</v>
+      </c>
     </row>
     <row r="217" spans="1:7">
-      <c r="A217"/>
-      <c r="B217"/>
-      <c r="C217"/>
-      <c r="D217"/>
-      <c r="E217"/>
-      <c r="F217"/>
-      <c r="G217"/>
+      <c r="A217" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="B217" s="91" t="s">
+        <v>169</v>
+      </c>
+      <c r="C217" s="92"/>
+      <c r="D217" s="92"/>
+      <c r="E217" s="92"/>
+      <c r="F217" s="92"/>
+      <c r="G217" s="93"/>
     </row>
     <row r="218" spans="1:7">
-      <c r="A218"/>
-      <c r="B218"/>
-      <c r="C218"/>
-      <c r="D218"/>
-      <c r="E218"/>
-      <c r="F218"/>
-      <c r="G218"/>
-    </row>
-    <row r="219" spans="1:7">
-      <c r="A219"/>
-      <c r="B219"/>
-      <c r="C219"/>
-      <c r="D219"/>
-      <c r="E219"/>
-      <c r="F219"/>
-      <c r="G219"/>
-    </row>
-    <row r="220" spans="1:7">
-      <c r="A220"/>
-      <c r="B220"/>
-      <c r="C220"/>
-      <c r="D220"/>
-      <c r="E220"/>
-      <c r="F220"/>
-      <c r="G220"/>
-    </row>
-    <row r="221" spans="1:7">
-      <c r="A221"/>
-      <c r="B221"/>
-      <c r="C221"/>
-      <c r="D221"/>
-      <c r="E221"/>
-      <c r="F221"/>
-      <c r="G221"/>
-    </row>
-    <row r="222" spans="1:7">
-      <c r="A222"/>
-      <c r="B222"/>
-      <c r="C222"/>
-      <c r="D222"/>
-      <c r="E222"/>
-      <c r="F222"/>
-      <c r="G222"/>
-    </row>
-    <row r="223" spans="1:7">
-      <c r="A223"/>
-      <c r="B223"/>
-      <c r="C223"/>
-      <c r="D223"/>
-      <c r="E223"/>
-      <c r="F223"/>
-      <c r="G223"/>
-    </row>
-    <row r="224" spans="1:7">
-      <c r="A224"/>
-      <c r="B224"/>
-      <c r="C224"/>
-      <c r="D224"/>
-      <c r="E224"/>
-      <c r="F224"/>
-      <c r="G224"/>
-    </row>
-    <row r="225" spans="1:7">
-      <c r="A225"/>
-      <c r="B225"/>
-      <c r="C225"/>
-      <c r="D225"/>
-      <c r="E225"/>
-      <c r="F225"/>
-      <c r="G225"/>
+      <c r="A218" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="B218" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="C218" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="D218" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="E218" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="F218" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="G218" s="57" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" ht="135">
+      <c r="A219" s="58">
+        <v>1</v>
+      </c>
+      <c r="B219" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="C219" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="D219" s="60" t="s">
+        <v>243</v>
+      </c>
+      <c r="E219" s="60"/>
+      <c r="F219" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="G219" s="62"/>
+    </row>
+    <row r="220" spans="1:7" ht="60">
+      <c r="A220" s="58">
+        <v>2</v>
+      </c>
+      <c r="B220" s="59" t="s">
+        <v>250</v>
+      </c>
+      <c r="C220" s="60" t="s">
+        <v>252</v>
+      </c>
+      <c r="D220" s="60"/>
+      <c r="E220" s="60"/>
+      <c r="F220" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="G220" s="62"/>
+    </row>
+    <row r="221" spans="1:7" ht="75">
+      <c r="A221" s="58">
+        <v>3</v>
+      </c>
+      <c r="B221" s="59" t="s">
+        <v>242</v>
+      </c>
+      <c r="C221" s="60" t="s">
+        <v>251</v>
+      </c>
+      <c r="D221" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="E221" s="60"/>
+      <c r="F221" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="G221" s="62" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" ht="60">
+      <c r="A222" s="58">
+        <v>4</v>
+      </c>
+      <c r="B222" s="59" t="s">
+        <v>253</v>
+      </c>
+      <c r="C222" s="60" t="s">
+        <v>254</v>
+      </c>
+      <c r="D222" s="60"/>
+      <c r="E222" s="60"/>
+      <c r="F222" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="G222" s="62"/>
+    </row>
+    <row r="223" spans="1:7" ht="45">
+      <c r="A223" s="58">
+        <v>5</v>
+      </c>
+      <c r="B223" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="C223" s="60" t="s">
+        <v>255</v>
+      </c>
+      <c r="D223" s="60" t="s">
+        <v>243</v>
+      </c>
+      <c r="E223" s="60"/>
+      <c r="F223" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="G223" s="62"/>
+    </row>
+    <row r="224" spans="1:7" ht="45">
+      <c r="A224" s="58">
+        <v>6</v>
+      </c>
+      <c r="B224" s="59" t="s">
+        <v>244</v>
+      </c>
+      <c r="C224" s="60" t="s">
+        <v>245</v>
+      </c>
+      <c r="D224" s="60" t="s">
+        <v>243</v>
+      </c>
+      <c r="E224" s="60"/>
+      <c r="F224" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="G224" s="62"/>
+    </row>
+    <row r="225" spans="1:7" ht="30">
+      <c r="A225" s="58">
+        <v>7</v>
+      </c>
+      <c r="B225" s="59" t="s">
+        <v>256</v>
+      </c>
+      <c r="C225" s="60" t="s">
+        <v>246</v>
+      </c>
+      <c r="D225" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="E225" s="60"/>
+      <c r="F225" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="G225" s="62" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="226" spans="1:7">
-      <c r="A226"/>
-      <c r="B226"/>
-      <c r="C226"/>
-      <c r="D226"/>
-      <c r="E226"/>
-      <c r="F226"/>
-      <c r="G226"/>
+      <c r="A226" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="B226" s="94"/>
+      <c r="C226" s="95"/>
+      <c r="D226" s="95"/>
+      <c r="E226" s="95"/>
+      <c r="F226" s="95"/>
+      <c r="G226" s="96"/>
     </row>
     <row r="227" spans="1:7">
       <c r="A227"/>
@@ -12015,13 +12309,14 @@
       <c r="F450"/>
       <c r="G450"/>
     </row>
-    <row r="451" spans="1:8" ht="15.75">
-      <c r="A451" s="29"/>
-      <c r="B451" s="48"/>
-      <c r="C451" s="48"/>
-      <c r="D451" s="66"/>
-      <c r="E451" s="67"/>
-      <c r="F451" s="68"/>
+    <row r="451" spans="1:8">
+      <c r="A451"/>
+      <c r="B451"/>
+      <c r="C451"/>
+      <c r="D451"/>
+      <c r="E451"/>
+      <c r="F451"/>
+      <c r="G451"/>
     </row>
     <row r="452" spans="1:8" ht="15.75">
       <c r="A452" s="29"/>
@@ -12039,14 +12334,13 @@
       <c r="E453" s="67"/>
       <c r="F453" s="68"/>
     </row>
-    <row r="454" spans="1:8" s="49" customFormat="1" ht="15.75">
+    <row r="454" spans="1:8" ht="15.75">
       <c r="A454" s="29"/>
       <c r="B454" s="48"/>
       <c r="C454" s="48"/>
       <c r="D454" s="66"/>
       <c r="E454" s="67"/>
       <c r="F454" s="68"/>
-      <c r="H454" s="28"/>
     </row>
     <row r="455" spans="1:8" s="49" customFormat="1" ht="15.75">
       <c r="A455" s="29"/>
@@ -16674,33 +16968,62 @@
       <c r="F968" s="68"/>
       <c r="H968" s="28"/>
     </row>
+    <row r="969" spans="1:8" s="49" customFormat="1" ht="15.75">
+      <c r="A969" s="29"/>
+      <c r="B969" s="48"/>
+      <c r="C969" s="48"/>
+      <c r="D969" s="66"/>
+      <c r="E969" s="67"/>
+      <c r="F969" s="68"/>
+      <c r="H969" s="28"/>
+    </row>
   </sheetData>
-  <mergeCells count="76">
-    <mergeCell ref="B145:G145"/>
-    <mergeCell ref="B152:G152"/>
-    <mergeCell ref="B135:G135"/>
-    <mergeCell ref="B136:E136"/>
-    <mergeCell ref="B137:G137"/>
-    <mergeCell ref="B143:G143"/>
-    <mergeCell ref="B144:E144"/>
-    <mergeCell ref="B116:E116"/>
-    <mergeCell ref="B117:G117"/>
-    <mergeCell ref="B126:G126"/>
-    <mergeCell ref="B127:E127"/>
-    <mergeCell ref="B128:G128"/>
-    <mergeCell ref="B63:G63"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B65:G65"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="B81:G81"/>
-    <mergeCell ref="B92:E92"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="B98:G98"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B83:G83"/>
-    <mergeCell ref="B91:G91"/>
+  <mergeCells count="82">
+    <mergeCell ref="B226:G226"/>
+    <mergeCell ref="B207:E207"/>
+    <mergeCell ref="B208:G208"/>
+    <mergeCell ref="B215:G215"/>
+    <mergeCell ref="B216:E216"/>
+    <mergeCell ref="B217:G217"/>
+    <mergeCell ref="B197:E197"/>
+    <mergeCell ref="B198:G198"/>
+    <mergeCell ref="B206:G206"/>
+    <mergeCell ref="B189:E189"/>
+    <mergeCell ref="B190:G190"/>
+    <mergeCell ref="B196:G196"/>
+    <mergeCell ref="B175:G175"/>
+    <mergeCell ref="B181:G181"/>
+    <mergeCell ref="B182:E182"/>
+    <mergeCell ref="B183:G183"/>
+    <mergeCell ref="B188:G188"/>
+    <mergeCell ref="B166:G166"/>
+    <mergeCell ref="B167:E167"/>
+    <mergeCell ref="B168:G168"/>
+    <mergeCell ref="B173:G173"/>
+    <mergeCell ref="B174:E174"/>
+    <mergeCell ref="B153:E153"/>
+    <mergeCell ref="B154:G154"/>
+    <mergeCell ref="B160:G160"/>
+    <mergeCell ref="B161:E161"/>
+    <mergeCell ref="B162:G162"/>
+    <mergeCell ref="B115:G115"/>
+    <mergeCell ref="B99:E99"/>
+    <mergeCell ref="B100:G100"/>
+    <mergeCell ref="B105:G105"/>
+    <mergeCell ref="B106:E106"/>
+    <mergeCell ref="B107:G107"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:E29"/>
     <mergeCell ref="B59:G59"/>
     <mergeCell ref="B35:G35"/>
     <mergeCell ref="B36:E36"/>
@@ -16713,48 +17036,34 @@
     <mergeCell ref="B53:G53"/>
     <mergeCell ref="B57:G57"/>
     <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B115:G115"/>
-    <mergeCell ref="B99:E99"/>
-    <mergeCell ref="B100:G100"/>
-    <mergeCell ref="B105:G105"/>
-    <mergeCell ref="B106:E106"/>
-    <mergeCell ref="B107:G107"/>
-    <mergeCell ref="B153:E153"/>
-    <mergeCell ref="B154:G154"/>
-    <mergeCell ref="B160:G160"/>
-    <mergeCell ref="B161:E161"/>
-    <mergeCell ref="B162:G162"/>
-    <mergeCell ref="B166:G166"/>
-    <mergeCell ref="B167:E167"/>
-    <mergeCell ref="B168:G168"/>
-    <mergeCell ref="B173:G173"/>
-    <mergeCell ref="B174:E174"/>
-    <mergeCell ref="B175:G175"/>
-    <mergeCell ref="B181:G181"/>
-    <mergeCell ref="B182:E182"/>
-    <mergeCell ref="B183:G183"/>
-    <mergeCell ref="B188:G188"/>
-    <mergeCell ref="B197:E197"/>
-    <mergeCell ref="B198:G198"/>
-    <mergeCell ref="B206:G206"/>
-    <mergeCell ref="B189:E189"/>
-    <mergeCell ref="B190:G190"/>
-    <mergeCell ref="B196:G196"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="B98:G98"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="B116:E116"/>
+    <mergeCell ref="B117:G117"/>
+    <mergeCell ref="B126:G126"/>
+    <mergeCell ref="B127:E127"/>
+    <mergeCell ref="B128:G128"/>
+    <mergeCell ref="B145:G145"/>
+    <mergeCell ref="B152:G152"/>
+    <mergeCell ref="B135:G135"/>
+    <mergeCell ref="B136:E136"/>
+    <mergeCell ref="B137:G137"/>
+    <mergeCell ref="B143:G143"/>
+    <mergeCell ref="B144:E144"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" showErrorMessage="1" promptTitle="Valid values include:" prompt="_x000a_" sqref="F451:F453 F458:F464 F677:F679 F667:F672 F469:F478 F483:F486 F491:F496 F501:F509 F514:F523 F528:F538 F543:F553 F569:F575 F597:F599 F558:F564 F580:F586 F591:F592 F604:F610 F615:F621 F637:F639 F626:F632 F644:F647 F652:F654 F659:F662 F26:F27 F61:F62 F21 F39:F42 F32:F34 F55:F56 F47:F50 F67:F71 F76:F80 F85:F90 F95:F97 F102:F104 F109:F114 F119:F125 F130:F134 F139:F142 F147:F151 F156:F159 F164:F165 F170:F172 F177:F180 F185:F187 F192:F195 F200:F205" xr:uid="{59CD337E-F2A3-4555-8531-BBD5B92517F1}">
+    <dataValidation type="list" showErrorMessage="1" promptTitle="Valid values include:" prompt="_x000a_" sqref="F452:F454 F459:F465 F678:F680 F668:F673 F470:F479 F484:F487 F492:F497 F502:F510 F515:F524 F529:F539 F544:F554 F570:F576 F598:F600 F559:F565 F581:F587 F592:F593 F605:F611 F616:F622 F638:F640 F627:F633 F645:F648 F653:F655 F660:F663 F26:F27 F61:F62 F21 F39:F42 F32:F34 F55:F56 F47:F50 F67:F71 F76:F80 F85:F90 F95:F97 F102:F104 F109:F114 F119:F125 F130:F134 F139:F142 F147:F151 F156:F159 F164:F165 F170:F172 F177:F180 F185:F187 F192:F195 F200:F205 F210:F214 F219:F225" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Pass, Fail, Blocked"</formula1>
     </dataValidation>
   </dataValidations>

--- a/TCS_NEWUI_Summary Tag.xlsx
+++ b/TCS_NEWUI_Summary Tag.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sumit Rana\Projects\AdIntel- New\Test Cases\TC Repository\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e007tu\Pictures\TC Repository\TC Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03C535B-FE2A-45BE-9164-41BA84C381C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="815" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="5" r:id="rId1"/>
@@ -46,7 +45,7 @@
     <definedName name="test" localSheetId="1">#REF!</definedName>
     <definedName name="test">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -59,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="265">
   <si>
     <t>Test Case Result Modules-Wise</t>
   </si>
@@ -950,9 +949,6 @@
     <t>The Filters should be reset to default filters and the Modified filter tags should be reset to default ones</t>
   </si>
   <si>
-    <t>The Report should have the default filters as all the applied Filters where reset in the previous report</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Search options window should open
 2. User should be able to select the search options and Apply
 3.Filter should be applied and Filter tags should display showing search options selected and with a reset icon on it
@@ -972,18 +968,6 @@
     <t>Apply any saved search</t>
   </si>
   <si>
-    <t xml:space="preserve">1. All the applied filters in the previous report should persist
-2. All the filter tags in the previous report should be displayed the same way in the current report
-3. Save and other secondary button on the top right corner should be enabled
- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Saved search should be applied
-2. Filter should be applied and Filter tags should display showing search options
-3. Save and other secondary button on the top right corner should be enabled
- </t>
-  </si>
-  <si>
     <t>Update the Filters</t>
   </si>
   <si>
@@ -992,9 +976,6 @@
 All Secondary action buttons on the top right corner with Save and Reset button should be enabled</t>
   </si>
   <si>
-    <t>The Report should have the updated filters</t>
-  </si>
-  <si>
     <t>Switch back to the other report</t>
   </si>
   <si>
@@ -1005,14 +986,51 @@
   </si>
   <si>
     <t>Verify the applied saved search and modifications made persist while switching the reports (case for SMRT-8047)</t>
+  </si>
+  <si>
+    <t>Save and Reset button disables after user apply filters and switch to the other report</t>
+  </si>
+  <si>
+    <t>SMRT-8099</t>
+  </si>
+  <si>
+    <t>Bug ticket</t>
+  </si>
+  <si>
+    <t>1.The Report should have the default filters as all the applied Filters where reset in the previous report
+2. Save and Reset should be disabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Saved search should be applied
+2. Filter should be applied and Filter tags should display showing search options
+3. Save and other secondary button on the top right corner should be enabled, Reset button should be disabled
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. All the applied filters in the previous report should persist
+2. All the filter tags in the previous report should be displayed the same way in the current report
+3. Save and other secondary button on the top right corner should be enabled, Reset button should be disabled
+ </t>
+  </si>
+  <si>
+    <t>The Report should have the updated filters
+All Secondary action buttons on the top right corner with Save and Reset button should be enabled</t>
+  </si>
+  <si>
+    <t>The Modified filters of the saved search should reset to the default ones
+Reset button should be disabled, all other secondary buttons should be enabled</t>
+  </si>
+  <si>
+    <t>The Report should have applied saved search with the default filters as all the modified Filters where reset in the previous report
+Reset button should be disabled, all other secondary buttons should be enabled</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="48">
     <font>
@@ -2490,10 +2508,10 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="92" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="134"/>
@@ -2644,7 +2662,7 @@
     <xf numFmtId="0" fontId="4" fillId="31" borderId="19" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="47" fillId="31" borderId="19" xfId="154" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="47" fillId="31" borderId="19" xfId="154" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="19" xfId="144" applyFont="1" applyFill="1" applyBorder="1">
@@ -2661,7 +2679,7 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="152" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="152" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="41" fontId="47" fillId="0" borderId="0" xfId="155" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="47" fillId="0" borderId="0" xfId="155" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="146" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2728,6 +2746,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="146" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="41" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="42" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="43" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="30" borderId="41" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="30" borderId="42" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="30" borderId="43" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="41" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2737,24 +2773,6 @@
     <xf numFmtId="0" fontId="4" fillId="31" borderId="43" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="41" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="42" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="43" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="30" borderId="41" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="30" borderId="42" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="30" borderId="43" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="24" borderId="22" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2773,164 +2791,165 @@
     <xf numFmtId="0" fontId="46" fillId="29" borderId="40" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="156">
-    <cellStyle name="20% - Accent1" xfId="11" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="20% - Accent1 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="20% - Accent1 2 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="20% - Accent1 2 2 2 2 3" xfId="13" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="20% - Accent1 2 2 2 2 3 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="20% - Accent1 2 2 2 2 3 3" xfId="20" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="20% - Accent1 2 3" xfId="22" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="20% - Accent1 2 3 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="20% - Accent1 2 3 2 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="20% - Accent1 2 3 2 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="20% - Accent1 2 3 2 4" xfId="29" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="20% - Accent2" xfId="30" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="20% - Accent2 2" xfId="32" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="20% - Accent2 2 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="20% - Accent2 2 2 2 2 3" xfId="34" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="20% - Accent2 2 2 2 2 3 2" xfId="36" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="20% - Accent2 2 2 2 2 3 3" xfId="37" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="20% - Accent2 2 3" xfId="35" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="20% - Accent2 2 3 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="20% - Accent3" xfId="39" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="20% - Accent4" xfId="40" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="20% - Accent5" xfId="42" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="20% - Accent6" xfId="16" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="40% - Accent1" xfId="3" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="40% - Accent1 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="40% - Accent1 2 2" xfId="45" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="40% - Accent1 2 2 2 2 3 2" xfId="48" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="40% - Accent1 2 2 2 2 3 2 2" xfId="51" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="40% - Accent1 2 2 2 2 3 2 3" xfId="52" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="40% - Accent1 2 3" xfId="54" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="40% - Accent1 2 3 2" xfId="55" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="40% - Accent2" xfId="12" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="40% - Accent2 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="40% - Accent2 2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="40% - Accent2 2 2 2 2 3 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="40% - Accent2 2 2 2 2 3 2 2" xfId="62" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="40% - Accent2 2 2 2 2 3 2 3" xfId="31" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="40% - Accent2 2 3" xfId="58" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="40% - Accent2 2 3 2" xfId="61" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="40% - Accent2 2 3 2 2" xfId="138" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="40% - Accent2 2 3 2 2 2" xfId="150" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="40% - Accent3" xfId="6" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="40% - Accent4" xfId="21" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="40% - Accent5" xfId="44" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="40% - Accent6" xfId="53" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="60% - Accent1" xfId="41" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="60% - Accent2" xfId="14" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="60% - Accent3" xfId="18" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="60% - Accent4" xfId="47" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="60% - Accent5" xfId="63" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="60% - Accent6" xfId="50" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="Accent1" xfId="64" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="Accent1 2" xfId="65" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="Accent1 2 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="Accent1 2 2 2 2 3" xfId="24" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="Accent1 2 2 2 2 3 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="Accent1 2 2 2 2 3 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="Accent1 2 3" xfId="66" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="Accent1 2 3 2" xfId="69" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="Accent1 2 3 2 2" xfId="135" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="Accent2" xfId="70" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="Accent2 2" xfId="46" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="Accent2 2 2" xfId="49" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="Accent2 2 2 2 2 3" xfId="71" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="Accent2 2 2 2 2 3 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="Accent2 2 2 2 2 3 3" xfId="73" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="Accent2 2 3" xfId="74" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="Accent2 2 3 2" xfId="75" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="Accent2 2 3 2 2" xfId="136" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
-    <cellStyle name="Accent3" xfId="76" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="Accent4" xfId="23" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="Accent5" xfId="77" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="Accent6" xfId="26" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
-    <cellStyle name="Bad" xfId="78" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
-    <cellStyle name="Calculation" xfId="8" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
-    <cellStyle name="Check Cell" xfId="79" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="Comma [0] 2" xfId="154" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="Comma [0] 3" xfId="155" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="Explanatory Text" xfId="80" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="Good" xfId="81" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="Heading 1" xfId="82" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="Heading 2" xfId="84" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="Heading 2 2" xfId="85" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="Heading 2 2 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="Heading 2 2 2 2 2 3 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="Heading 2 2 2 2 2 3 2 2" xfId="88" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="Heading 2 2 2 2 2 3 2 3" xfId="89" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="Heading 2 2 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="Heading 2 2 3 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="Heading 3" xfId="90" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
-    <cellStyle name="Heading 4" xfId="91" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="20% - Accent1" xfId="11"/>
+    <cellStyle name="20% - Accent1 2" xfId="2"/>
+    <cellStyle name="20% - Accent1 2 2" xfId="7"/>
+    <cellStyle name="20% - Accent1 2 2 2 2 3" xfId="13"/>
+    <cellStyle name="20% - Accent1 2 2 2 2 3 2" xfId="17"/>
+    <cellStyle name="20% - Accent1 2 2 2 2 3 3" xfId="20"/>
+    <cellStyle name="20% - Accent1 2 3" xfId="22"/>
+    <cellStyle name="20% - Accent1 2 3 2" xfId="25"/>
+    <cellStyle name="20% - Accent1 2 3 2 2" xfId="28"/>
+    <cellStyle name="20% - Accent1 2 3 2 3" xfId="5"/>
+    <cellStyle name="20% - Accent1 2 3 2 4" xfId="29"/>
+    <cellStyle name="20% - Accent2" xfId="30"/>
+    <cellStyle name="20% - Accent2 2" xfId="32"/>
+    <cellStyle name="20% - Accent2 2 2" xfId="33"/>
+    <cellStyle name="20% - Accent2 2 2 2 2 3" xfId="34"/>
+    <cellStyle name="20% - Accent2 2 2 2 2 3 2" xfId="36"/>
+    <cellStyle name="20% - Accent2 2 2 2 2 3 3" xfId="37"/>
+    <cellStyle name="20% - Accent2 2 3" xfId="35"/>
+    <cellStyle name="20% - Accent2 2 3 2" xfId="9"/>
+    <cellStyle name="20% - Accent3" xfId="39"/>
+    <cellStyle name="20% - Accent4" xfId="40"/>
+    <cellStyle name="20% - Accent5" xfId="42"/>
+    <cellStyle name="20% - Accent6" xfId="16"/>
+    <cellStyle name="40% - Accent1" xfId="3"/>
+    <cellStyle name="40% - Accent1 2" xfId="43"/>
+    <cellStyle name="40% - Accent1 2 2" xfId="45"/>
+    <cellStyle name="40% - Accent1 2 2 2 2 3 2" xfId="48"/>
+    <cellStyle name="40% - Accent1 2 2 2 2 3 2 2" xfId="51"/>
+    <cellStyle name="40% - Accent1 2 2 2 2 3 2 3" xfId="52"/>
+    <cellStyle name="40% - Accent1 2 3" xfId="54"/>
+    <cellStyle name="40% - Accent1 2 3 2" xfId="55"/>
+    <cellStyle name="40% - Accent2" xfId="12"/>
+    <cellStyle name="40% - Accent2 2" xfId="15"/>
+    <cellStyle name="40% - Accent2 2 2" xfId="38"/>
+    <cellStyle name="40% - Accent2 2 2 2 2 3 2" xfId="60"/>
+    <cellStyle name="40% - Accent2 2 2 2 2 3 2 2" xfId="62"/>
+    <cellStyle name="40% - Accent2 2 2 2 2 3 2 3" xfId="31"/>
+    <cellStyle name="40% - Accent2 2 3" xfId="58"/>
+    <cellStyle name="40% - Accent2 2 3 2" xfId="61"/>
+    <cellStyle name="40% - Accent2 2 3 2 2" xfId="138"/>
+    <cellStyle name="40% - Accent2 2 3 2 2 2" xfId="150"/>
+    <cellStyle name="40% - Accent3" xfId="6"/>
+    <cellStyle name="40% - Accent4" xfId="21"/>
+    <cellStyle name="40% - Accent5" xfId="44"/>
+    <cellStyle name="40% - Accent6" xfId="53"/>
+    <cellStyle name="60% - Accent1" xfId="41"/>
+    <cellStyle name="60% - Accent2" xfId="14"/>
+    <cellStyle name="60% - Accent3" xfId="18"/>
+    <cellStyle name="60% - Accent4" xfId="47"/>
+    <cellStyle name="60% - Accent5" xfId="63"/>
+    <cellStyle name="60% - Accent6" xfId="50"/>
+    <cellStyle name="Accent1" xfId="64"/>
+    <cellStyle name="Accent1 2" xfId="65"/>
+    <cellStyle name="Accent1 2 2" xfId="57"/>
+    <cellStyle name="Accent1 2 2 2 2 3" xfId="24"/>
+    <cellStyle name="Accent1 2 2 2 2 3 2" xfId="27"/>
+    <cellStyle name="Accent1 2 2 2 2 3 3" xfId="4"/>
+    <cellStyle name="Accent1 2 3" xfId="66"/>
+    <cellStyle name="Accent1 2 3 2" xfId="69"/>
+    <cellStyle name="Accent1 2 3 2 2" xfId="135"/>
+    <cellStyle name="Accent2" xfId="70"/>
+    <cellStyle name="Accent2 2" xfId="46"/>
+    <cellStyle name="Accent2 2 2" xfId="49"/>
+    <cellStyle name="Accent2 2 2 2 2 3" xfId="71"/>
+    <cellStyle name="Accent2 2 2 2 2 3 2" xfId="72"/>
+    <cellStyle name="Accent2 2 2 2 2 3 3" xfId="73"/>
+    <cellStyle name="Accent2 2 3" xfId="74"/>
+    <cellStyle name="Accent2 2 3 2" xfId="75"/>
+    <cellStyle name="Accent2 2 3 2 2" xfId="136"/>
+    <cellStyle name="Accent3" xfId="76"/>
+    <cellStyle name="Accent4" xfId="23"/>
+    <cellStyle name="Accent5" xfId="77"/>
+    <cellStyle name="Accent6" xfId="26"/>
+    <cellStyle name="Bad" xfId="78"/>
+    <cellStyle name="Calculation" xfId="8"/>
+    <cellStyle name="Check Cell" xfId="79"/>
+    <cellStyle name="Comma [0] 2" xfId="154"/>
+    <cellStyle name="Comma [0] 3" xfId="155"/>
+    <cellStyle name="Explanatory Text" xfId="80"/>
+    <cellStyle name="Good" xfId="81"/>
+    <cellStyle name="Heading 1" xfId="82"/>
+    <cellStyle name="Heading 2" xfId="84"/>
+    <cellStyle name="Heading 2 2" xfId="85"/>
+    <cellStyle name="Heading 2 2 2" xfId="86"/>
+    <cellStyle name="Heading 2 2 2 2 2 3 2" xfId="87"/>
+    <cellStyle name="Heading 2 2 2 2 2 3 2 2" xfId="88"/>
+    <cellStyle name="Heading 2 2 2 2 2 3 2 3" xfId="89"/>
+    <cellStyle name="Heading 2 2 3" xfId="10"/>
+    <cellStyle name="Heading 2 2 3 2" xfId="1"/>
+    <cellStyle name="Heading 3" xfId="90"/>
+    <cellStyle name="Heading 4" xfId="91"/>
     <cellStyle name="Hyperlink" xfId="92" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="93" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="Hyperlink 2 2" xfId="94" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
-    <cellStyle name="Hyperlink 3" xfId="95" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
-    <cellStyle name="Hyperlink 4" xfId="96" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="Hyperlink 5" xfId="137" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
-    <cellStyle name="Input" xfId="97" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="Linked Cell" xfId="98" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
-    <cellStyle name="Neutral" xfId="59" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="93"/>
+    <cellStyle name="Hyperlink 2 2" xfId="94"/>
+    <cellStyle name="Hyperlink 3" xfId="95"/>
+    <cellStyle name="Hyperlink 4" xfId="96"/>
+    <cellStyle name="Hyperlink 5" xfId="137"/>
+    <cellStyle name="Input" xfId="97"/>
+    <cellStyle name="Linked Cell" xfId="98"/>
+    <cellStyle name="Neutral" xfId="59"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="99" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
-    <cellStyle name="Normal 2 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
-    <cellStyle name="Normal 2 2 2" xfId="101" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
-    <cellStyle name="Normal 2 2 2 2 3 2" xfId="102" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
-    <cellStyle name="Normal 2 2 2 2 3 2 2" xfId="103" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
-    <cellStyle name="Normal 2 2 2 2 3 2 3" xfId="104" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
-    <cellStyle name="Normal 2 3" xfId="105" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
-    <cellStyle name="Normal 2 4" xfId="106" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
-    <cellStyle name="Normal 2 4 2" xfId="134" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
-    <cellStyle name="Normal 2 4 2 2" xfId="149" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
-    <cellStyle name="Normal 3" xfId="107" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
-    <cellStyle name="Normal 3 2" xfId="108" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
-    <cellStyle name="Normal 3 2 2" xfId="109" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
-    <cellStyle name="Normal 3 2 2 2" xfId="83" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
-    <cellStyle name="Normal 3 2 3" xfId="110" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
-    <cellStyle name="Normal 3 2 4" xfId="140" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
-    <cellStyle name="Normal 3 2 4 2" xfId="143" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
-    <cellStyle name="Normal 3 2 4 3" xfId="146" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
-    <cellStyle name="Normal 3 2 4 3 2" xfId="152" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
-    <cellStyle name="Normal 3 3" xfId="56" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
-    <cellStyle name="Normal 3 3 2" xfId="111" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
-    <cellStyle name="Normal 3 3 2 2" xfId="112" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
-    <cellStyle name="Normal 3 4" xfId="139" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
-    <cellStyle name="Normal 3 4 2" xfId="151" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
-    <cellStyle name="Normal 4" xfId="113" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
-    <cellStyle name="Normal 5" xfId="114" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
-    <cellStyle name="Note" xfId="68" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
-    <cellStyle name="Output" xfId="19" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
-    <cellStyle name="TableStyleLight1" xfId="115" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
-    <cellStyle name="TableStyleLight1 2" xfId="116" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
-    <cellStyle name="TableStyleLight1 2 2" xfId="117" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
-    <cellStyle name="TableStyleLight1 2 2 2" xfId="118" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
-    <cellStyle name="TableStyleLight1 2 2 2 2" xfId="119" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
-    <cellStyle name="TableStyleLight1 2 2 2 4" xfId="120" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
-    <cellStyle name="TableStyleLight1 2 3" xfId="121" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
-    <cellStyle name="TableStyleLight1 2 4" xfId="142" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
-    <cellStyle name="TableStyleLight1 2 4 2" xfId="145" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
-    <cellStyle name="TableStyleLight1 2 4 3" xfId="148" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
-    <cellStyle name="TableStyleLight1 3" xfId="122" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
-    <cellStyle name="TableStyleLight1 3 2" xfId="123" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
-    <cellStyle name="TableStyleLight1 3 2 2" xfId="124" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
-    <cellStyle name="TableStyleLight1 3 2 3" xfId="125" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
-    <cellStyle name="TableStyleLight1 3 3" xfId="126" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
-    <cellStyle name="TableStyleLight1 3 4" xfId="141" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
-    <cellStyle name="TableStyleLight1 3 4 2" xfId="144" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
-    <cellStyle name="TableStyleLight1 3 4 3" xfId="147" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
-    <cellStyle name="TableStyleLight1 3 4 3 2" xfId="153" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
-    <cellStyle name="TableStyleLight1 4" xfId="67" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
-    <cellStyle name="TableStyleLight1 4 2" xfId="127" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
-    <cellStyle name="TableStyleLight1 4 3" xfId="128" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
-    <cellStyle name="TableStyleLight1 5" xfId="129" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
-    <cellStyle name="TableStyleLight1 5 2" xfId="130" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
-    <cellStyle name="Title" xfId="131" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
-    <cellStyle name="Total" xfId="132" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
-    <cellStyle name="Warning Text" xfId="133" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="Normal 2" xfId="99"/>
+    <cellStyle name="Normal 2 2" xfId="100"/>
+    <cellStyle name="Normal 2 2 2" xfId="101"/>
+    <cellStyle name="Normal 2 2 2 2 3 2" xfId="102"/>
+    <cellStyle name="Normal 2 2 2 2 3 2 2" xfId="103"/>
+    <cellStyle name="Normal 2 2 2 2 3 2 3" xfId="104"/>
+    <cellStyle name="Normal 2 3" xfId="105"/>
+    <cellStyle name="Normal 2 4" xfId="106"/>
+    <cellStyle name="Normal 2 4 2" xfId="134"/>
+    <cellStyle name="Normal 2 4 2 2" xfId="149"/>
+    <cellStyle name="Normal 3" xfId="107"/>
+    <cellStyle name="Normal 3 2" xfId="108"/>
+    <cellStyle name="Normal 3 2 2" xfId="109"/>
+    <cellStyle name="Normal 3 2 2 2" xfId="83"/>
+    <cellStyle name="Normal 3 2 3" xfId="110"/>
+    <cellStyle name="Normal 3 2 4" xfId="140"/>
+    <cellStyle name="Normal 3 2 4 2" xfId="143"/>
+    <cellStyle name="Normal 3 2 4 3" xfId="146"/>
+    <cellStyle name="Normal 3 2 4 3 2" xfId="152"/>
+    <cellStyle name="Normal 3 3" xfId="56"/>
+    <cellStyle name="Normal 3 3 2" xfId="111"/>
+    <cellStyle name="Normal 3 3 2 2" xfId="112"/>
+    <cellStyle name="Normal 3 4" xfId="139"/>
+    <cellStyle name="Normal 3 4 2" xfId="151"/>
+    <cellStyle name="Normal 4" xfId="113"/>
+    <cellStyle name="Normal 5" xfId="114"/>
+    <cellStyle name="Note" xfId="68"/>
+    <cellStyle name="Output" xfId="19"/>
+    <cellStyle name="TableStyleLight1" xfId="115"/>
+    <cellStyle name="TableStyleLight1 2" xfId="116"/>
+    <cellStyle name="TableStyleLight1 2 2" xfId="117"/>
+    <cellStyle name="TableStyleLight1 2 2 2" xfId="118"/>
+    <cellStyle name="TableStyleLight1 2 2 2 2" xfId="119"/>
+    <cellStyle name="TableStyleLight1 2 2 2 4" xfId="120"/>
+    <cellStyle name="TableStyleLight1 2 3" xfId="121"/>
+    <cellStyle name="TableStyleLight1 2 4" xfId="142"/>
+    <cellStyle name="TableStyleLight1 2 4 2" xfId="145"/>
+    <cellStyle name="TableStyleLight1 2 4 3" xfId="148"/>
+    <cellStyle name="TableStyleLight1 3" xfId="122"/>
+    <cellStyle name="TableStyleLight1 3 2" xfId="123"/>
+    <cellStyle name="TableStyleLight1 3 2 2" xfId="124"/>
+    <cellStyle name="TableStyleLight1 3 2 3" xfId="125"/>
+    <cellStyle name="TableStyleLight1 3 3" xfId="126"/>
+    <cellStyle name="TableStyleLight1 3 4" xfId="141"/>
+    <cellStyle name="TableStyleLight1 3 4 2" xfId="144"/>
+    <cellStyle name="TableStyleLight1 3 4 3" xfId="147"/>
+    <cellStyle name="TableStyleLight1 3 4 3 2" xfId="153"/>
+    <cellStyle name="TableStyleLight1 4" xfId="67"/>
+    <cellStyle name="TableStyleLight1 4 2" xfId="127"/>
+    <cellStyle name="TableStyleLight1 4 3" xfId="128"/>
+    <cellStyle name="TableStyleLight1 5" xfId="129"/>
+    <cellStyle name="TableStyleLight1 5 2" xfId="130"/>
+    <cellStyle name="Title" xfId="131"/>
+    <cellStyle name="Total" xfId="132"/>
+    <cellStyle name="Warning Text" xfId="133"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3017,7 +3036,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
@@ -3105,7 +3124,7 @@
                 <a:bevelT w="63500" h="25400"/>
               </a:sp3d>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-71B6-4DE3-A7AD-5B86A9C2BF24}"/>
               </c:ext>
@@ -3129,7 +3148,7 @@
                 <a:bevelT w="63500" h="25400"/>
               </a:sp3d>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-71B6-4DE3-A7AD-5B86A9C2BF24}"/>
               </c:ext>
@@ -3153,7 +3172,7 @@
                 <a:bevelT w="63500" h="25400"/>
               </a:sp3d>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-71B6-4DE3-A7AD-5B86A9C2BF24}"/>
               </c:ext>
@@ -3177,7 +3196,7 @@
                 <a:bevelT w="63500" h="25400"/>
               </a:sp3d>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-71B6-4DE3-A7AD-5B86A9C2BF24}"/>
               </c:ext>
@@ -3208,7 +3227,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -3255,7 +3274,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-71B6-4DE3-A7AD-5B86A9C2BF24}"/>
             </c:ext>
@@ -3270,11 +3289,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="964317808"/>
-        <c:axId val="964322160"/>
+        <c:axId val="1253022480"/>
+        <c:axId val="1253025200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="964317808"/>
+        <c:axId val="1253022480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3296,7 +3315,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="964322160"/>
+        <c:crossAx val="1253025200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3304,7 +3323,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="964322160"/>
+        <c:axId val="1253025200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3314,7 +3333,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="964317808"/>
+        <c:crossAx val="1253022480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3342,7 +3361,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
@@ -3422,7 +3441,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-700B-4388-A157-532FE5806D3B}"/>
               </c:ext>
@@ -3440,7 +3459,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-700B-4388-A157-532FE5806D3B}"/>
               </c:ext>
@@ -3470,11 +3489,6 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-700B-4388-A157-532FE5806D3B}"/>
-                </c:ext>
-              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -3499,11 +3513,6 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-700B-4388-A157-532FE5806D3B}"/>
-                </c:ext>
-              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:noFill/>
@@ -3519,7 +3528,7 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
@@ -3552,7 +3561,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-700B-4388-A157-532FE5806D3B}"/>
             </c:ext>
@@ -3612,7 +3621,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3659,7 +3668,7 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-25D4-4E58-AB57-52CC97BAF3DE}"/>
               </c:ext>
@@ -3676,7 +3685,7 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-25D4-4E58-AB57-52CC97BAF3DE}"/>
               </c:ext>
@@ -3693,7 +3702,7 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-25D4-4E58-AB57-52CC97BAF3DE}"/>
               </c:ext>
@@ -3710,7 +3719,7 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-25D4-4E58-AB57-52CC97BAF3DE}"/>
               </c:ext>
@@ -3757,7 +3766,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-25D4-4E58-AB57-52CC97BAF3DE}"/>
             </c:ext>
@@ -3943,7 +3952,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3981,7 +3990,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4019,7 +4028,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB276036-E4AE-4D63-9C65-0694CB3986A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AB276036-E4AE-4D63-9C65-0694CB3986A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4123,7 +4132,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AF65C03-9B72-4D6B-9DD9-6AFF172BC3B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5AF65C03-9B72-4D6B-9DD9-6AFF172BC3B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4307,7 +4316,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E67F1DD6-8FFA-4013-AC77-D7090A499C80}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E67F1DD6-8FFA-4013-AC77-D7090A499C80}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4658,7 +4667,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4807,7 +4816,7 @@
     <mergeCell ref="G6:G7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A8" location="'Redesign - Summary Tag'!A1" display="Redesign - summary Tag" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A8" location="'Redesign - Summary Tag'!A1" display="Redesign - summary Tag"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4816,11 +4825,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5384,10 +5393,10 @@
         <v>238</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E26" s="6"/>
     </row>
@@ -5397,10 +5406,10 @@
         <v>239</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E27" s="6"/>
     </row>
@@ -5411,7 +5420,15 @@
     <row r="29" spans="1:7">
       <c r="A29" s="90"/>
       <c r="B29" s="4"/>
-      <c r="E29" s="6"/>
+      <c r="C29" s="106" t="s">
+        <v>256</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="90"/>
@@ -5747,11 +5764,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H969"/>
   <sheetViews>
-    <sheetView topLeftCell="A215" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G221" sqref="G221"/>
+    <sheetView topLeftCell="A221" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B226" sqref="B226:G226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -6638,12 +6655,12 @@
       <c r="A18" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="B18" s="97" t="s">
+      <c r="B18" s="94" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="99"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="96"/>
       <c r="F18" s="54" t="s">
         <v>81</v>
       </c>
@@ -6656,14 +6673,14 @@
       <c r="A19" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B19" s="91" t="s">
+      <c r="B19" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="92"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="93"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="99"/>
     </row>
     <row r="20" spans="1:7" s="52" customFormat="1">
       <c r="A20" s="57" t="s">
@@ -6709,23 +6726,23 @@
       <c r="A22" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B22" s="94"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="96"/>
+      <c r="B22" s="91"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="93"/>
     </row>
     <row r="23" spans="1:7" s="52" customFormat="1">
       <c r="A23" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="B23" s="97" t="s">
+      <c r="B23" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="98"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="99"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="96"/>
       <c r="F23" s="54" t="s">
         <v>81</v>
       </c>
@@ -6738,14 +6755,14 @@
       <c r="A24" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="91" t="s">
+      <c r="B24" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="92"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="93"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="99"/>
     </row>
     <row r="25" spans="1:7" s="52" customFormat="1">
       <c r="A25" s="57" t="s">
@@ -6810,23 +6827,23 @@
       <c r="A28" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B28" s="94"/>
-      <c r="C28" s="95"/>
-      <c r="D28" s="95"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="95"/>
-      <c r="G28" s="96"/>
+      <c r="B28" s="91"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="93"/>
     </row>
     <row r="29" spans="1:7" s="52" customFormat="1">
       <c r="A29" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="B29" s="97" t="s">
+      <c r="B29" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="98"/>
-      <c r="D29" s="98"/>
-      <c r="E29" s="99"/>
+      <c r="C29" s="95"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="96"/>
       <c r="F29" s="54" t="s">
         <v>81</v>
       </c>
@@ -6839,14 +6856,14 @@
       <c r="A30" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B30" s="91" t="s">
+      <c r="B30" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="92"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="92"/>
-      <c r="G30" s="93"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="98"/>
+      <c r="F30" s="98"/>
+      <c r="G30" s="99"/>
     </row>
     <row r="31" spans="1:7" s="52" customFormat="1">
       <c r="A31" s="57" t="s">
@@ -6930,23 +6947,23 @@
       <c r="A35" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B35" s="94"/>
-      <c r="C35" s="95"/>
-      <c r="D35" s="95"/>
-      <c r="E35" s="95"/>
-      <c r="F35" s="95"/>
-      <c r="G35" s="96"/>
+      <c r="B35" s="91"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="93"/>
     </row>
     <row r="36" spans="1:7" s="52" customFormat="1">
       <c r="A36" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="B36" s="97" t="s">
+      <c r="B36" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C36" s="98"/>
-      <c r="D36" s="98"/>
-      <c r="E36" s="99"/>
+      <c r="C36" s="95"/>
+      <c r="D36" s="95"/>
+      <c r="E36" s="96"/>
       <c r="F36" s="54" t="s">
         <v>81</v>
       </c>
@@ -6959,14 +6976,14 @@
       <c r="A37" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="91" t="s">
+      <c r="B37" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="92"/>
-      <c r="D37" s="92"/>
-      <c r="E37" s="92"/>
-      <c r="F37" s="92"/>
-      <c r="G37" s="93"/>
+      <c r="C37" s="98"/>
+      <c r="D37" s="98"/>
+      <c r="E37" s="98"/>
+      <c r="F37" s="98"/>
+      <c r="G37" s="99"/>
     </row>
     <row r="38" spans="1:7" s="52" customFormat="1">
       <c r="A38" s="57" t="s">
@@ -7067,23 +7084,23 @@
       <c r="A43" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B43" s="94"/>
-      <c r="C43" s="95"/>
-      <c r="D43" s="95"/>
-      <c r="E43" s="95"/>
-      <c r="F43" s="95"/>
-      <c r="G43" s="96"/>
+      <c r="B43" s="91"/>
+      <c r="C43" s="92"/>
+      <c r="D43" s="92"/>
+      <c r="E43" s="92"/>
+      <c r="F43" s="92"/>
+      <c r="G43" s="93"/>
     </row>
     <row r="44" spans="1:7" s="52" customFormat="1">
       <c r="A44" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="B44" s="97" t="s">
+      <c r="B44" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="98"/>
-      <c r="D44" s="98"/>
-      <c r="E44" s="99"/>
+      <c r="C44" s="95"/>
+      <c r="D44" s="95"/>
+      <c r="E44" s="96"/>
       <c r="F44" s="54" t="s">
         <v>81</v>
       </c>
@@ -7096,14 +7113,14 @@
       <c r="A45" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B45" s="91" t="s">
+      <c r="B45" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="C45" s="92"/>
-      <c r="D45" s="92"/>
-      <c r="E45" s="92"/>
-      <c r="F45" s="92"/>
-      <c r="G45" s="93"/>
+      <c r="C45" s="98"/>
+      <c r="D45" s="98"/>
+      <c r="E45" s="98"/>
+      <c r="F45" s="98"/>
+      <c r="G45" s="99"/>
     </row>
     <row r="46" spans="1:7" s="52" customFormat="1">
       <c r="A46" s="57" t="s">
@@ -7204,23 +7221,23 @@
       <c r="A51" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B51" s="94"/>
-      <c r="C51" s="95"/>
-      <c r="D51" s="95"/>
-      <c r="E51" s="95"/>
-      <c r="F51" s="95"/>
-      <c r="G51" s="96"/>
+      <c r="B51" s="91"/>
+      <c r="C51" s="92"/>
+      <c r="D51" s="92"/>
+      <c r="E51" s="92"/>
+      <c r="F51" s="92"/>
+      <c r="G51" s="93"/>
     </row>
     <row r="52" spans="1:7" s="52" customFormat="1">
       <c r="A52" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="B52" s="97" t="s">
+      <c r="B52" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="98"/>
-      <c r="D52" s="98"/>
-      <c r="E52" s="99"/>
+      <c r="C52" s="95"/>
+      <c r="D52" s="95"/>
+      <c r="E52" s="96"/>
       <c r="F52" s="54" t="s">
         <v>81</v>
       </c>
@@ -7233,14 +7250,14 @@
       <c r="A53" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B53" s="91" t="s">
+      <c r="B53" s="97" t="s">
         <v>131</v>
       </c>
-      <c r="C53" s="92"/>
-      <c r="D53" s="92"/>
-      <c r="E53" s="92"/>
-      <c r="F53" s="92"/>
-      <c r="G53" s="93"/>
+      <c r="C53" s="98"/>
+      <c r="D53" s="98"/>
+      <c r="E53" s="98"/>
+      <c r="F53" s="98"/>
+      <c r="G53" s="99"/>
     </row>
     <row r="54" spans="1:7" s="52" customFormat="1">
       <c r="A54" s="57" t="s">
@@ -7303,23 +7320,23 @@
       <c r="A57" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B57" s="94"/>
-      <c r="C57" s="95"/>
-      <c r="D57" s="95"/>
-      <c r="E57" s="95"/>
-      <c r="F57" s="95"/>
-      <c r="G57" s="96"/>
+      <c r="B57" s="91"/>
+      <c r="C57" s="92"/>
+      <c r="D57" s="92"/>
+      <c r="E57" s="92"/>
+      <c r="F57" s="92"/>
+      <c r="G57" s="93"/>
     </row>
     <row r="58" spans="1:7" s="52" customFormat="1">
       <c r="A58" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="B58" s="97" t="s">
+      <c r="B58" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="C58" s="98"/>
-      <c r="D58" s="98"/>
-      <c r="E58" s="99"/>
+      <c r="C58" s="95"/>
+      <c r="D58" s="95"/>
+      <c r="E58" s="96"/>
       <c r="F58" s="54" t="s">
         <v>81</v>
       </c>
@@ -7332,14 +7349,14 @@
       <c r="A59" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B59" s="91" t="s">
+      <c r="B59" s="97" t="s">
         <v>138</v>
       </c>
-      <c r="C59" s="92"/>
-      <c r="D59" s="92"/>
-      <c r="E59" s="92"/>
-      <c r="F59" s="92"/>
-      <c r="G59" s="93"/>
+      <c r="C59" s="98"/>
+      <c r="D59" s="98"/>
+      <c r="E59" s="98"/>
+      <c r="F59" s="98"/>
+      <c r="G59" s="99"/>
     </row>
     <row r="60" spans="1:7" s="52" customFormat="1">
       <c r="A60" s="57" t="s">
@@ -7404,23 +7421,23 @@
       <c r="A63" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B63" s="94"/>
-      <c r="C63" s="95"/>
-      <c r="D63" s="95"/>
-      <c r="E63" s="95"/>
-      <c r="F63" s="95"/>
-      <c r="G63" s="96"/>
+      <c r="B63" s="91"/>
+      <c r="C63" s="92"/>
+      <c r="D63" s="92"/>
+      <c r="E63" s="92"/>
+      <c r="F63" s="92"/>
+      <c r="G63" s="93"/>
     </row>
     <row r="64" spans="1:7" s="52" customFormat="1">
       <c r="A64" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="B64" s="97" t="s">
+      <c r="B64" s="94" t="s">
         <v>141</v>
       </c>
-      <c r="C64" s="98"/>
-      <c r="D64" s="98"/>
-      <c r="E64" s="99"/>
+      <c r="C64" s="95"/>
+      <c r="D64" s="95"/>
+      <c r="E64" s="96"/>
       <c r="F64" s="54" t="s">
         <v>81</v>
       </c>
@@ -7433,14 +7450,14 @@
       <c r="A65" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B65" s="91" t="s">
+      <c r="B65" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="C65" s="92"/>
-      <c r="D65" s="92"/>
-      <c r="E65" s="92"/>
-      <c r="F65" s="92"/>
-      <c r="G65" s="93"/>
+      <c r="C65" s="98"/>
+      <c r="D65" s="98"/>
+      <c r="E65" s="98"/>
+      <c r="F65" s="98"/>
+      <c r="G65" s="99"/>
     </row>
     <row r="66" spans="1:7" s="52" customFormat="1">
       <c r="A66" s="57" t="s">
@@ -7558,23 +7575,23 @@
       <c r="A72" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B72" s="94"/>
-      <c r="C72" s="95"/>
-      <c r="D72" s="95"/>
-      <c r="E72" s="95"/>
-      <c r="F72" s="95"/>
-      <c r="G72" s="96"/>
+      <c r="B72" s="91"/>
+      <c r="C72" s="92"/>
+      <c r="D72" s="92"/>
+      <c r="E72" s="92"/>
+      <c r="F72" s="92"/>
+      <c r="G72" s="93"/>
     </row>
     <row r="73" spans="1:7" s="52" customFormat="1">
       <c r="A73" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="B73" s="97" t="s">
+      <c r="B73" s="94" t="s">
         <v>148</v>
       </c>
-      <c r="C73" s="98"/>
-      <c r="D73" s="98"/>
-      <c r="E73" s="99"/>
+      <c r="C73" s="95"/>
+      <c r="D73" s="95"/>
+      <c r="E73" s="96"/>
       <c r="F73" s="54" t="s">
         <v>81</v>
       </c>
@@ -7587,14 +7604,14 @@
       <c r="A74" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B74" s="91" t="s">
+      <c r="B74" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="C74" s="92"/>
-      <c r="D74" s="92"/>
-      <c r="E74" s="92"/>
-      <c r="F74" s="92"/>
-      <c r="G74" s="93"/>
+      <c r="C74" s="98"/>
+      <c r="D74" s="98"/>
+      <c r="E74" s="98"/>
+      <c r="F74" s="98"/>
+      <c r="G74" s="99"/>
     </row>
     <row r="75" spans="1:7" s="52" customFormat="1">
       <c r="A75" s="57" t="s">
@@ -7712,23 +7729,23 @@
       <c r="A81" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B81" s="94"/>
-      <c r="C81" s="95"/>
-      <c r="D81" s="95"/>
-      <c r="E81" s="95"/>
-      <c r="F81" s="95"/>
-      <c r="G81" s="96"/>
+      <c r="B81" s="91"/>
+      <c r="C81" s="92"/>
+      <c r="D81" s="92"/>
+      <c r="E81" s="92"/>
+      <c r="F81" s="92"/>
+      <c r="G81" s="93"/>
     </row>
     <row r="82" spans="1:7" s="52" customFormat="1">
       <c r="A82" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="B82" s="97" t="s">
+      <c r="B82" s="94" t="s">
         <v>157</v>
       </c>
-      <c r="C82" s="98"/>
-      <c r="D82" s="98"/>
-      <c r="E82" s="99"/>
+      <c r="C82" s="95"/>
+      <c r="D82" s="95"/>
+      <c r="E82" s="96"/>
       <c r="F82" s="54" t="s">
         <v>81</v>
       </c>
@@ -7741,14 +7758,14 @@
       <c r="A83" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B83" s="91" t="s">
+      <c r="B83" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="C83" s="92"/>
-      <c r="D83" s="92"/>
-      <c r="E83" s="92"/>
-      <c r="F83" s="92"/>
-      <c r="G83" s="93"/>
+      <c r="C83" s="98"/>
+      <c r="D83" s="98"/>
+      <c r="E83" s="98"/>
+      <c r="F83" s="98"/>
+      <c r="G83" s="99"/>
     </row>
     <row r="84" spans="1:7" s="52" customFormat="1">
       <c r="A84" s="57" t="s">
@@ -7885,27 +7902,27 @@
       <c r="A91" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B91" s="94"/>
-      <c r="C91" s="95"/>
-      <c r="D91" s="95"/>
-      <c r="E91" s="95"/>
-      <c r="F91" s="95"/>
-      <c r="G91" s="96"/>
+      <c r="B91" s="91"/>
+      <c r="C91" s="92"/>
+      <c r="D91" s="92"/>
+      <c r="E91" s="92"/>
+      <c r="F91" s="92"/>
+      <c r="G91" s="93"/>
     </row>
     <row r="92" spans="1:7" s="52" customFormat="1">
       <c r="A92" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="B92" s="97" t="s">
+      <c r="B92" s="94" t="s">
         <v>153</v>
       </c>
-      <c r="C92" s="98" t="s">
+      <c r="C92" s="95" t="s">
         <v>153</v>
       </c>
-      <c r="D92" s="98" t="s">
+      <c r="D92" s="95" t="s">
         <v>153</v>
       </c>
-      <c r="E92" s="99" t="s">
+      <c r="E92" s="96" t="s">
         <v>153</v>
       </c>
       <c r="F92" s="54" t="s">
@@ -7920,14 +7937,14 @@
       <c r="A93" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B93" s="91" t="s">
+      <c r="B93" s="97" t="s">
         <v>168</v>
       </c>
-      <c r="C93" s="92"/>
-      <c r="D93" s="92"/>
-      <c r="E93" s="92"/>
-      <c r="F93" s="92"/>
-      <c r="G93" s="93"/>
+      <c r="C93" s="98"/>
+      <c r="D93" s="98"/>
+      <c r="E93" s="98"/>
+      <c r="F93" s="98"/>
+      <c r="G93" s="99"/>
     </row>
     <row r="94" spans="1:7" s="52" customFormat="1">
       <c r="A94" s="57" t="s">
@@ -8009,27 +8026,27 @@
       <c r="A98" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B98" s="94"/>
-      <c r="C98" s="95"/>
-      <c r="D98" s="95"/>
-      <c r="E98" s="95"/>
-      <c r="F98" s="95"/>
-      <c r="G98" s="96"/>
+      <c r="B98" s="91"/>
+      <c r="C98" s="92"/>
+      <c r="D98" s="92"/>
+      <c r="E98" s="92"/>
+      <c r="F98" s="92"/>
+      <c r="G98" s="93"/>
     </row>
     <row r="99" spans="1:7" customFormat="1" ht="42" customHeight="1">
       <c r="A99" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="B99" s="97" t="s">
+      <c r="B99" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="C99" s="98" t="s">
+      <c r="C99" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="D99" s="98" t="s">
+      <c r="D99" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="E99" s="99" t="s">
+      <c r="E99" s="96" t="s">
         <v>35</v>
       </c>
       <c r="F99" s="54" t="s">
@@ -8044,14 +8061,14 @@
       <c r="A100" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B100" s="91" t="s">
+      <c r="B100" s="97" t="s">
         <v>169</v>
       </c>
-      <c r="C100" s="92"/>
-      <c r="D100" s="92"/>
-      <c r="E100" s="92"/>
-      <c r="F100" s="92"/>
-      <c r="G100" s="93"/>
+      <c r="C100" s="98"/>
+      <c r="D100" s="98"/>
+      <c r="E100" s="98"/>
+      <c r="F100" s="98"/>
+      <c r="G100" s="99"/>
     </row>
     <row r="101" spans="1:7" customFormat="1">
       <c r="A101" s="57" t="s">
@@ -8133,27 +8150,27 @@
       <c r="A105" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B105" s="94"/>
-      <c r="C105" s="95"/>
-      <c r="D105" s="95"/>
-      <c r="E105" s="95"/>
-      <c r="F105" s="95"/>
-      <c r="G105" s="96"/>
+      <c r="B105" s="91"/>
+      <c r="C105" s="92"/>
+      <c r="D105" s="92"/>
+      <c r="E105" s="92"/>
+      <c r="F105" s="92"/>
+      <c r="G105" s="93"/>
     </row>
     <row r="106" spans="1:7" customFormat="1">
       <c r="A106" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="B106" s="97" t="s">
+      <c r="B106" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="C106" s="98" t="s">
+      <c r="C106" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="D106" s="98" t="s">
+      <c r="D106" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="E106" s="99" t="s">
+      <c r="E106" s="96" t="s">
         <v>39</v>
       </c>
       <c r="F106" s="54" t="s">
@@ -8168,14 +8185,14 @@
       <c r="A107" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B107" s="91" t="s">
+      <c r="B107" s="97" t="s">
         <v>169</v>
       </c>
-      <c r="C107" s="92"/>
-      <c r="D107" s="92"/>
-      <c r="E107" s="92"/>
-      <c r="F107" s="92"/>
-      <c r="G107" s="93"/>
+      <c r="C107" s="98"/>
+      <c r="D107" s="98"/>
+      <c r="E107" s="98"/>
+      <c r="F107" s="98"/>
+      <c r="G107" s="99"/>
     </row>
     <row r="108" spans="1:7" customFormat="1" ht="42" customHeight="1">
       <c r="A108" s="57" t="s">
@@ -8308,27 +8325,27 @@
       <c r="A115" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B115" s="94"/>
-      <c r="C115" s="95"/>
-      <c r="D115" s="95"/>
-      <c r="E115" s="95"/>
-      <c r="F115" s="95"/>
-      <c r="G115" s="96"/>
+      <c r="B115" s="91"/>
+      <c r="C115" s="92"/>
+      <c r="D115" s="92"/>
+      <c r="E115" s="92"/>
+      <c r="F115" s="92"/>
+      <c r="G115" s="93"/>
     </row>
     <row r="116" spans="1:7" customFormat="1" ht="50.25" customHeight="1">
       <c r="A116" s="53" t="s">
         <v>178</v>
       </c>
-      <c r="B116" s="97" t="s">
+      <c r="B116" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="C116" s="98" t="s">
+      <c r="C116" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="D116" s="98" t="s">
+      <c r="D116" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="E116" s="99" t="s">
+      <c r="E116" s="96" t="s">
         <v>38</v>
       </c>
       <c r="F116" s="54" t="s">
@@ -8343,14 +8360,14 @@
       <c r="A117" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B117" s="91" t="s">
+      <c r="B117" s="97" t="s">
         <v>169</v>
       </c>
-      <c r="C117" s="92"/>
-      <c r="D117" s="92"/>
-      <c r="E117" s="92"/>
-      <c r="F117" s="92"/>
-      <c r="G117" s="93"/>
+      <c r="C117" s="98"/>
+      <c r="D117" s="98"/>
+      <c r="E117" s="98"/>
+      <c r="F117" s="98"/>
+      <c r="G117" s="99"/>
     </row>
     <row r="118" spans="1:7" customFormat="1">
       <c r="A118" s="57" t="s">
@@ -8500,27 +8517,27 @@
       <c r="A126" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B126" s="94"/>
-      <c r="C126" s="95"/>
-      <c r="D126" s="95"/>
-      <c r="E126" s="95"/>
-      <c r="F126" s="95"/>
-      <c r="G126" s="96"/>
+      <c r="B126" s="91"/>
+      <c r="C126" s="92"/>
+      <c r="D126" s="92"/>
+      <c r="E126" s="92"/>
+      <c r="F126" s="92"/>
+      <c r="G126" s="93"/>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="53" t="s">
         <v>183</v>
       </c>
-      <c r="B127" s="97" t="s">
+      <c r="B127" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="C127" s="98" t="s">
+      <c r="C127" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="D127" s="98" t="s">
+      <c r="D127" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="E127" s="99" t="s">
+      <c r="E127" s="96" t="s">
         <v>34</v>
       </c>
       <c r="F127" s="54" t="s">
@@ -8535,14 +8552,14 @@
       <c r="A128" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B128" s="91" t="s">
+      <c r="B128" s="97" t="s">
         <v>169</v>
       </c>
-      <c r="C128" s="92"/>
-      <c r="D128" s="92"/>
-      <c r="E128" s="92"/>
-      <c r="F128" s="92"/>
-      <c r="G128" s="93"/>
+      <c r="C128" s="98"/>
+      <c r="D128" s="98"/>
+      <c r="E128" s="98"/>
+      <c r="F128" s="98"/>
+      <c r="G128" s="99"/>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="57" t="s">
@@ -8658,27 +8675,27 @@
       <c r="A135" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B135" s="94"/>
-      <c r="C135" s="95"/>
-      <c r="D135" s="95"/>
-      <c r="E135" s="95"/>
-      <c r="F135" s="95"/>
-      <c r="G135" s="96"/>
+      <c r="B135" s="91"/>
+      <c r="C135" s="92"/>
+      <c r="D135" s="92"/>
+      <c r="E135" s="92"/>
+      <c r="F135" s="92"/>
+      <c r="G135" s="93"/>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="53" t="s">
         <v>186</v>
       </c>
-      <c r="B136" s="97" t="s">
+      <c r="B136" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="C136" s="98" t="s">
+      <c r="C136" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="D136" s="98" t="s">
+      <c r="D136" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="E136" s="99" t="s">
+      <c r="E136" s="96" t="s">
         <v>33</v>
       </c>
       <c r="F136" s="54" t="s">
@@ -8693,14 +8710,14 @@
       <c r="A137" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B137" s="91" t="s">
+      <c r="B137" s="97" t="s">
         <v>169</v>
       </c>
-      <c r="C137" s="92"/>
-      <c r="D137" s="92"/>
-      <c r="E137" s="92"/>
-      <c r="F137" s="92"/>
-      <c r="G137" s="93"/>
+      <c r="C137" s="98"/>
+      <c r="D137" s="98"/>
+      <c r="E137" s="98"/>
+      <c r="F137" s="98"/>
+      <c r="G137" s="99"/>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="57" t="s">
@@ -8799,27 +8816,27 @@
       <c r="A143" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B143" s="94"/>
-      <c r="C143" s="95"/>
-      <c r="D143" s="95"/>
-      <c r="E143" s="95"/>
-      <c r="F143" s="95"/>
-      <c r="G143" s="96"/>
+      <c r="B143" s="91"/>
+      <c r="C143" s="92"/>
+      <c r="D143" s="92"/>
+      <c r="E143" s="92"/>
+      <c r="F143" s="92"/>
+      <c r="G143" s="93"/>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="53" t="s">
         <v>189</v>
       </c>
-      <c r="B144" s="97" t="s">
+      <c r="B144" s="94" t="s">
         <v>216</v>
       </c>
-      <c r="C144" s="98" t="s">
+      <c r="C144" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="D144" s="98" t="s">
+      <c r="D144" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="E144" s="99" t="s">
+      <c r="E144" s="96" t="s">
         <v>32</v>
       </c>
       <c r="F144" s="54" t="s">
@@ -8834,14 +8851,14 @@
       <c r="A145" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B145" s="91" t="s">
+      <c r="B145" s="97" t="s">
         <v>169</v>
       </c>
-      <c r="C145" s="92"/>
-      <c r="D145" s="92"/>
-      <c r="E145" s="92"/>
-      <c r="F145" s="92"/>
-      <c r="G145" s="93"/>
+      <c r="C145" s="98"/>
+      <c r="D145" s="98"/>
+      <c r="E145" s="98"/>
+      <c r="F145" s="98"/>
+      <c r="G145" s="99"/>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="57" t="s">
@@ -8957,27 +8974,27 @@
       <c r="A152" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B152" s="94"/>
-      <c r="C152" s="95"/>
-      <c r="D152" s="95"/>
-      <c r="E152" s="95"/>
-      <c r="F152" s="95"/>
-      <c r="G152" s="96"/>
+      <c r="B152" s="91"/>
+      <c r="C152" s="92"/>
+      <c r="D152" s="92"/>
+      <c r="E152" s="92"/>
+      <c r="F152" s="92"/>
+      <c r="G152" s="93"/>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="53" t="s">
         <v>190</v>
       </c>
-      <c r="B153" s="97" t="s">
+      <c r="B153" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="C153" s="98" t="s">
+      <c r="C153" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="D153" s="98" t="s">
+      <c r="D153" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="E153" s="99" t="s">
+      <c r="E153" s="96" t="s">
         <v>30</v>
       </c>
       <c r="F153" s="54" t="s">
@@ -8992,14 +9009,14 @@
       <c r="A154" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B154" s="91" t="s">
+      <c r="B154" s="97" t="s">
         <v>169</v>
       </c>
-      <c r="C154" s="92"/>
-      <c r="D154" s="92"/>
-      <c r="E154" s="92"/>
-      <c r="F154" s="92"/>
-      <c r="G154" s="93"/>
+      <c r="C154" s="98"/>
+      <c r="D154" s="98"/>
+      <c r="E154" s="98"/>
+      <c r="F154" s="98"/>
+      <c r="G154" s="99"/>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="57" t="s">
@@ -9098,27 +9115,27 @@
       <c r="A160" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B160" s="94"/>
-      <c r="C160" s="95"/>
-      <c r="D160" s="95"/>
-      <c r="E160" s="95"/>
-      <c r="F160" s="95"/>
-      <c r="G160" s="96"/>
+      <c r="B160" s="91"/>
+      <c r="C160" s="92"/>
+      <c r="D160" s="92"/>
+      <c r="E160" s="92"/>
+      <c r="F160" s="92"/>
+      <c r="G160" s="93"/>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="53" t="s">
         <v>192</v>
       </c>
-      <c r="B161" s="97" t="s">
+      <c r="B161" s="94" t="s">
         <v>195</v>
       </c>
-      <c r="C161" s="98" t="s">
+      <c r="C161" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="D161" s="98" t="s">
+      <c r="D161" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="E161" s="99" t="s">
+      <c r="E161" s="96" t="s">
         <v>42</v>
       </c>
       <c r="F161" s="54" t="s">
@@ -9133,14 +9150,14 @@
       <c r="A162" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B162" s="91" t="s">
+      <c r="B162" s="97" t="s">
         <v>193</v>
       </c>
-      <c r="C162" s="92"/>
-      <c r="D162" s="92"/>
-      <c r="E162" s="92"/>
-      <c r="F162" s="92"/>
-      <c r="G162" s="93"/>
+      <c r="C162" s="98"/>
+      <c r="D162" s="98"/>
+      <c r="E162" s="98"/>
+      <c r="F162" s="98"/>
+      <c r="G162" s="99"/>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="57" t="s">
@@ -9205,27 +9222,27 @@
       <c r="A166" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B166" s="94"/>
-      <c r="C166" s="95"/>
-      <c r="D166" s="95"/>
-      <c r="E166" s="95"/>
-      <c r="F166" s="95"/>
-      <c r="G166" s="96"/>
+      <c r="B166" s="91"/>
+      <c r="C166" s="92"/>
+      <c r="D166" s="92"/>
+      <c r="E166" s="92"/>
+      <c r="F166" s="92"/>
+      <c r="G166" s="93"/>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="53" t="s">
         <v>197</v>
       </c>
-      <c r="B167" s="97" t="s">
+      <c r="B167" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="C167" s="98" t="s">
+      <c r="C167" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="D167" s="98" t="s">
+      <c r="D167" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="E167" s="99" t="s">
+      <c r="E167" s="96" t="s">
         <v>46</v>
       </c>
       <c r="F167" s="54" t="s">
@@ -9240,14 +9257,14 @@
       <c r="A168" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B168" s="91" t="s">
+      <c r="B168" s="97" t="s">
         <v>169</v>
       </c>
-      <c r="C168" s="92"/>
-      <c r="D168" s="92"/>
-      <c r="E168" s="92"/>
-      <c r="F168" s="92"/>
-      <c r="G168" s="93"/>
+      <c r="C168" s="98"/>
+      <c r="D168" s="98"/>
+      <c r="E168" s="98"/>
+      <c r="F168" s="98"/>
+      <c r="G168" s="99"/>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="57" t="s">
@@ -9331,27 +9348,27 @@
       <c r="A173" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B173" s="94"/>
-      <c r="C173" s="95"/>
-      <c r="D173" s="95"/>
-      <c r="E173" s="95"/>
-      <c r="F173" s="95"/>
-      <c r="G173" s="96"/>
+      <c r="B173" s="91"/>
+      <c r="C173" s="92"/>
+      <c r="D173" s="92"/>
+      <c r="E173" s="92"/>
+      <c r="F173" s="92"/>
+      <c r="G173" s="93"/>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="53" t="s">
         <v>204</v>
       </c>
-      <c r="B174" s="97" t="s">
+      <c r="B174" s="94" t="s">
         <v>231</v>
       </c>
-      <c r="C174" s="98" t="s">
+      <c r="C174" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="D174" s="98" t="s">
+      <c r="D174" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="E174" s="99" t="s">
+      <c r="E174" s="96" t="s">
         <v>47</v>
       </c>
       <c r="F174" s="54" t="s">
@@ -9366,14 +9383,14 @@
       <c r="A175" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B175" s="91" t="s">
+      <c r="B175" s="97" t="s">
         <v>169</v>
       </c>
-      <c r="C175" s="92"/>
-      <c r="D175" s="92"/>
-      <c r="E175" s="92"/>
-      <c r="F175" s="92"/>
-      <c r="G175" s="93"/>
+      <c r="C175" s="98"/>
+      <c r="D175" s="98"/>
+      <c r="E175" s="98"/>
+      <c r="F175" s="98"/>
+      <c r="G175" s="99"/>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="57" t="s">
@@ -9478,27 +9495,27 @@
       <c r="A181" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B181" s="94"/>
-      <c r="C181" s="95"/>
-      <c r="D181" s="95"/>
-      <c r="E181" s="95"/>
-      <c r="F181" s="95"/>
-      <c r="G181" s="96"/>
+      <c r="B181" s="91"/>
+      <c r="C181" s="92"/>
+      <c r="D181" s="92"/>
+      <c r="E181" s="92"/>
+      <c r="F181" s="92"/>
+      <c r="G181" s="93"/>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="53" t="s">
         <v>205</v>
       </c>
-      <c r="B182" s="97" t="s">
+      <c r="B182" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="C182" s="98" t="s">
+      <c r="C182" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="D182" s="98" t="s">
+      <c r="D182" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="E182" s="99" t="s">
+      <c r="E182" s="96" t="s">
         <v>54</v>
       </c>
       <c r="F182" s="54" t="s">
@@ -9513,14 +9530,14 @@
       <c r="A183" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B183" s="91" t="s">
+      <c r="B183" s="97" t="s">
         <v>169</v>
       </c>
-      <c r="C183" s="92"/>
-      <c r="D183" s="92"/>
-      <c r="E183" s="92"/>
-      <c r="F183" s="92"/>
-      <c r="G183" s="93"/>
+      <c r="C183" s="98"/>
+      <c r="D183" s="98"/>
+      <c r="E183" s="98"/>
+      <c r="F183" s="98"/>
+      <c r="G183" s="99"/>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="57" t="s">
@@ -9604,27 +9621,27 @@
       <c r="A188" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B188" s="94"/>
-      <c r="C188" s="95"/>
-      <c r="D188" s="95"/>
-      <c r="E188" s="95"/>
-      <c r="F188" s="95"/>
-      <c r="G188" s="96"/>
+      <c r="B188" s="91"/>
+      <c r="C188" s="92"/>
+      <c r="D188" s="92"/>
+      <c r="E188" s="92"/>
+      <c r="F188" s="92"/>
+      <c r="G188" s="93"/>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="B189" s="97" t="s">
+      <c r="B189" s="94" t="s">
         <v>56</v>
       </c>
-      <c r="C189" s="98" t="s">
+      <c r="C189" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="D189" s="98" t="s">
+      <c r="D189" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="E189" s="99" t="s">
+      <c r="E189" s="96" t="s">
         <v>54</v>
       </c>
       <c r="F189" s="54" t="s">
@@ -9639,14 +9656,14 @@
       <c r="A190" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B190" s="91" t="s">
+      <c r="B190" s="97" t="s">
         <v>169</v>
       </c>
-      <c r="C190" s="92"/>
-      <c r="D190" s="92"/>
-      <c r="E190" s="92"/>
-      <c r="F190" s="92"/>
-      <c r="G190" s="93"/>
+      <c r="C190" s="98"/>
+      <c r="D190" s="98"/>
+      <c r="E190" s="98"/>
+      <c r="F190" s="98"/>
+      <c r="G190" s="99"/>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="57" t="s">
@@ -9745,27 +9762,27 @@
       <c r="A196" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B196" s="94"/>
-      <c r="C196" s="95"/>
-      <c r="D196" s="95"/>
-      <c r="E196" s="95"/>
-      <c r="F196" s="95"/>
-      <c r="G196" s="96"/>
+      <c r="B196" s="91"/>
+      <c r="C196" s="92"/>
+      <c r="D196" s="92"/>
+      <c r="E196" s="92"/>
+      <c r="F196" s="92"/>
+      <c r="G196" s="93"/>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="B197" s="97" t="s">
+      <c r="B197" s="94" t="s">
         <v>221</v>
       </c>
-      <c r="C197" s="98" t="s">
+      <c r="C197" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="D197" s="98" t="s">
+      <c r="D197" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="E197" s="99" t="s">
+      <c r="E197" s="96" t="s">
         <v>57</v>
       </c>
       <c r="F197" s="54" t="s">
@@ -9780,14 +9797,14 @@
       <c r="A198" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B198" s="91" t="s">
+      <c r="B198" s="97" t="s">
         <v>169</v>
       </c>
-      <c r="C198" s="92"/>
-      <c r="D198" s="92"/>
-      <c r="E198" s="92"/>
-      <c r="F198" s="92"/>
-      <c r="G198" s="93"/>
+      <c r="C198" s="98"/>
+      <c r="D198" s="98"/>
+      <c r="E198" s="98"/>
+      <c r="F198" s="98"/>
+      <c r="G198" s="99"/>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" s="57" t="s">
@@ -9920,27 +9937,27 @@
       <c r="A206" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B206" s="94"/>
-      <c r="C206" s="95"/>
-      <c r="D206" s="95"/>
-      <c r="E206" s="95"/>
-      <c r="F206" s="95"/>
-      <c r="G206" s="96"/>
+      <c r="B206" s="91"/>
+      <c r="C206" s="92"/>
+      <c r="D206" s="92"/>
+      <c r="E206" s="92"/>
+      <c r="F206" s="92"/>
+      <c r="G206" s="93"/>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" s="53" t="s">
         <v>240</v>
       </c>
-      <c r="B207" s="97" t="s">
+      <c r="B207" s="94" t="s">
         <v>236</v>
       </c>
-      <c r="C207" s="98" t="s">
+      <c r="C207" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="D207" s="98" t="s">
+      <c r="D207" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="E207" s="99" t="s">
+      <c r="E207" s="96" t="s">
         <v>57</v>
       </c>
       <c r="F207" s="54" t="s">
@@ -9955,14 +9972,14 @@
       <c r="A208" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B208" s="91" t="s">
+      <c r="B208" s="97" t="s">
         <v>169</v>
       </c>
-      <c r="C208" s="92"/>
-      <c r="D208" s="92"/>
-      <c r="E208" s="92"/>
-      <c r="F208" s="92"/>
-      <c r="G208" s="93"/>
+      <c r="C208" s="98"/>
+      <c r="D208" s="98"/>
+      <c r="E208" s="98"/>
+      <c r="F208" s="98"/>
+      <c r="G208" s="99"/>
     </row>
     <row r="209" spans="1:7">
       <c r="A209" s="57" t="s">
@@ -10014,7 +10031,7 @@
         <v>241</v>
       </c>
       <c r="C211" s="60" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D211" s="60"/>
       <c r="E211" s="60"/>
@@ -10031,7 +10048,7 @@
         <v>242</v>
       </c>
       <c r="C212" s="60" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D212" s="60" t="s">
         <v>202</v>
@@ -10067,7 +10084,7 @@
         <v>228</v>
       </c>
       <c r="C214" s="60" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="D214" s="60" t="s">
         <v>243</v>
@@ -10082,27 +10099,27 @@
       <c r="A215" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B215" s="94"/>
-      <c r="C215" s="95"/>
-      <c r="D215" s="95"/>
-      <c r="E215" s="95"/>
-      <c r="F215" s="95"/>
-      <c r="G215" s="96"/>
+      <c r="B215" s="91"/>
+      <c r="C215" s="92"/>
+      <c r="D215" s="92"/>
+      <c r="E215" s="92"/>
+      <c r="F215" s="92"/>
+      <c r="G215" s="93"/>
     </row>
     <row r="216" spans="1:7">
       <c r="A216" s="53" t="s">
-        <v>249</v>
-      </c>
-      <c r="B216" s="97" t="s">
+        <v>248</v>
+      </c>
+      <c r="B216" s="94" t="s">
         <v>237</v>
       </c>
-      <c r="C216" s="98" t="s">
+      <c r="C216" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="D216" s="98" t="s">
+      <c r="D216" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="E216" s="99" t="s">
+      <c r="E216" s="96" t="s">
         <v>57</v>
       </c>
       <c r="F216" s="54" t="s">
@@ -10117,14 +10134,14 @@
       <c r="A217" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B217" s="91" t="s">
+      <c r="B217" s="97" t="s">
         <v>169</v>
       </c>
-      <c r="C217" s="92"/>
-      <c r="D217" s="92"/>
-      <c r="E217" s="92"/>
-      <c r="F217" s="92"/>
-      <c r="G217" s="93"/>
+      <c r="C217" s="98"/>
+      <c r="D217" s="98"/>
+      <c r="E217" s="98"/>
+      <c r="F217" s="98"/>
+      <c r="G217" s="99"/>
     </row>
     <row r="218" spans="1:7">
       <c r="A218" s="57" t="s">
@@ -10168,15 +10185,15 @@
       </c>
       <c r="G219" s="62"/>
     </row>
-    <row r="220" spans="1:7" ht="60">
+    <row r="220" spans="1:7" ht="75">
       <c r="A220" s="58">
         <v>2</v>
       </c>
       <c r="B220" s="59" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C220" s="60" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="D220" s="60"/>
       <c r="E220" s="60"/>
@@ -10185,7 +10202,7 @@
       </c>
       <c r="G220" s="62"/>
     </row>
-    <row r="221" spans="1:7" ht="75">
+    <row r="221" spans="1:7" ht="90">
       <c r="A221" s="58">
         <v>3</v>
       </c>
@@ -10193,7 +10210,7 @@
         <v>242</v>
       </c>
       <c r="C221" s="60" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="D221" s="60" t="s">
         <v>202</v>
@@ -10203,7 +10220,7 @@
         <v>5</v>
       </c>
       <c r="G221" s="62" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="222" spans="1:7" ht="60">
@@ -10211,10 +10228,10 @@
         <v>4</v>
       </c>
       <c r="B222" s="59" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C222" s="60" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D222" s="60"/>
       <c r="E222" s="60"/>
@@ -10231,7 +10248,7 @@
         <v>228</v>
       </c>
       <c r="C223" s="60" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="D223" s="60" t="s">
         <v>243</v>
@@ -10250,7 +10267,7 @@
         <v>244</v>
       </c>
       <c r="C224" s="60" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="D224" s="60" t="s">
         <v>243</v>
@@ -10261,15 +10278,15 @@
       </c>
       <c r="G224" s="62"/>
     </row>
-    <row r="225" spans="1:7" ht="30">
+    <row r="225" spans="1:7" ht="60">
       <c r="A225" s="58">
         <v>7</v>
       </c>
       <c r="B225" s="59" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C225" s="60" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="D225" s="60" t="s">
         <v>202</v>
@@ -10279,19 +10296,19 @@
         <v>4</v>
       </c>
       <c r="G225" s="62" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="226" spans="1:7">
       <c r="A226" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B226" s="94"/>
-      <c r="C226" s="95"/>
-      <c r="D226" s="95"/>
-      <c r="E226" s="95"/>
-      <c r="F226" s="95"/>
-      <c r="G226" s="96"/>
+      <c r="B226" s="91"/>
+      <c r="C226" s="92"/>
+      <c r="D226" s="92"/>
+      <c r="E226" s="92"/>
+      <c r="F226" s="92"/>
+      <c r="G226" s="93"/>
     </row>
     <row r="227" spans="1:7">
       <c r="A227"/>
@@ -16979,39 +16996,43 @@
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="B226:G226"/>
-    <mergeCell ref="B207:E207"/>
-    <mergeCell ref="B208:G208"/>
-    <mergeCell ref="B215:G215"/>
-    <mergeCell ref="B216:E216"/>
-    <mergeCell ref="B217:G217"/>
-    <mergeCell ref="B197:E197"/>
-    <mergeCell ref="B198:G198"/>
-    <mergeCell ref="B206:G206"/>
-    <mergeCell ref="B189:E189"/>
-    <mergeCell ref="B190:G190"/>
-    <mergeCell ref="B196:G196"/>
-    <mergeCell ref="B175:G175"/>
-    <mergeCell ref="B181:G181"/>
-    <mergeCell ref="B182:E182"/>
-    <mergeCell ref="B183:G183"/>
-    <mergeCell ref="B188:G188"/>
-    <mergeCell ref="B166:G166"/>
-    <mergeCell ref="B167:E167"/>
-    <mergeCell ref="B168:G168"/>
-    <mergeCell ref="B173:G173"/>
-    <mergeCell ref="B174:E174"/>
-    <mergeCell ref="B153:E153"/>
-    <mergeCell ref="B154:G154"/>
-    <mergeCell ref="B160:G160"/>
-    <mergeCell ref="B161:E161"/>
-    <mergeCell ref="B162:G162"/>
-    <mergeCell ref="B115:G115"/>
-    <mergeCell ref="B99:E99"/>
-    <mergeCell ref="B100:G100"/>
-    <mergeCell ref="B105:G105"/>
-    <mergeCell ref="B106:E106"/>
-    <mergeCell ref="B107:G107"/>
+    <mergeCell ref="B145:G145"/>
+    <mergeCell ref="B152:G152"/>
+    <mergeCell ref="B135:G135"/>
+    <mergeCell ref="B136:E136"/>
+    <mergeCell ref="B137:G137"/>
+    <mergeCell ref="B143:G143"/>
+    <mergeCell ref="B144:E144"/>
+    <mergeCell ref="B116:E116"/>
+    <mergeCell ref="B117:G117"/>
+    <mergeCell ref="B126:G126"/>
+    <mergeCell ref="B127:E127"/>
+    <mergeCell ref="B128:G128"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="B98:G98"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="B58:E58"/>
     <mergeCell ref="B30:G30"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F6:G6"/>
@@ -17024,46 +17045,42 @@
     <mergeCell ref="B24:G24"/>
     <mergeCell ref="B28:G28"/>
     <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B53:G53"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B81:G81"/>
-    <mergeCell ref="B92:E92"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="B98:G98"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B83:G83"/>
-    <mergeCell ref="B91:G91"/>
-    <mergeCell ref="B63:G63"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B65:G65"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="B116:E116"/>
-    <mergeCell ref="B117:G117"/>
-    <mergeCell ref="B126:G126"/>
-    <mergeCell ref="B127:E127"/>
-    <mergeCell ref="B128:G128"/>
-    <mergeCell ref="B145:G145"/>
-    <mergeCell ref="B152:G152"/>
-    <mergeCell ref="B135:G135"/>
-    <mergeCell ref="B136:E136"/>
-    <mergeCell ref="B137:G137"/>
-    <mergeCell ref="B143:G143"/>
-    <mergeCell ref="B144:E144"/>
+    <mergeCell ref="B115:G115"/>
+    <mergeCell ref="B99:E99"/>
+    <mergeCell ref="B100:G100"/>
+    <mergeCell ref="B105:G105"/>
+    <mergeCell ref="B106:E106"/>
+    <mergeCell ref="B107:G107"/>
+    <mergeCell ref="B153:E153"/>
+    <mergeCell ref="B154:G154"/>
+    <mergeCell ref="B160:G160"/>
+    <mergeCell ref="B161:E161"/>
+    <mergeCell ref="B162:G162"/>
+    <mergeCell ref="B166:G166"/>
+    <mergeCell ref="B167:E167"/>
+    <mergeCell ref="B168:G168"/>
+    <mergeCell ref="B173:G173"/>
+    <mergeCell ref="B174:E174"/>
+    <mergeCell ref="B175:G175"/>
+    <mergeCell ref="B181:G181"/>
+    <mergeCell ref="B182:E182"/>
+    <mergeCell ref="B183:G183"/>
+    <mergeCell ref="B188:G188"/>
+    <mergeCell ref="B197:E197"/>
+    <mergeCell ref="B198:G198"/>
+    <mergeCell ref="B206:G206"/>
+    <mergeCell ref="B189:E189"/>
+    <mergeCell ref="B190:G190"/>
+    <mergeCell ref="B196:G196"/>
+    <mergeCell ref="B226:G226"/>
+    <mergeCell ref="B207:E207"/>
+    <mergeCell ref="B208:G208"/>
+    <mergeCell ref="B215:G215"/>
+    <mergeCell ref="B216:E216"/>
+    <mergeCell ref="B217:G217"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" showErrorMessage="1" promptTitle="Valid values include:" prompt="_x000a_" sqref="F452:F454 F459:F465 F678:F680 F668:F673 F470:F479 F484:F487 F492:F497 F502:F510 F515:F524 F529:F539 F544:F554 F570:F576 F598:F600 F559:F565 F581:F587 F592:F593 F605:F611 F616:F622 F638:F640 F627:F633 F645:F648 F653:F655 F660:F663 F26:F27 F61:F62 F21 F39:F42 F32:F34 F55:F56 F47:F50 F67:F71 F76:F80 F85:F90 F95:F97 F102:F104 F109:F114 F119:F125 F130:F134 F139:F142 F147:F151 F156:F159 F164:F165 F170:F172 F177:F180 F185:F187 F192:F195 F200:F205 F210:F214 F219:F225" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" showErrorMessage="1" promptTitle="Valid values include:" prompt="_x000a_" sqref="F452:F454 F459:F465 F678:F680 F668:F673 F470:F479 F484:F487 F492:F497 F502:F510 F515:F524 F529:F539 F544:F554 F570:F576 F598:F600 F559:F565 F581:F587 F592:F593 F605:F611 F616:F622 F638:F640 F627:F633 F645:F648 F653:F655 F660:F663 F26:F27 F61:F62 F21 F39:F42 F32:F34 F55:F56 F47:F50 F67:F71 F76:F80 F85:F90 F95:F97 F102:F104 F109:F114 F119:F125 F130:F134 F139:F142 F147:F151 F156:F159 F164:F165 F170:F172 F177:F180 F185:F187 F192:F195 F200:F205 F210:F214 F219:F225">
       <formula1>"Pass, Fail, Blocked"</formula1>
     </dataValidation>
   </dataValidations>

--- a/TCS_NEWUI_Summary Tag.xlsx
+++ b/TCS_NEWUI_Summary Tag.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e007tu\Pictures\TC Repository\TC Repository\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sumit Rana\Projects\AdIntel- New\Test Cases\TC Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27AD875D-35BD-4B06-AA3A-A3987BADF373}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="815" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="815" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="5" r:id="rId1"/>
@@ -45,15 +46,7 @@
     <definedName name="test" localSheetId="1">#REF!</definedName>
     <definedName name="test">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -1028,9 +1021,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="48">
     <font>
@@ -2508,8 +2501,8 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -2662,7 +2655,7 @@
     <xf numFmtId="0" fontId="4" fillId="31" borderId="19" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="47" fillId="31" borderId="19" xfId="154" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="47" fillId="31" borderId="19" xfId="154" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="19" xfId="144" applyFont="1" applyFill="1" applyBorder="1">
@@ -2679,7 +2672,7 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="152" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="152" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="47" fillId="0" borderId="0" xfId="155" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="47" fillId="0" borderId="0" xfId="155" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="146" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2719,6 +2712,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="146" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="31" fillId="21" borderId="1" xfId="134" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2746,6 +2740,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="146" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="41" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="42" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="43" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="41" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2764,15 +2767,6 @@
     <xf numFmtId="0" fontId="45" fillId="30" borderId="43" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="41" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="42" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="43" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="24" borderId="22" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2791,165 +2785,164 @@
     <xf numFmtId="0" fontId="46" fillId="29" borderId="40" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="156">
-    <cellStyle name="20% - Accent1" xfId="11"/>
-    <cellStyle name="20% - Accent1 2" xfId="2"/>
-    <cellStyle name="20% - Accent1 2 2" xfId="7"/>
-    <cellStyle name="20% - Accent1 2 2 2 2 3" xfId="13"/>
-    <cellStyle name="20% - Accent1 2 2 2 2 3 2" xfId="17"/>
-    <cellStyle name="20% - Accent1 2 2 2 2 3 3" xfId="20"/>
-    <cellStyle name="20% - Accent1 2 3" xfId="22"/>
-    <cellStyle name="20% - Accent1 2 3 2" xfId="25"/>
-    <cellStyle name="20% - Accent1 2 3 2 2" xfId="28"/>
-    <cellStyle name="20% - Accent1 2 3 2 3" xfId="5"/>
-    <cellStyle name="20% - Accent1 2 3 2 4" xfId="29"/>
-    <cellStyle name="20% - Accent2" xfId="30"/>
-    <cellStyle name="20% - Accent2 2" xfId="32"/>
-    <cellStyle name="20% - Accent2 2 2" xfId="33"/>
-    <cellStyle name="20% - Accent2 2 2 2 2 3" xfId="34"/>
-    <cellStyle name="20% - Accent2 2 2 2 2 3 2" xfId="36"/>
-    <cellStyle name="20% - Accent2 2 2 2 2 3 3" xfId="37"/>
-    <cellStyle name="20% - Accent2 2 3" xfId="35"/>
-    <cellStyle name="20% - Accent2 2 3 2" xfId="9"/>
-    <cellStyle name="20% - Accent3" xfId="39"/>
-    <cellStyle name="20% - Accent4" xfId="40"/>
-    <cellStyle name="20% - Accent5" xfId="42"/>
-    <cellStyle name="20% - Accent6" xfId="16"/>
-    <cellStyle name="40% - Accent1" xfId="3"/>
-    <cellStyle name="40% - Accent1 2" xfId="43"/>
-    <cellStyle name="40% - Accent1 2 2" xfId="45"/>
-    <cellStyle name="40% - Accent1 2 2 2 2 3 2" xfId="48"/>
-    <cellStyle name="40% - Accent1 2 2 2 2 3 2 2" xfId="51"/>
-    <cellStyle name="40% - Accent1 2 2 2 2 3 2 3" xfId="52"/>
-    <cellStyle name="40% - Accent1 2 3" xfId="54"/>
-    <cellStyle name="40% - Accent1 2 3 2" xfId="55"/>
-    <cellStyle name="40% - Accent2" xfId="12"/>
-    <cellStyle name="40% - Accent2 2" xfId="15"/>
-    <cellStyle name="40% - Accent2 2 2" xfId="38"/>
-    <cellStyle name="40% - Accent2 2 2 2 2 3 2" xfId="60"/>
-    <cellStyle name="40% - Accent2 2 2 2 2 3 2 2" xfId="62"/>
-    <cellStyle name="40% - Accent2 2 2 2 2 3 2 3" xfId="31"/>
-    <cellStyle name="40% - Accent2 2 3" xfId="58"/>
-    <cellStyle name="40% - Accent2 2 3 2" xfId="61"/>
-    <cellStyle name="40% - Accent2 2 3 2 2" xfId="138"/>
-    <cellStyle name="40% - Accent2 2 3 2 2 2" xfId="150"/>
-    <cellStyle name="40% - Accent3" xfId="6"/>
-    <cellStyle name="40% - Accent4" xfId="21"/>
-    <cellStyle name="40% - Accent5" xfId="44"/>
-    <cellStyle name="40% - Accent6" xfId="53"/>
-    <cellStyle name="60% - Accent1" xfId="41"/>
-    <cellStyle name="60% - Accent2" xfId="14"/>
-    <cellStyle name="60% - Accent3" xfId="18"/>
-    <cellStyle name="60% - Accent4" xfId="47"/>
-    <cellStyle name="60% - Accent5" xfId="63"/>
-    <cellStyle name="60% - Accent6" xfId="50"/>
-    <cellStyle name="Accent1" xfId="64"/>
-    <cellStyle name="Accent1 2" xfId="65"/>
-    <cellStyle name="Accent1 2 2" xfId="57"/>
-    <cellStyle name="Accent1 2 2 2 2 3" xfId="24"/>
-    <cellStyle name="Accent1 2 2 2 2 3 2" xfId="27"/>
-    <cellStyle name="Accent1 2 2 2 2 3 3" xfId="4"/>
-    <cellStyle name="Accent1 2 3" xfId="66"/>
-    <cellStyle name="Accent1 2 3 2" xfId="69"/>
-    <cellStyle name="Accent1 2 3 2 2" xfId="135"/>
-    <cellStyle name="Accent2" xfId="70"/>
-    <cellStyle name="Accent2 2" xfId="46"/>
-    <cellStyle name="Accent2 2 2" xfId="49"/>
-    <cellStyle name="Accent2 2 2 2 2 3" xfId="71"/>
-    <cellStyle name="Accent2 2 2 2 2 3 2" xfId="72"/>
-    <cellStyle name="Accent2 2 2 2 2 3 3" xfId="73"/>
-    <cellStyle name="Accent2 2 3" xfId="74"/>
-    <cellStyle name="Accent2 2 3 2" xfId="75"/>
-    <cellStyle name="Accent2 2 3 2 2" xfId="136"/>
-    <cellStyle name="Accent3" xfId="76"/>
-    <cellStyle name="Accent4" xfId="23"/>
-    <cellStyle name="Accent5" xfId="77"/>
-    <cellStyle name="Accent6" xfId="26"/>
-    <cellStyle name="Bad" xfId="78"/>
-    <cellStyle name="Calculation" xfId="8"/>
-    <cellStyle name="Check Cell" xfId="79"/>
-    <cellStyle name="Comma [0] 2" xfId="154"/>
-    <cellStyle name="Comma [0] 3" xfId="155"/>
-    <cellStyle name="Explanatory Text" xfId="80"/>
-    <cellStyle name="Good" xfId="81"/>
-    <cellStyle name="Heading 1" xfId="82"/>
-    <cellStyle name="Heading 2" xfId="84"/>
-    <cellStyle name="Heading 2 2" xfId="85"/>
-    <cellStyle name="Heading 2 2 2" xfId="86"/>
-    <cellStyle name="Heading 2 2 2 2 2 3 2" xfId="87"/>
-    <cellStyle name="Heading 2 2 2 2 2 3 2 2" xfId="88"/>
-    <cellStyle name="Heading 2 2 2 2 2 3 2 3" xfId="89"/>
-    <cellStyle name="Heading 2 2 3" xfId="10"/>
-    <cellStyle name="Heading 2 2 3 2" xfId="1"/>
-    <cellStyle name="Heading 3" xfId="90"/>
-    <cellStyle name="Heading 4" xfId="91"/>
+    <cellStyle name="20% - Accent1" xfId="11" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - Accent1 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - Accent1 2 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - Accent1 2 2 2 2 3" xfId="13" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - Accent1 2 2 2 2 3 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - Accent1 2 2 2 2 3 3" xfId="20" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="20% - Accent1 2 3" xfId="22" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="20% - Accent1 2 3 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="20% - Accent1 2 3 2 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="20% - Accent1 2 3 2 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="20% - Accent1 2 3 2 4" xfId="29" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="20% - Accent2" xfId="30" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="20% - Accent2 2" xfId="32" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="20% - Accent2 2 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="20% - Accent2 2 2 2 2 3" xfId="34" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="20% - Accent2 2 2 2 2 3 2" xfId="36" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="20% - Accent2 2 2 2 2 3 3" xfId="37" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="20% - Accent2 2 3" xfId="35" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="20% - Accent2 2 3 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="20% - Accent3" xfId="39" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="20% - Accent4" xfId="40" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="20% - Accent5" xfId="42" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="20% - Accent6" xfId="16" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="40% - Accent1" xfId="3" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="40% - Accent1 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="40% - Accent1 2 2" xfId="45" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="40% - Accent1 2 2 2 2 3 2" xfId="48" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="40% - Accent1 2 2 2 2 3 2 2" xfId="51" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="40% - Accent1 2 2 2 2 3 2 3" xfId="52" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="40% - Accent1 2 3" xfId="54" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="40% - Accent1 2 3 2" xfId="55" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="40% - Accent2" xfId="12" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="40% - Accent2 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="40% - Accent2 2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="40% - Accent2 2 2 2 2 3 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="40% - Accent2 2 2 2 2 3 2 2" xfId="62" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="40% - Accent2 2 2 2 2 3 2 3" xfId="31" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="40% - Accent2 2 3" xfId="58" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="40% - Accent2 2 3 2" xfId="61" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="40% - Accent2 2 3 2 2" xfId="138" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="40% - Accent2 2 3 2 2 2" xfId="150" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="40% - Accent3" xfId="6" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="40% - Accent4" xfId="21" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="40% - Accent5" xfId="44" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="40% - Accent6" xfId="53" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="60% - Accent1" xfId="41" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="60% - Accent2" xfId="14" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="60% - Accent3" xfId="18" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="60% - Accent4" xfId="47" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="60% - Accent5" xfId="63" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="60% - Accent6" xfId="50" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Accent1" xfId="64" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Accent1 2" xfId="65" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Accent1 2 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Accent1 2 2 2 2 3" xfId="24" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Accent1 2 2 2 2 3 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Accent1 2 2 2 2 3 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Accent1 2 3" xfId="66" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Accent1 2 3 2" xfId="69" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Accent1 2 3 2 2" xfId="135" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Accent2" xfId="70" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Accent2 2" xfId="46" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Accent2 2 2" xfId="49" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Accent2 2 2 2 2 3" xfId="71" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Accent2 2 2 2 2 3 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Accent2 2 2 2 2 3 3" xfId="73" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Accent2 2 3" xfId="74" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="Accent2 2 3 2" xfId="75" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Accent2 2 3 2 2" xfId="136" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="Accent3" xfId="76" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="Accent4" xfId="23" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="Accent5" xfId="77" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="Accent6" xfId="26" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="Bad" xfId="78" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Calculation" xfId="8" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="Check Cell" xfId="79" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="Comma [0] 2" xfId="154" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="Comma [0] 3" xfId="155" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Explanatory Text" xfId="80" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Good" xfId="81" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Heading 1" xfId="82" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Heading 2" xfId="84" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="Heading 2 2" xfId="85" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="Heading 2 2 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="Heading 2 2 2 2 2 3 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="Heading 2 2 2 2 2 3 2 2" xfId="88" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="Heading 2 2 2 2 2 3 2 3" xfId="89" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Heading 2 2 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="Heading 2 2 3 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Heading 3" xfId="90" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Heading 4" xfId="91" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
     <cellStyle name="Hyperlink" xfId="92" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="93"/>
-    <cellStyle name="Hyperlink 2 2" xfId="94"/>
-    <cellStyle name="Hyperlink 3" xfId="95"/>
-    <cellStyle name="Hyperlink 4" xfId="96"/>
-    <cellStyle name="Hyperlink 5" xfId="137"/>
-    <cellStyle name="Input" xfId="97"/>
-    <cellStyle name="Linked Cell" xfId="98"/>
-    <cellStyle name="Neutral" xfId="59"/>
+    <cellStyle name="Hyperlink 2" xfId="93" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="Hyperlink 2 2" xfId="94" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="Hyperlink 3" xfId="95" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="Hyperlink 4" xfId="96" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Hyperlink 5" xfId="137" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Input" xfId="97" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Linked Cell" xfId="98" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Neutral" xfId="59" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="99"/>
-    <cellStyle name="Normal 2 2" xfId="100"/>
-    <cellStyle name="Normal 2 2 2" xfId="101"/>
-    <cellStyle name="Normal 2 2 2 2 3 2" xfId="102"/>
-    <cellStyle name="Normal 2 2 2 2 3 2 2" xfId="103"/>
-    <cellStyle name="Normal 2 2 2 2 3 2 3" xfId="104"/>
-    <cellStyle name="Normal 2 3" xfId="105"/>
-    <cellStyle name="Normal 2 4" xfId="106"/>
-    <cellStyle name="Normal 2 4 2" xfId="134"/>
-    <cellStyle name="Normal 2 4 2 2" xfId="149"/>
-    <cellStyle name="Normal 3" xfId="107"/>
-    <cellStyle name="Normal 3 2" xfId="108"/>
-    <cellStyle name="Normal 3 2 2" xfId="109"/>
-    <cellStyle name="Normal 3 2 2 2" xfId="83"/>
-    <cellStyle name="Normal 3 2 3" xfId="110"/>
-    <cellStyle name="Normal 3 2 4" xfId="140"/>
-    <cellStyle name="Normal 3 2 4 2" xfId="143"/>
-    <cellStyle name="Normal 3 2 4 3" xfId="146"/>
-    <cellStyle name="Normal 3 2 4 3 2" xfId="152"/>
-    <cellStyle name="Normal 3 3" xfId="56"/>
-    <cellStyle name="Normal 3 3 2" xfId="111"/>
-    <cellStyle name="Normal 3 3 2 2" xfId="112"/>
-    <cellStyle name="Normal 3 4" xfId="139"/>
-    <cellStyle name="Normal 3 4 2" xfId="151"/>
-    <cellStyle name="Normal 4" xfId="113"/>
-    <cellStyle name="Normal 5" xfId="114"/>
-    <cellStyle name="Note" xfId="68"/>
-    <cellStyle name="Output" xfId="19"/>
-    <cellStyle name="TableStyleLight1" xfId="115"/>
-    <cellStyle name="TableStyleLight1 2" xfId="116"/>
-    <cellStyle name="TableStyleLight1 2 2" xfId="117"/>
-    <cellStyle name="TableStyleLight1 2 2 2" xfId="118"/>
-    <cellStyle name="TableStyleLight1 2 2 2 2" xfId="119"/>
-    <cellStyle name="TableStyleLight1 2 2 2 4" xfId="120"/>
-    <cellStyle name="TableStyleLight1 2 3" xfId="121"/>
-    <cellStyle name="TableStyleLight1 2 4" xfId="142"/>
-    <cellStyle name="TableStyleLight1 2 4 2" xfId="145"/>
-    <cellStyle name="TableStyleLight1 2 4 3" xfId="148"/>
-    <cellStyle name="TableStyleLight1 3" xfId="122"/>
-    <cellStyle name="TableStyleLight1 3 2" xfId="123"/>
-    <cellStyle name="TableStyleLight1 3 2 2" xfId="124"/>
-    <cellStyle name="TableStyleLight1 3 2 3" xfId="125"/>
-    <cellStyle name="TableStyleLight1 3 3" xfId="126"/>
-    <cellStyle name="TableStyleLight1 3 4" xfId="141"/>
-    <cellStyle name="TableStyleLight1 3 4 2" xfId="144"/>
-    <cellStyle name="TableStyleLight1 3 4 3" xfId="147"/>
-    <cellStyle name="TableStyleLight1 3 4 3 2" xfId="153"/>
-    <cellStyle name="TableStyleLight1 4" xfId="67"/>
-    <cellStyle name="TableStyleLight1 4 2" xfId="127"/>
-    <cellStyle name="TableStyleLight1 4 3" xfId="128"/>
-    <cellStyle name="TableStyleLight1 5" xfId="129"/>
-    <cellStyle name="TableStyleLight1 5 2" xfId="130"/>
-    <cellStyle name="Title" xfId="131"/>
-    <cellStyle name="Total" xfId="132"/>
-    <cellStyle name="Warning Text" xfId="133"/>
+    <cellStyle name="Normal 2" xfId="99" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Normal 2 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="Normal 2 2 2" xfId="101" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="Normal 2 2 2 2 3 2" xfId="102" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="Normal 2 2 2 2 3 2 2" xfId="103" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="Normal 2 2 2 2 3 2 3" xfId="104" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="Normal 2 3" xfId="105" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="Normal 2 4" xfId="106" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="Normal 2 4 2" xfId="134" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="Normal 2 4 2 2" xfId="149" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="Normal 3" xfId="107" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="Normal 3 2" xfId="108" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Normal 3 2 2" xfId="109" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="Normal 3 2 2 2" xfId="83" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="Normal 3 2 3" xfId="110" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="Normal 3 2 4" xfId="140" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="Normal 3 2 4 2" xfId="143" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="Normal 3 2 4 3" xfId="146" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="Normal 3 2 4 3 2" xfId="152" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="Normal 3 3" xfId="56" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="Normal 3 3 2" xfId="111" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="Normal 3 3 2 2" xfId="112" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="Normal 3 4" xfId="139" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="Normal 3 4 2" xfId="151" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="Normal 4" xfId="113" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="Normal 5" xfId="114" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="Note" xfId="68" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="Output" xfId="19" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="TableStyleLight1" xfId="115" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="TableStyleLight1 2" xfId="116" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="TableStyleLight1 2 2" xfId="117" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="TableStyleLight1 2 2 2" xfId="118" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="TableStyleLight1 2 2 2 2" xfId="119" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="TableStyleLight1 2 2 2 4" xfId="120" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="TableStyleLight1 2 3" xfId="121" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="TableStyleLight1 2 4" xfId="142" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="TableStyleLight1 2 4 2" xfId="145" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="TableStyleLight1 2 4 3" xfId="148" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="TableStyleLight1 3" xfId="122" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="TableStyleLight1 3 2" xfId="123" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="TableStyleLight1 3 2 2" xfId="124" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="TableStyleLight1 3 2 3" xfId="125" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="TableStyleLight1 3 3" xfId="126" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="TableStyleLight1 3 4" xfId="141" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="TableStyleLight1 3 4 2" xfId="144" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="TableStyleLight1 3 4 3" xfId="147" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="TableStyleLight1 3 4 3 2" xfId="153" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="TableStyleLight1 4" xfId="67" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="TableStyleLight1 4 2" xfId="127" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="TableStyleLight1 4 3" xfId="128" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="TableStyleLight1 5" xfId="129" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="TableStyleLight1 5 2" xfId="130" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="Title" xfId="131" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="Total" xfId="132" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="Warning Text" xfId="133" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3036,7 +3029,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
@@ -3124,7 +3117,7 @@
                 <a:bevelT w="63500" h="25400"/>
               </a:sp3d>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-71B6-4DE3-A7AD-5B86A9C2BF24}"/>
               </c:ext>
@@ -3148,7 +3141,7 @@
                 <a:bevelT w="63500" h="25400"/>
               </a:sp3d>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-71B6-4DE3-A7AD-5B86A9C2BF24}"/>
               </c:ext>
@@ -3172,7 +3165,7 @@
                 <a:bevelT w="63500" h="25400"/>
               </a:sp3d>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-71B6-4DE3-A7AD-5B86A9C2BF24}"/>
               </c:ext>
@@ -3196,7 +3189,7 @@
                 <a:bevelT w="63500" h="25400"/>
               </a:sp3d>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-71B6-4DE3-A7AD-5B86A9C2BF24}"/>
               </c:ext>
@@ -3227,7 +3220,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -3274,7 +3267,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-71B6-4DE3-A7AD-5B86A9C2BF24}"/>
             </c:ext>
@@ -3361,7 +3354,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
@@ -3441,7 +3434,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-700B-4388-A157-532FE5806D3B}"/>
               </c:ext>
@@ -3459,7 +3452,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-700B-4388-A157-532FE5806D3B}"/>
               </c:ext>
@@ -3489,6 +3482,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-700B-4388-A157-532FE5806D3B}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -3513,6 +3511,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-700B-4388-A157-532FE5806D3B}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:noFill/>
@@ -3528,7 +3531,7 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
@@ -3561,7 +3564,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-700B-4388-A157-532FE5806D3B}"/>
             </c:ext>
@@ -3621,7 +3624,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3668,7 +3671,7 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-25D4-4E58-AB57-52CC97BAF3DE}"/>
               </c:ext>
@@ -3685,7 +3688,7 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-25D4-4E58-AB57-52CC97BAF3DE}"/>
               </c:ext>
@@ -3702,7 +3705,7 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-25D4-4E58-AB57-52CC97BAF3DE}"/>
               </c:ext>
@@ -3719,7 +3722,7 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-25D4-4E58-AB57-52CC97BAF3DE}"/>
               </c:ext>
@@ -3766,7 +3769,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-25D4-4E58-AB57-52CC97BAF3DE}"/>
             </c:ext>
@@ -3952,7 +3955,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3990,7 +3993,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4028,7 +4031,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AB276036-E4AE-4D63-9C65-0694CB3986A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB276036-E4AE-4D63-9C65-0694CB3986A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4132,7 +4135,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5AF65C03-9B72-4D6B-9DD9-6AFF172BC3B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AF65C03-9B72-4D6B-9DD9-6AFF172BC3B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4316,7 +4319,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E67F1DD6-8FFA-4013-AC77-D7090A499C80}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E67F1DD6-8FFA-4013-AC77-D7090A499C80}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4667,7 +4670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4685,33 +4688,33 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:7" ht="18" customHeight="1">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="89" t="s">
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="90" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30.75" thickBot="1">
-      <c r="A7" s="85"/>
+      <c r="A7" s="86"/>
       <c r="B7" s="14" t="s">
         <v>4</v>
       </c>
@@ -4727,7 +4730,7 @@
       <c r="F7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="89"/>
+      <c r="G7" s="90"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickTop="1">
       <c r="A8" s="1" t="s">
@@ -4816,7 +4819,7 @@
     <mergeCell ref="G6:G7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A8" location="'Redesign - Summary Tag'!A1" display="Redesign - summary Tag"/>
+    <hyperlink ref="A8" location="'Redesign - Summary Tag'!A1" display="Redesign - summary Tag" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4825,16 +4828,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="71.85546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="53.5703125" style="3" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" style="9" customWidth="1"/>
     <col min="3" max="3" width="103.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="69.28515625" style="3" customWidth="1"/>
@@ -5106,7 +5109,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="91" t="s">
         <v>58</v>
       </c>
       <c r="B2" s="74" t="s">
@@ -5119,7 +5122,7 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="90"/>
+      <c r="A3" s="91"/>
       <c r="B3" s="74" t="s">
         <v>11</v>
       </c>
@@ -5130,7 +5133,7 @@
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" s="23" customFormat="1">
-      <c r="A4" s="90"/>
+      <c r="A4" s="91"/>
       <c r="B4" s="77" t="s">
         <v>12</v>
       </c>
@@ -5141,7 +5144,7 @@
       <c r="E4" s="24"/>
     </row>
     <row r="5" spans="1:5" s="25" customFormat="1">
-      <c r="A5" s="90"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="69" t="s">
         <v>13</v>
       </c>
@@ -5152,7 +5155,7 @@
       <c r="E5" s="26"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="90"/>
+      <c r="A6" s="91"/>
       <c r="B6" s="69" t="s">
         <v>14</v>
       </c>
@@ -5165,7 +5168,7 @@
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="90"/>
+      <c r="A7" s="91"/>
       <c r="B7" s="69" t="s">
         <v>15</v>
       </c>
@@ -5176,7 +5179,7 @@
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="90"/>
+      <c r="A8" s="91"/>
       <c r="B8" s="69" t="s">
         <v>17</v>
       </c>
@@ -5187,7 +5190,7 @@
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="90"/>
+      <c r="A9" s="91"/>
       <c r="B9" s="69" t="s">
         <v>18</v>
       </c>
@@ -5197,7 +5200,7 @@
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="90"/>
+      <c r="A10" s="91"/>
       <c r="B10" s="69" t="s">
         <v>19</v>
       </c>
@@ -5208,7 +5211,7 @@
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="90"/>
+      <c r="A11" s="91"/>
       <c r="B11" s="69" t="s">
         <v>20</v>
       </c>
@@ -5219,7 +5222,7 @@
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="90"/>
+      <c r="A12" s="91"/>
       <c r="B12" s="69" t="s">
         <v>21</v>
       </c>
@@ -5232,7 +5235,7 @@
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="90"/>
+      <c r="A13" s="91"/>
       <c r="B13" s="69" t="s">
         <v>22</v>
       </c>
@@ -5245,7 +5248,7 @@
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" ht="30">
-      <c r="A14" s="90"/>
+      <c r="A14" s="91"/>
       <c r="B14" s="69" t="s">
         <v>23</v>
       </c>
@@ -5258,7 +5261,7 @@
       <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5" ht="30">
-      <c r="A15" s="90"/>
+      <c r="A15" s="91"/>
       <c r="B15" s="69" t="s">
         <v>26</v>
       </c>
@@ -5268,7 +5271,7 @@
       <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="90"/>
+      <c r="A16" s="91"/>
       <c r="B16" s="69" t="s">
         <v>27</v>
       </c>
@@ -5278,7 +5281,7 @@
       <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:7" ht="30">
-      <c r="A17" s="90"/>
+      <c r="A17" s="91"/>
       <c r="B17" s="69" t="s">
         <v>41</v>
       </c>
@@ -5288,7 +5291,7 @@
       <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:7" ht="150">
-      <c r="A18" s="90"/>
+      <c r="A18" s="91"/>
       <c r="B18" s="69" t="s">
         <v>43</v>
       </c>
@@ -5301,7 +5304,7 @@
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="90"/>
+      <c r="A19" s="91"/>
       <c r="B19" s="69" t="s">
         <v>45</v>
       </c>
@@ -5314,7 +5317,7 @@
       <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A20" s="90"/>
+      <c r="A20" s="91"/>
       <c r="B20" s="69" t="s">
         <v>48</v>
       </c>
@@ -5325,7 +5328,7 @@
       <c r="G20"/>
     </row>
     <row r="21" spans="1:7" ht="30.75" thickBot="1">
-      <c r="A21" s="90"/>
+      <c r="A21" s="91"/>
       <c r="B21" s="69" t="s">
         <v>49</v>
       </c>
@@ -5337,7 +5340,7 @@
       <c r="G21"/>
     </row>
     <row r="22" spans="1:7" ht="30.75" thickBot="1">
-      <c r="A22" s="90"/>
+      <c r="A22" s="91"/>
       <c r="B22" s="69" t="s">
         <v>50</v>
       </c>
@@ -5351,7 +5354,7 @@
       <c r="G22"/>
     </row>
     <row r="23" spans="1:7" ht="45">
-      <c r="A23" s="90"/>
+      <c r="A23" s="91"/>
       <c r="B23" s="69" t="s">
         <v>51</v>
       </c>
@@ -5365,7 +5368,7 @@
       <c r="G23"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="90"/>
+      <c r="A24" s="91"/>
       <c r="B24" s="69" t="s">
         <v>52</v>
       </c>
@@ -5377,7 +5380,7 @@
       <c r="G24"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="90"/>
+      <c r="A25" s="91"/>
       <c r="B25" s="69" t="s">
         <v>53</v>
       </c>
@@ -5388,7 +5391,7 @@
       <c r="G25"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="90"/>
+      <c r="A26" s="91"/>
       <c r="B26" s="81" t="s">
         <v>238</v>
       </c>
@@ -5401,7 +5404,7 @@
       <c r="E26" s="6"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="90"/>
+      <c r="A27" s="91"/>
       <c r="B27" s="81" t="s">
         <v>239</v>
       </c>
@@ -5414,13 +5417,13 @@
       <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="90"/>
+      <c r="A28" s="91"/>
       <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="90"/>
+      <c r="A29" s="91"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="106" t="s">
+      <c r="C29" s="82" t="s">
         <v>256</v>
       </c>
       <c r="D29" s="7" t="s">
@@ -5431,94 +5434,94 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="90"/>
+      <c r="A30" s="91"/>
       <c r="B30" s="4"/>
       <c r="C30" s="10"/>
       <c r="E30" s="6"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="90"/>
+      <c r="A31" s="91"/>
       <c r="B31" s="4"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="90"/>
+      <c r="A32" s="91"/>
       <c r="B32" s="4"/>
       <c r="C32" s="12"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="90"/>
+      <c r="A33" s="91"/>
       <c r="B33" s="4"/>
       <c r="C33" s="12"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="90"/>
+      <c r="A34" s="91"/>
       <c r="B34" s="4"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="90"/>
+      <c r="A35" s="91"/>
       <c r="B35" s="4"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="90"/>
+      <c r="A36" s="91"/>
       <c r="B36" s="4"/>
       <c r="C36" s="11"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="90"/>
+      <c r="A37" s="91"/>
       <c r="B37" s="4"/>
       <c r="C37" s="7"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="90"/>
+      <c r="A38" s="91"/>
       <c r="B38" s="4"/>
       <c r="C38" s="7"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="90"/>
+      <c r="A39" s="91"/>
       <c r="B39" s="4"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="90"/>
+      <c r="A40" s="91"/>
       <c r="B40" s="4"/>
       <c r="C40" s="7"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="90"/>
+      <c r="A41" s="91"/>
       <c r="B41" s="4"/>
       <c r="C41" s="7"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="90"/>
+      <c r="A42" s="91"/>
       <c r="B42" s="4"/>
       <c r="C42" s="7"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="90"/>
+      <c r="A43" s="91"/>
       <c r="B43" s="4"/>
       <c r="C43" s="7"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="90"/>
+      <c r="A44" s="91"/>
       <c r="B44" s="4"/>
       <c r="C44" s="7"/>
     </row>
@@ -5764,7 +5767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H969"/>
   <sheetViews>
     <sheetView topLeftCell="A221" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -6434,10 +6437,10 @@
       </c>
       <c r="D2"/>
       <c r="E2" s="29"/>
-      <c r="F2" s="100" t="s">
+      <c r="F2" s="101" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="101"/>
+      <c r="G2" s="102"/>
     </row>
     <row r="3" spans="1:7" ht="30">
       <c r="A3" s="29"/>
@@ -6496,10 +6499,10 @@
       <c r="C6" s="31"/>
       <c r="D6"/>
       <c r="E6" s="29"/>
-      <c r="F6" s="102" t="s">
+      <c r="F6" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="103"/>
+      <c r="G6" s="104"/>
     </row>
     <row r="7" spans="1:7" ht="19.5" customHeight="1" thickBot="1">
       <c r="A7" s="29"/>
@@ -6630,37 +6633,37 @@
       <c r="G15" s="51"/>
     </row>
     <row r="16" spans="1:7" s="52" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A16" s="104" t="s">
+      <c r="A16" s="105" t="s">
         <v>97</v>
       </c>
-      <c r="B16" s="104"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="104"/>
+      <c r="B16" s="105"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="105"/>
     </row>
     <row r="17" spans="1:7" s="52" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A17" s="105" t="s">
+      <c r="A17" s="106" t="s">
         <v>98</v>
       </c>
-      <c r="B17" s="105"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="105"/>
+      <c r="B17" s="106"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="106"/>
     </row>
     <row r="18" spans="1:7" s="52" customFormat="1">
       <c r="A18" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="B18" s="94" t="s">
+      <c r="B18" s="98" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="95"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="96"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="100"/>
       <c r="F18" s="54" t="s">
         <v>81</v>
       </c>
@@ -6673,14 +6676,14 @@
       <c r="A19" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B19" s="97" t="s">
+      <c r="B19" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="99"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="94"/>
     </row>
     <row r="20" spans="1:7" s="52" customFormat="1">
       <c r="A20" s="57" t="s">
@@ -6726,23 +6729,23 @@
       <c r="A22" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B22" s="91"/>
-      <c r="C22" s="92"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="93"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="97"/>
     </row>
     <row r="23" spans="1:7" s="52" customFormat="1">
       <c r="A23" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="B23" s="94" t="s">
+      <c r="B23" s="98" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="95"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="96"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="100"/>
       <c r="F23" s="54" t="s">
         <v>81</v>
       </c>
@@ -6755,14 +6758,14 @@
       <c r="A24" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="97" t="s">
+      <c r="B24" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="98"/>
-      <c r="D24" s="98"/>
-      <c r="E24" s="98"/>
-      <c r="F24" s="98"/>
-      <c r="G24" s="99"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="94"/>
     </row>
     <row r="25" spans="1:7" s="52" customFormat="1">
       <c r="A25" s="57" t="s">
@@ -6827,23 +6830,23 @@
       <c r="A28" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B28" s="91"/>
-      <c r="C28" s="92"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="93"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="96"/>
+      <c r="E28" s="96"/>
+      <c r="F28" s="96"/>
+      <c r="G28" s="97"/>
     </row>
     <row r="29" spans="1:7" s="52" customFormat="1">
       <c r="A29" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="B29" s="94" t="s">
+      <c r="B29" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="95"/>
-      <c r="D29" s="95"/>
-      <c r="E29" s="96"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="100"/>
       <c r="F29" s="54" t="s">
         <v>81</v>
       </c>
@@ -6856,14 +6859,14 @@
       <c r="A30" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B30" s="97" t="s">
+      <c r="B30" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="98"/>
-      <c r="D30" s="98"/>
-      <c r="E30" s="98"/>
-      <c r="F30" s="98"/>
-      <c r="G30" s="99"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="94"/>
     </row>
     <row r="31" spans="1:7" s="52" customFormat="1">
       <c r="A31" s="57" t="s">
@@ -6947,23 +6950,23 @@
       <c r="A35" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B35" s="91"/>
-      <c r="C35" s="92"/>
-      <c r="D35" s="92"/>
-      <c r="E35" s="92"/>
-      <c r="F35" s="92"/>
-      <c r="G35" s="93"/>
+      <c r="B35" s="95"/>
+      <c r="C35" s="96"/>
+      <c r="D35" s="96"/>
+      <c r="E35" s="96"/>
+      <c r="F35" s="96"/>
+      <c r="G35" s="97"/>
     </row>
     <row r="36" spans="1:7" s="52" customFormat="1">
       <c r="A36" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="B36" s="94" t="s">
+      <c r="B36" s="98" t="s">
         <v>116</v>
       </c>
-      <c r="C36" s="95"/>
-      <c r="D36" s="95"/>
-      <c r="E36" s="96"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="100"/>
       <c r="F36" s="54" t="s">
         <v>81</v>
       </c>
@@ -6976,14 +6979,14 @@
       <c r="A37" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="97" t="s">
+      <c r="B37" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="98"/>
-      <c r="D37" s="98"/>
-      <c r="E37" s="98"/>
-      <c r="F37" s="98"/>
-      <c r="G37" s="99"/>
+      <c r="C37" s="93"/>
+      <c r="D37" s="93"/>
+      <c r="E37" s="93"/>
+      <c r="F37" s="93"/>
+      <c r="G37" s="94"/>
     </row>
     <row r="38" spans="1:7" s="52" customFormat="1">
       <c r="A38" s="57" t="s">
@@ -7084,23 +7087,23 @@
       <c r="A43" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B43" s="91"/>
-      <c r="C43" s="92"/>
-      <c r="D43" s="92"/>
-      <c r="E43" s="92"/>
-      <c r="F43" s="92"/>
-      <c r="G43" s="93"/>
+      <c r="B43" s="95"/>
+      <c r="C43" s="96"/>
+      <c r="D43" s="96"/>
+      <c r="E43" s="96"/>
+      <c r="F43" s="96"/>
+      <c r="G43" s="97"/>
     </row>
     <row r="44" spans="1:7" s="52" customFormat="1">
       <c r="A44" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="B44" s="94" t="s">
+      <c r="B44" s="98" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="95"/>
-      <c r="D44" s="95"/>
-      <c r="E44" s="96"/>
+      <c r="C44" s="99"/>
+      <c r="D44" s="99"/>
+      <c r="E44" s="100"/>
       <c r="F44" s="54" t="s">
         <v>81</v>
       </c>
@@ -7113,14 +7116,14 @@
       <c r="A45" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B45" s="97" t="s">
+      <c r="B45" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="C45" s="98"/>
-      <c r="D45" s="98"/>
-      <c r="E45" s="98"/>
-      <c r="F45" s="98"/>
-      <c r="G45" s="99"/>
+      <c r="C45" s="93"/>
+      <c r="D45" s="93"/>
+      <c r="E45" s="93"/>
+      <c r="F45" s="93"/>
+      <c r="G45" s="94"/>
     </row>
     <row r="46" spans="1:7" s="52" customFormat="1">
       <c r="A46" s="57" t="s">
@@ -7221,23 +7224,23 @@
       <c r="A51" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B51" s="91"/>
-      <c r="C51" s="92"/>
-      <c r="D51" s="92"/>
-      <c r="E51" s="92"/>
-      <c r="F51" s="92"/>
-      <c r="G51" s="93"/>
+      <c r="B51" s="95"/>
+      <c r="C51" s="96"/>
+      <c r="D51" s="96"/>
+      <c r="E51" s="96"/>
+      <c r="F51" s="96"/>
+      <c r="G51" s="97"/>
     </row>
     <row r="52" spans="1:7" s="52" customFormat="1">
       <c r="A52" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="B52" s="94" t="s">
+      <c r="B52" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="95"/>
-      <c r="D52" s="95"/>
-      <c r="E52" s="96"/>
+      <c r="C52" s="99"/>
+      <c r="D52" s="99"/>
+      <c r="E52" s="100"/>
       <c r="F52" s="54" t="s">
         <v>81</v>
       </c>
@@ -7250,14 +7253,14 @@
       <c r="A53" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B53" s="97" t="s">
+      <c r="B53" s="92" t="s">
         <v>131</v>
       </c>
-      <c r="C53" s="98"/>
-      <c r="D53" s="98"/>
-      <c r="E53" s="98"/>
-      <c r="F53" s="98"/>
-      <c r="G53" s="99"/>
+      <c r="C53" s="93"/>
+      <c r="D53" s="93"/>
+      <c r="E53" s="93"/>
+      <c r="F53" s="93"/>
+      <c r="G53" s="94"/>
     </row>
     <row r="54" spans="1:7" s="52" customFormat="1">
       <c r="A54" s="57" t="s">
@@ -7320,23 +7323,23 @@
       <c r="A57" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B57" s="91"/>
-      <c r="C57" s="92"/>
-      <c r="D57" s="92"/>
-      <c r="E57" s="92"/>
-      <c r="F57" s="92"/>
-      <c r="G57" s="93"/>
+      <c r="B57" s="95"/>
+      <c r="C57" s="96"/>
+      <c r="D57" s="96"/>
+      <c r="E57" s="96"/>
+      <c r="F57" s="96"/>
+      <c r="G57" s="97"/>
     </row>
     <row r="58" spans="1:7" s="52" customFormat="1">
       <c r="A58" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="B58" s="94" t="s">
+      <c r="B58" s="98" t="s">
         <v>137</v>
       </c>
-      <c r="C58" s="95"/>
-      <c r="D58" s="95"/>
-      <c r="E58" s="96"/>
+      <c r="C58" s="99"/>
+      <c r="D58" s="99"/>
+      <c r="E58" s="100"/>
       <c r="F58" s="54" t="s">
         <v>81</v>
       </c>
@@ -7349,14 +7352,14 @@
       <c r="A59" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B59" s="97" t="s">
+      <c r="B59" s="92" t="s">
         <v>138</v>
       </c>
-      <c r="C59" s="98"/>
-      <c r="D59" s="98"/>
-      <c r="E59" s="98"/>
-      <c r="F59" s="98"/>
-      <c r="G59" s="99"/>
+      <c r="C59" s="93"/>
+      <c r="D59" s="93"/>
+      <c r="E59" s="93"/>
+      <c r="F59" s="93"/>
+      <c r="G59" s="94"/>
     </row>
     <row r="60" spans="1:7" s="52" customFormat="1">
       <c r="A60" s="57" t="s">
@@ -7421,23 +7424,23 @@
       <c r="A63" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B63" s="91"/>
-      <c r="C63" s="92"/>
-      <c r="D63" s="92"/>
-      <c r="E63" s="92"/>
-      <c r="F63" s="92"/>
-      <c r="G63" s="93"/>
+      <c r="B63" s="95"/>
+      <c r="C63" s="96"/>
+      <c r="D63" s="96"/>
+      <c r="E63" s="96"/>
+      <c r="F63" s="96"/>
+      <c r="G63" s="97"/>
     </row>
     <row r="64" spans="1:7" s="52" customFormat="1">
       <c r="A64" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="B64" s="94" t="s">
+      <c r="B64" s="98" t="s">
         <v>141</v>
       </c>
-      <c r="C64" s="95"/>
-      <c r="D64" s="95"/>
-      <c r="E64" s="96"/>
+      <c r="C64" s="99"/>
+      <c r="D64" s="99"/>
+      <c r="E64" s="100"/>
       <c r="F64" s="54" t="s">
         <v>81</v>
       </c>
@@ -7450,14 +7453,14 @@
       <c r="A65" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B65" s="97" t="s">
+      <c r="B65" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="C65" s="98"/>
-      <c r="D65" s="98"/>
-      <c r="E65" s="98"/>
-      <c r="F65" s="98"/>
-      <c r="G65" s="99"/>
+      <c r="C65" s="93"/>
+      <c r="D65" s="93"/>
+      <c r="E65" s="93"/>
+      <c r="F65" s="93"/>
+      <c r="G65" s="94"/>
     </row>
     <row r="66" spans="1:7" s="52" customFormat="1">
       <c r="A66" s="57" t="s">
@@ -7575,23 +7578,23 @@
       <c r="A72" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B72" s="91"/>
-      <c r="C72" s="92"/>
-      <c r="D72" s="92"/>
-      <c r="E72" s="92"/>
-      <c r="F72" s="92"/>
-      <c r="G72" s="93"/>
+      <c r="B72" s="95"/>
+      <c r="C72" s="96"/>
+      <c r="D72" s="96"/>
+      <c r="E72" s="96"/>
+      <c r="F72" s="96"/>
+      <c r="G72" s="97"/>
     </row>
     <row r="73" spans="1:7" s="52" customFormat="1">
       <c r="A73" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="B73" s="94" t="s">
+      <c r="B73" s="98" t="s">
         <v>148</v>
       </c>
-      <c r="C73" s="95"/>
-      <c r="D73" s="95"/>
-      <c r="E73" s="96"/>
+      <c r="C73" s="99"/>
+      <c r="D73" s="99"/>
+      <c r="E73" s="100"/>
       <c r="F73" s="54" t="s">
         <v>81</v>
       </c>
@@ -7604,14 +7607,14 @@
       <c r="A74" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B74" s="97" t="s">
+      <c r="B74" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="C74" s="98"/>
-      <c r="D74" s="98"/>
-      <c r="E74" s="98"/>
-      <c r="F74" s="98"/>
-      <c r="G74" s="99"/>
+      <c r="C74" s="93"/>
+      <c r="D74" s="93"/>
+      <c r="E74" s="93"/>
+      <c r="F74" s="93"/>
+      <c r="G74" s="94"/>
     </row>
     <row r="75" spans="1:7" s="52" customFormat="1">
       <c r="A75" s="57" t="s">
@@ -7729,23 +7732,23 @@
       <c r="A81" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B81" s="91"/>
-      <c r="C81" s="92"/>
-      <c r="D81" s="92"/>
-      <c r="E81" s="92"/>
-      <c r="F81" s="92"/>
-      <c r="G81" s="93"/>
+      <c r="B81" s="95"/>
+      <c r="C81" s="96"/>
+      <c r="D81" s="96"/>
+      <c r="E81" s="96"/>
+      <c r="F81" s="96"/>
+      <c r="G81" s="97"/>
     </row>
     <row r="82" spans="1:7" s="52" customFormat="1">
       <c r="A82" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="B82" s="94" t="s">
+      <c r="B82" s="98" t="s">
         <v>157</v>
       </c>
-      <c r="C82" s="95"/>
-      <c r="D82" s="95"/>
-      <c r="E82" s="96"/>
+      <c r="C82" s="99"/>
+      <c r="D82" s="99"/>
+      <c r="E82" s="100"/>
       <c r="F82" s="54" t="s">
         <v>81</v>
       </c>
@@ -7758,14 +7761,14 @@
       <c r="A83" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B83" s="97" t="s">
+      <c r="B83" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="C83" s="98"/>
-      <c r="D83" s="98"/>
-      <c r="E83" s="98"/>
-      <c r="F83" s="98"/>
-      <c r="G83" s="99"/>
+      <c r="C83" s="93"/>
+      <c r="D83" s="93"/>
+      <c r="E83" s="93"/>
+      <c r="F83" s="93"/>
+      <c r="G83" s="94"/>
     </row>
     <row r="84" spans="1:7" s="52" customFormat="1">
       <c r="A84" s="57" t="s">
@@ -7902,27 +7905,27 @@
       <c r="A91" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B91" s="91"/>
-      <c r="C91" s="92"/>
-      <c r="D91" s="92"/>
-      <c r="E91" s="92"/>
-      <c r="F91" s="92"/>
-      <c r="G91" s="93"/>
+      <c r="B91" s="95"/>
+      <c r="C91" s="96"/>
+      <c r="D91" s="96"/>
+      <c r="E91" s="96"/>
+      <c r="F91" s="96"/>
+      <c r="G91" s="97"/>
     </row>
     <row r="92" spans="1:7" s="52" customFormat="1">
       <c r="A92" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="B92" s="94" t="s">
+      <c r="B92" s="98" t="s">
         <v>153</v>
       </c>
-      <c r="C92" s="95" t="s">
+      <c r="C92" s="99" t="s">
         <v>153</v>
       </c>
-      <c r="D92" s="95" t="s">
+      <c r="D92" s="99" t="s">
         <v>153</v>
       </c>
-      <c r="E92" s="96" t="s">
+      <c r="E92" s="100" t="s">
         <v>153</v>
       </c>
       <c r="F92" s="54" t="s">
@@ -7937,14 +7940,14 @@
       <c r="A93" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B93" s="97" t="s">
+      <c r="B93" s="92" t="s">
         <v>168</v>
       </c>
-      <c r="C93" s="98"/>
-      <c r="D93" s="98"/>
-      <c r="E93" s="98"/>
-      <c r="F93" s="98"/>
-      <c r="G93" s="99"/>
+      <c r="C93" s="93"/>
+      <c r="D93" s="93"/>
+      <c r="E93" s="93"/>
+      <c r="F93" s="93"/>
+      <c r="G93" s="94"/>
     </row>
     <row r="94" spans="1:7" s="52" customFormat="1">
       <c r="A94" s="57" t="s">
@@ -8026,27 +8029,27 @@
       <c r="A98" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B98" s="91"/>
-      <c r="C98" s="92"/>
-      <c r="D98" s="92"/>
-      <c r="E98" s="92"/>
-      <c r="F98" s="92"/>
-      <c r="G98" s="93"/>
+      <c r="B98" s="95"/>
+      <c r="C98" s="96"/>
+      <c r="D98" s="96"/>
+      <c r="E98" s="96"/>
+      <c r="F98" s="96"/>
+      <c r="G98" s="97"/>
     </row>
     <row r="99" spans="1:7" customFormat="1" ht="42" customHeight="1">
       <c r="A99" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="B99" s="94" t="s">
+      <c r="B99" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="C99" s="95" t="s">
+      <c r="C99" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="D99" s="95" t="s">
+      <c r="D99" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="E99" s="96" t="s">
+      <c r="E99" s="100" t="s">
         <v>35</v>
       </c>
       <c r="F99" s="54" t="s">
@@ -8061,14 +8064,14 @@
       <c r="A100" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B100" s="97" t="s">
+      <c r="B100" s="92" t="s">
         <v>169</v>
       </c>
-      <c r="C100" s="98"/>
-      <c r="D100" s="98"/>
-      <c r="E100" s="98"/>
-      <c r="F100" s="98"/>
-      <c r="G100" s="99"/>
+      <c r="C100" s="93"/>
+      <c r="D100" s="93"/>
+      <c r="E100" s="93"/>
+      <c r="F100" s="93"/>
+      <c r="G100" s="94"/>
     </row>
     <row r="101" spans="1:7" customFormat="1">
       <c r="A101" s="57" t="s">
@@ -8150,27 +8153,27 @@
       <c r="A105" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B105" s="91"/>
-      <c r="C105" s="92"/>
-      <c r="D105" s="92"/>
-      <c r="E105" s="92"/>
-      <c r="F105" s="92"/>
-      <c r="G105" s="93"/>
+      <c r="B105" s="95"/>
+      <c r="C105" s="96"/>
+      <c r="D105" s="96"/>
+      <c r="E105" s="96"/>
+      <c r="F105" s="96"/>
+      <c r="G105" s="97"/>
     </row>
     <row r="106" spans="1:7" customFormat="1">
       <c r="A106" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="B106" s="94" t="s">
+      <c r="B106" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="C106" s="95" t="s">
+      <c r="C106" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="D106" s="95" t="s">
+      <c r="D106" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="E106" s="96" t="s">
+      <c r="E106" s="100" t="s">
         <v>39</v>
       </c>
       <c r="F106" s="54" t="s">
@@ -8185,14 +8188,14 @@
       <c r="A107" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B107" s="97" t="s">
+      <c r="B107" s="92" t="s">
         <v>169</v>
       </c>
-      <c r="C107" s="98"/>
-      <c r="D107" s="98"/>
-      <c r="E107" s="98"/>
-      <c r="F107" s="98"/>
-      <c r="G107" s="99"/>
+      <c r="C107" s="93"/>
+      <c r="D107" s="93"/>
+      <c r="E107" s="93"/>
+      <c r="F107" s="93"/>
+      <c r="G107" s="94"/>
     </row>
     <row r="108" spans="1:7" customFormat="1" ht="42" customHeight="1">
       <c r="A108" s="57" t="s">
@@ -8325,27 +8328,27 @@
       <c r="A115" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B115" s="91"/>
-      <c r="C115" s="92"/>
-      <c r="D115" s="92"/>
-      <c r="E115" s="92"/>
-      <c r="F115" s="92"/>
-      <c r="G115" s="93"/>
+      <c r="B115" s="95"/>
+      <c r="C115" s="96"/>
+      <c r="D115" s="96"/>
+      <c r="E115" s="96"/>
+      <c r="F115" s="96"/>
+      <c r="G115" s="97"/>
     </row>
     <row r="116" spans="1:7" customFormat="1" ht="50.25" customHeight="1">
       <c r="A116" s="53" t="s">
         <v>178</v>
       </c>
-      <c r="B116" s="94" t="s">
+      <c r="B116" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="C116" s="95" t="s">
+      <c r="C116" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="D116" s="95" t="s">
+      <c r="D116" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="E116" s="96" t="s">
+      <c r="E116" s="100" t="s">
         <v>38</v>
       </c>
       <c r="F116" s="54" t="s">
@@ -8360,14 +8363,14 @@
       <c r="A117" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B117" s="97" t="s">
+      <c r="B117" s="92" t="s">
         <v>169</v>
       </c>
-      <c r="C117" s="98"/>
-      <c r="D117" s="98"/>
-      <c r="E117" s="98"/>
-      <c r="F117" s="98"/>
-      <c r="G117" s="99"/>
+      <c r="C117" s="93"/>
+      <c r="D117" s="93"/>
+      <c r="E117" s="93"/>
+      <c r="F117" s="93"/>
+      <c r="G117" s="94"/>
     </row>
     <row r="118" spans="1:7" customFormat="1">
       <c r="A118" s="57" t="s">
@@ -8517,27 +8520,27 @@
       <c r="A126" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B126" s="91"/>
-      <c r="C126" s="92"/>
-      <c r="D126" s="92"/>
-      <c r="E126" s="92"/>
-      <c r="F126" s="92"/>
-      <c r="G126" s="93"/>
+      <c r="B126" s="95"/>
+      <c r="C126" s="96"/>
+      <c r="D126" s="96"/>
+      <c r="E126" s="96"/>
+      <c r="F126" s="96"/>
+      <c r="G126" s="97"/>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="53" t="s">
         <v>183</v>
       </c>
-      <c r="B127" s="94" t="s">
+      <c r="B127" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="C127" s="95" t="s">
+      <c r="C127" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="D127" s="95" t="s">
+      <c r="D127" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="E127" s="96" t="s">
+      <c r="E127" s="100" t="s">
         <v>34</v>
       </c>
       <c r="F127" s="54" t="s">
@@ -8552,14 +8555,14 @@
       <c r="A128" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B128" s="97" t="s">
+      <c r="B128" s="92" t="s">
         <v>169</v>
       </c>
-      <c r="C128" s="98"/>
-      <c r="D128" s="98"/>
-      <c r="E128" s="98"/>
-      <c r="F128" s="98"/>
-      <c r="G128" s="99"/>
+      <c r="C128" s="93"/>
+      <c r="D128" s="93"/>
+      <c r="E128" s="93"/>
+      <c r="F128" s="93"/>
+      <c r="G128" s="94"/>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="57" t="s">
@@ -8675,27 +8678,27 @@
       <c r="A135" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B135" s="91"/>
-      <c r="C135" s="92"/>
-      <c r="D135" s="92"/>
-      <c r="E135" s="92"/>
-      <c r="F135" s="92"/>
-      <c r="G135" s="93"/>
+      <c r="B135" s="95"/>
+      <c r="C135" s="96"/>
+      <c r="D135" s="96"/>
+      <c r="E135" s="96"/>
+      <c r="F135" s="96"/>
+      <c r="G135" s="97"/>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="53" t="s">
         <v>186</v>
       </c>
-      <c r="B136" s="94" t="s">
+      <c r="B136" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="C136" s="95" t="s">
+      <c r="C136" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="D136" s="95" t="s">
+      <c r="D136" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="E136" s="96" t="s">
+      <c r="E136" s="100" t="s">
         <v>33</v>
       </c>
       <c r="F136" s="54" t="s">
@@ -8710,14 +8713,14 @@
       <c r="A137" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B137" s="97" t="s">
+      <c r="B137" s="92" t="s">
         <v>169</v>
       </c>
-      <c r="C137" s="98"/>
-      <c r="D137" s="98"/>
-      <c r="E137" s="98"/>
-      <c r="F137" s="98"/>
-      <c r="G137" s="99"/>
+      <c r="C137" s="93"/>
+      <c r="D137" s="93"/>
+      <c r="E137" s="93"/>
+      <c r="F137" s="93"/>
+      <c r="G137" s="94"/>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="57" t="s">
@@ -8816,27 +8819,27 @@
       <c r="A143" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B143" s="91"/>
-      <c r="C143" s="92"/>
-      <c r="D143" s="92"/>
-      <c r="E143" s="92"/>
-      <c r="F143" s="92"/>
-      <c r="G143" s="93"/>
+      <c r="B143" s="95"/>
+      <c r="C143" s="96"/>
+      <c r="D143" s="96"/>
+      <c r="E143" s="96"/>
+      <c r="F143" s="96"/>
+      <c r="G143" s="97"/>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="53" t="s">
         <v>189</v>
       </c>
-      <c r="B144" s="94" t="s">
+      <c r="B144" s="98" t="s">
         <v>216</v>
       </c>
-      <c r="C144" s="95" t="s">
+      <c r="C144" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="D144" s="95" t="s">
+      <c r="D144" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="E144" s="96" t="s">
+      <c r="E144" s="100" t="s">
         <v>32</v>
       </c>
       <c r="F144" s="54" t="s">
@@ -8851,14 +8854,14 @@
       <c r="A145" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B145" s="97" t="s">
+      <c r="B145" s="92" t="s">
         <v>169</v>
       </c>
-      <c r="C145" s="98"/>
-      <c r="D145" s="98"/>
-      <c r="E145" s="98"/>
-      <c r="F145" s="98"/>
-      <c r="G145" s="99"/>
+      <c r="C145" s="93"/>
+      <c r="D145" s="93"/>
+      <c r="E145" s="93"/>
+      <c r="F145" s="93"/>
+      <c r="G145" s="94"/>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="57" t="s">
@@ -8974,27 +8977,27 @@
       <c r="A152" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B152" s="91"/>
-      <c r="C152" s="92"/>
-      <c r="D152" s="92"/>
-      <c r="E152" s="92"/>
-      <c r="F152" s="92"/>
-      <c r="G152" s="93"/>
+      <c r="B152" s="95"/>
+      <c r="C152" s="96"/>
+      <c r="D152" s="96"/>
+      <c r="E152" s="96"/>
+      <c r="F152" s="96"/>
+      <c r="G152" s="97"/>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="53" t="s">
         <v>190</v>
       </c>
-      <c r="B153" s="94" t="s">
+      <c r="B153" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="C153" s="95" t="s">
+      <c r="C153" s="99" t="s">
         <v>30</v>
       </c>
-      <c r="D153" s="95" t="s">
+      <c r="D153" s="99" t="s">
         <v>30</v>
       </c>
-      <c r="E153" s="96" t="s">
+      <c r="E153" s="100" t="s">
         <v>30</v>
       </c>
       <c r="F153" s="54" t="s">
@@ -9009,14 +9012,14 @@
       <c r="A154" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B154" s="97" t="s">
+      <c r="B154" s="92" t="s">
         <v>169</v>
       </c>
-      <c r="C154" s="98"/>
-      <c r="D154" s="98"/>
-      <c r="E154" s="98"/>
-      <c r="F154" s="98"/>
-      <c r="G154" s="99"/>
+      <c r="C154" s="93"/>
+      <c r="D154" s="93"/>
+      <c r="E154" s="93"/>
+      <c r="F154" s="93"/>
+      <c r="G154" s="94"/>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="57" t="s">
@@ -9115,27 +9118,27 @@
       <c r="A160" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B160" s="91"/>
-      <c r="C160" s="92"/>
-      <c r="D160" s="92"/>
-      <c r="E160" s="92"/>
-      <c r="F160" s="92"/>
-      <c r="G160" s="93"/>
+      <c r="B160" s="95"/>
+      <c r="C160" s="96"/>
+      <c r="D160" s="96"/>
+      <c r="E160" s="96"/>
+      <c r="F160" s="96"/>
+      <c r="G160" s="97"/>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="53" t="s">
         <v>192</v>
       </c>
-      <c r="B161" s="94" t="s">
+      <c r="B161" s="98" t="s">
         <v>195</v>
       </c>
-      <c r="C161" s="95" t="s">
+      <c r="C161" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="D161" s="95" t="s">
+      <c r="D161" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="E161" s="96" t="s">
+      <c r="E161" s="100" t="s">
         <v>42</v>
       </c>
       <c r="F161" s="54" t="s">
@@ -9150,14 +9153,14 @@
       <c r="A162" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B162" s="97" t="s">
+      <c r="B162" s="92" t="s">
         <v>193</v>
       </c>
-      <c r="C162" s="98"/>
-      <c r="D162" s="98"/>
-      <c r="E162" s="98"/>
-      <c r="F162" s="98"/>
-      <c r="G162" s="99"/>
+      <c r="C162" s="93"/>
+      <c r="D162" s="93"/>
+      <c r="E162" s="93"/>
+      <c r="F162" s="93"/>
+      <c r="G162" s="94"/>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="57" t="s">
@@ -9222,27 +9225,27 @@
       <c r="A166" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B166" s="91"/>
-      <c r="C166" s="92"/>
-      <c r="D166" s="92"/>
-      <c r="E166" s="92"/>
-      <c r="F166" s="92"/>
-      <c r="G166" s="93"/>
+      <c r="B166" s="95"/>
+      <c r="C166" s="96"/>
+      <c r="D166" s="96"/>
+      <c r="E166" s="96"/>
+      <c r="F166" s="96"/>
+      <c r="G166" s="97"/>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="53" t="s">
         <v>197</v>
       </c>
-      <c r="B167" s="94" t="s">
+      <c r="B167" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="C167" s="95" t="s">
+      <c r="C167" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="D167" s="95" t="s">
+      <c r="D167" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="E167" s="96" t="s">
+      <c r="E167" s="100" t="s">
         <v>46</v>
       </c>
       <c r="F167" s="54" t="s">
@@ -9257,14 +9260,14 @@
       <c r="A168" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B168" s="97" t="s">
+      <c r="B168" s="92" t="s">
         <v>169</v>
       </c>
-      <c r="C168" s="98"/>
-      <c r="D168" s="98"/>
-      <c r="E168" s="98"/>
-      <c r="F168" s="98"/>
-      <c r="G168" s="99"/>
+      <c r="C168" s="93"/>
+      <c r="D168" s="93"/>
+      <c r="E168" s="93"/>
+      <c r="F168" s="93"/>
+      <c r="G168" s="94"/>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="57" t="s">
@@ -9348,27 +9351,27 @@
       <c r="A173" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B173" s="91"/>
-      <c r="C173" s="92"/>
-      <c r="D173" s="92"/>
-      <c r="E173" s="92"/>
-      <c r="F173" s="92"/>
-      <c r="G173" s="93"/>
+      <c r="B173" s="95"/>
+      <c r="C173" s="96"/>
+      <c r="D173" s="96"/>
+      <c r="E173" s="96"/>
+      <c r="F173" s="96"/>
+      <c r="G173" s="97"/>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="53" t="s">
         <v>204</v>
       </c>
-      <c r="B174" s="94" t="s">
+      <c r="B174" s="98" t="s">
         <v>231</v>
       </c>
-      <c r="C174" s="95" t="s">
+      <c r="C174" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="D174" s="95" t="s">
+      <c r="D174" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="E174" s="96" t="s">
+      <c r="E174" s="100" t="s">
         <v>47</v>
       </c>
       <c r="F174" s="54" t="s">
@@ -9383,14 +9386,14 @@
       <c r="A175" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B175" s="97" t="s">
+      <c r="B175" s="92" t="s">
         <v>169</v>
       </c>
-      <c r="C175" s="98"/>
-      <c r="D175" s="98"/>
-      <c r="E175" s="98"/>
-      <c r="F175" s="98"/>
-      <c r="G175" s="99"/>
+      <c r="C175" s="93"/>
+      <c r="D175" s="93"/>
+      <c r="E175" s="93"/>
+      <c r="F175" s="93"/>
+      <c r="G175" s="94"/>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="57" t="s">
@@ -9495,27 +9498,27 @@
       <c r="A181" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B181" s="91"/>
-      <c r="C181" s="92"/>
-      <c r="D181" s="92"/>
-      <c r="E181" s="92"/>
-      <c r="F181" s="92"/>
-      <c r="G181" s="93"/>
+      <c r="B181" s="95"/>
+      <c r="C181" s="96"/>
+      <c r="D181" s="96"/>
+      <c r="E181" s="96"/>
+      <c r="F181" s="96"/>
+      <c r="G181" s="97"/>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="53" t="s">
         <v>205</v>
       </c>
-      <c r="B182" s="94" t="s">
+      <c r="B182" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="C182" s="95" t="s">
+      <c r="C182" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="D182" s="95" t="s">
+      <c r="D182" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="E182" s="96" t="s">
+      <c r="E182" s="100" t="s">
         <v>54</v>
       </c>
       <c r="F182" s="54" t="s">
@@ -9530,14 +9533,14 @@
       <c r="A183" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B183" s="97" t="s">
+      <c r="B183" s="92" t="s">
         <v>169</v>
       </c>
-      <c r="C183" s="98"/>
-      <c r="D183" s="98"/>
-      <c r="E183" s="98"/>
-      <c r="F183" s="98"/>
-      <c r="G183" s="99"/>
+      <c r="C183" s="93"/>
+      <c r="D183" s="93"/>
+      <c r="E183" s="93"/>
+      <c r="F183" s="93"/>
+      <c r="G183" s="94"/>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="57" t="s">
@@ -9621,27 +9624,27 @@
       <c r="A188" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B188" s="91"/>
-      <c r="C188" s="92"/>
-      <c r="D188" s="92"/>
-      <c r="E188" s="92"/>
-      <c r="F188" s="92"/>
-      <c r="G188" s="93"/>
+      <c r="B188" s="95"/>
+      <c r="C188" s="96"/>
+      <c r="D188" s="96"/>
+      <c r="E188" s="96"/>
+      <c r="F188" s="96"/>
+      <c r="G188" s="97"/>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="B189" s="94" t="s">
+      <c r="B189" s="98" t="s">
         <v>56</v>
       </c>
-      <c r="C189" s="95" t="s">
+      <c r="C189" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="D189" s="95" t="s">
+      <c r="D189" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="E189" s="96" t="s">
+      <c r="E189" s="100" t="s">
         <v>54</v>
       </c>
       <c r="F189" s="54" t="s">
@@ -9656,14 +9659,14 @@
       <c r="A190" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B190" s="97" t="s">
+      <c r="B190" s="92" t="s">
         <v>169</v>
       </c>
-      <c r="C190" s="98"/>
-      <c r="D190" s="98"/>
-      <c r="E190" s="98"/>
-      <c r="F190" s="98"/>
-      <c r="G190" s="99"/>
+      <c r="C190" s="93"/>
+      <c r="D190" s="93"/>
+      <c r="E190" s="93"/>
+      <c r="F190" s="93"/>
+      <c r="G190" s="94"/>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="57" t="s">
@@ -9762,27 +9765,27 @@
       <c r="A196" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B196" s="91"/>
-      <c r="C196" s="92"/>
-      <c r="D196" s="92"/>
-      <c r="E196" s="92"/>
-      <c r="F196" s="92"/>
-      <c r="G196" s="93"/>
+      <c r="B196" s="95"/>
+      <c r="C196" s="96"/>
+      <c r="D196" s="96"/>
+      <c r="E196" s="96"/>
+      <c r="F196" s="96"/>
+      <c r="G196" s="97"/>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="B197" s="94" t="s">
+      <c r="B197" s="98" t="s">
         <v>221</v>
       </c>
-      <c r="C197" s="95" t="s">
+      <c r="C197" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="D197" s="95" t="s">
+      <c r="D197" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="E197" s="96" t="s">
+      <c r="E197" s="100" t="s">
         <v>57</v>
       </c>
       <c r="F197" s="54" t="s">
@@ -9797,14 +9800,14 @@
       <c r="A198" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B198" s="97" t="s">
+      <c r="B198" s="92" t="s">
         <v>169</v>
       </c>
-      <c r="C198" s="98"/>
-      <c r="D198" s="98"/>
-      <c r="E198" s="98"/>
-      <c r="F198" s="98"/>
-      <c r="G198" s="99"/>
+      <c r="C198" s="93"/>
+      <c r="D198" s="93"/>
+      <c r="E198" s="93"/>
+      <c r="F198" s="93"/>
+      <c r="G198" s="94"/>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" s="57" t="s">
@@ -9937,27 +9940,27 @@
       <c r="A206" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B206" s="91"/>
-      <c r="C206" s="92"/>
-      <c r="D206" s="92"/>
-      <c r="E206" s="92"/>
-      <c r="F206" s="92"/>
-      <c r="G206" s="93"/>
+      <c r="B206" s="95"/>
+      <c r="C206" s="96"/>
+      <c r="D206" s="96"/>
+      <c r="E206" s="96"/>
+      <c r="F206" s="96"/>
+      <c r="G206" s="97"/>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" s="53" t="s">
         <v>240</v>
       </c>
-      <c r="B207" s="94" t="s">
+      <c r="B207" s="98" t="s">
         <v>236</v>
       </c>
-      <c r="C207" s="95" t="s">
+      <c r="C207" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="D207" s="95" t="s">
+      <c r="D207" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="E207" s="96" t="s">
+      <c r="E207" s="100" t="s">
         <v>57</v>
       </c>
       <c r="F207" s="54" t="s">
@@ -9972,14 +9975,14 @@
       <c r="A208" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B208" s="97" t="s">
+      <c r="B208" s="92" t="s">
         <v>169</v>
       </c>
-      <c r="C208" s="98"/>
-      <c r="D208" s="98"/>
-      <c r="E208" s="98"/>
-      <c r="F208" s="98"/>
-      <c r="G208" s="99"/>
+      <c r="C208" s="93"/>
+      <c r="D208" s="93"/>
+      <c r="E208" s="93"/>
+      <c r="F208" s="93"/>
+      <c r="G208" s="94"/>
     </row>
     <row r="209" spans="1:7">
       <c r="A209" s="57" t="s">
@@ -10099,27 +10102,27 @@
       <c r="A215" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B215" s="91"/>
-      <c r="C215" s="92"/>
-      <c r="D215" s="92"/>
-      <c r="E215" s="92"/>
-      <c r="F215" s="92"/>
-      <c r="G215" s="93"/>
+      <c r="B215" s="95"/>
+      <c r="C215" s="96"/>
+      <c r="D215" s="96"/>
+      <c r="E215" s="96"/>
+      <c r="F215" s="96"/>
+      <c r="G215" s="97"/>
     </row>
     <row r="216" spans="1:7">
       <c r="A216" s="53" t="s">
         <v>248</v>
       </c>
-      <c r="B216" s="94" t="s">
+      <c r="B216" s="98" t="s">
         <v>237</v>
       </c>
-      <c r="C216" s="95" t="s">
+      <c r="C216" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="D216" s="95" t="s">
+      <c r="D216" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="E216" s="96" t="s">
+      <c r="E216" s="100" t="s">
         <v>57</v>
       </c>
       <c r="F216" s="54" t="s">
@@ -10134,14 +10137,14 @@
       <c r="A217" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B217" s="97" t="s">
+      <c r="B217" s="92" t="s">
         <v>169</v>
       </c>
-      <c r="C217" s="98"/>
-      <c r="D217" s="98"/>
-      <c r="E217" s="98"/>
-      <c r="F217" s="98"/>
-      <c r="G217" s="99"/>
+      <c r="C217" s="93"/>
+      <c r="D217" s="93"/>
+      <c r="E217" s="93"/>
+      <c r="F217" s="93"/>
+      <c r="G217" s="94"/>
     </row>
     <row r="218" spans="1:7">
       <c r="A218" s="57" t="s">
@@ -10303,12 +10306,12 @@
       <c r="A226" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B226" s="91"/>
-      <c r="C226" s="92"/>
-      <c r="D226" s="92"/>
-      <c r="E226" s="92"/>
-      <c r="F226" s="92"/>
-      <c r="G226" s="93"/>
+      <c r="B226" s="95"/>
+      <c r="C226" s="96"/>
+      <c r="D226" s="96"/>
+      <c r="E226" s="96"/>
+      <c r="F226" s="96"/>
+      <c r="G226" s="97"/>
     </row>
     <row r="227" spans="1:7">
       <c r="A227"/>
@@ -16996,31 +16999,51 @@
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="B145:G145"/>
-    <mergeCell ref="B152:G152"/>
-    <mergeCell ref="B135:G135"/>
-    <mergeCell ref="B136:E136"/>
-    <mergeCell ref="B137:G137"/>
-    <mergeCell ref="B143:G143"/>
-    <mergeCell ref="B144:E144"/>
-    <mergeCell ref="B116:E116"/>
-    <mergeCell ref="B117:G117"/>
-    <mergeCell ref="B126:G126"/>
-    <mergeCell ref="B127:E127"/>
-    <mergeCell ref="B128:G128"/>
-    <mergeCell ref="B63:G63"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B65:G65"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="B81:G81"/>
-    <mergeCell ref="B92:E92"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="B98:G98"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B83:G83"/>
-    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="B226:G226"/>
+    <mergeCell ref="B207:E207"/>
+    <mergeCell ref="B208:G208"/>
+    <mergeCell ref="B215:G215"/>
+    <mergeCell ref="B216:E216"/>
+    <mergeCell ref="B217:G217"/>
+    <mergeCell ref="B197:E197"/>
+    <mergeCell ref="B198:G198"/>
+    <mergeCell ref="B206:G206"/>
+    <mergeCell ref="B189:E189"/>
+    <mergeCell ref="B190:G190"/>
+    <mergeCell ref="B196:G196"/>
+    <mergeCell ref="B175:G175"/>
+    <mergeCell ref="B181:G181"/>
+    <mergeCell ref="B182:E182"/>
+    <mergeCell ref="B183:G183"/>
+    <mergeCell ref="B188:G188"/>
+    <mergeCell ref="B166:G166"/>
+    <mergeCell ref="B167:E167"/>
+    <mergeCell ref="B168:G168"/>
+    <mergeCell ref="B173:G173"/>
+    <mergeCell ref="B174:E174"/>
+    <mergeCell ref="B153:E153"/>
+    <mergeCell ref="B154:G154"/>
+    <mergeCell ref="B160:G160"/>
+    <mergeCell ref="B161:E161"/>
+    <mergeCell ref="B162:G162"/>
+    <mergeCell ref="B115:G115"/>
+    <mergeCell ref="B99:E99"/>
+    <mergeCell ref="B100:G100"/>
+    <mergeCell ref="B105:G105"/>
+    <mergeCell ref="B106:E106"/>
+    <mergeCell ref="B107:G107"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:E29"/>
     <mergeCell ref="B59:G59"/>
     <mergeCell ref="B35:G35"/>
     <mergeCell ref="B36:E36"/>
@@ -17033,54 +17056,34 @@
     <mergeCell ref="B53:G53"/>
     <mergeCell ref="B57:G57"/>
     <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B115:G115"/>
-    <mergeCell ref="B99:E99"/>
-    <mergeCell ref="B100:G100"/>
-    <mergeCell ref="B105:G105"/>
-    <mergeCell ref="B106:E106"/>
-    <mergeCell ref="B107:G107"/>
-    <mergeCell ref="B153:E153"/>
-    <mergeCell ref="B154:G154"/>
-    <mergeCell ref="B160:G160"/>
-    <mergeCell ref="B161:E161"/>
-    <mergeCell ref="B162:G162"/>
-    <mergeCell ref="B166:G166"/>
-    <mergeCell ref="B167:E167"/>
-    <mergeCell ref="B168:G168"/>
-    <mergeCell ref="B173:G173"/>
-    <mergeCell ref="B174:E174"/>
-    <mergeCell ref="B175:G175"/>
-    <mergeCell ref="B181:G181"/>
-    <mergeCell ref="B182:E182"/>
-    <mergeCell ref="B183:G183"/>
-    <mergeCell ref="B188:G188"/>
-    <mergeCell ref="B197:E197"/>
-    <mergeCell ref="B198:G198"/>
-    <mergeCell ref="B206:G206"/>
-    <mergeCell ref="B189:E189"/>
-    <mergeCell ref="B190:G190"/>
-    <mergeCell ref="B196:G196"/>
-    <mergeCell ref="B226:G226"/>
-    <mergeCell ref="B207:E207"/>
-    <mergeCell ref="B208:G208"/>
-    <mergeCell ref="B215:G215"/>
-    <mergeCell ref="B216:E216"/>
-    <mergeCell ref="B217:G217"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="B98:G98"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="B116:E116"/>
+    <mergeCell ref="B117:G117"/>
+    <mergeCell ref="B126:G126"/>
+    <mergeCell ref="B127:E127"/>
+    <mergeCell ref="B128:G128"/>
+    <mergeCell ref="B145:G145"/>
+    <mergeCell ref="B152:G152"/>
+    <mergeCell ref="B135:G135"/>
+    <mergeCell ref="B136:E136"/>
+    <mergeCell ref="B137:G137"/>
+    <mergeCell ref="B143:G143"/>
+    <mergeCell ref="B144:E144"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" showErrorMessage="1" promptTitle="Valid values include:" prompt="_x000a_" sqref="F452:F454 F459:F465 F678:F680 F668:F673 F470:F479 F484:F487 F492:F497 F502:F510 F515:F524 F529:F539 F544:F554 F570:F576 F598:F600 F559:F565 F581:F587 F592:F593 F605:F611 F616:F622 F638:F640 F627:F633 F645:F648 F653:F655 F660:F663 F26:F27 F61:F62 F21 F39:F42 F32:F34 F55:F56 F47:F50 F67:F71 F76:F80 F85:F90 F95:F97 F102:F104 F109:F114 F119:F125 F130:F134 F139:F142 F147:F151 F156:F159 F164:F165 F170:F172 F177:F180 F185:F187 F192:F195 F200:F205 F210:F214 F219:F225">
+    <dataValidation type="list" showErrorMessage="1" promptTitle="Valid values include:" prompt="_x000a_" sqref="F452:F454 F459:F465 F678:F680 F668:F673 F470:F479 F484:F487 F492:F497 F502:F510 F515:F524 F529:F539 F544:F554 F570:F576 F598:F600 F559:F565 F581:F587 F592:F593 F605:F611 F616:F622 F638:F640 F627:F633 F645:F648 F653:F655 F660:F663 F26:F27 F61:F62 F21 F39:F42 F32:F34 F55:F56 F47:F50 F67:F71 F76:F80 F85:F90 F95:F97 F102:F104 F109:F114 F119:F125 F130:F134 F139:F142 F147:F151 F156:F159 F164:F165 F170:F172 F177:F180 F185:F187 F192:F195 F200:F205 F210:F214 F219:F225" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Pass, Fail, Blocked"</formula1>
     </dataValidation>
   </dataValidations>
